--- a/data_clean/Gjensidige Forsikr 14.01.2021.xlsx
+++ b/data_clean/Gjensidige Forsikr 14.01.2021.xlsx
@@ -1242,7 +1242,7 @@
         <v>1.502950547349068</v>
       </c>
       <c r="K2">
-        <v>56.07268794316886</v>
+        <v>0.06072687943168852</v>
       </c>
       <c r="L2">
         <v>0.005060359779979257</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1313,7 +1313,7 @@
         <v>1.502950547349068</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.02480642632096328</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1384,7 +1384,7 @@
         <v>2.85000000000027</v>
       </c>
       <c r="K4">
-        <v>74.02597402597584</v>
+        <v>0.2402597402597584</v>
       </c>
       <c r="L4">
         <v>0.0152517677924995</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.000086647604194</v>
+        <v>8.664760419385686E-05</v>
       </c>
       <c r="V4">
-        <v>1.000086647604194</v>
+        <v>8.664760419385686E-05</v>
       </c>
       <c r="W4">
-        <v>0.9994805194805195</v>
+        <v>-0.0005194805194804752</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1455,7 +1455,7 @@
         <v>6.007894736842376</v>
       </c>
       <c r="K5">
-        <v>85.73037927149886</v>
+        <v>0.3573037927149886</v>
       </c>
       <c r="L5">
         <v>0.01561669671683145</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.000433200485184</v>
+        <v>0.0004332004851843596</v>
       </c>
       <c r="V5">
-        <v>1.000433200485184</v>
+        <v>0.0004332004851843596</v>
       </c>
       <c r="W5">
-        <v>1.001559251559252</v>
+        <v>0.001559251559251518</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1526,7 +1526,7 @@
         <v>12.65609418282638</v>
       </c>
       <c r="K6">
-        <v>92.67726198565927</v>
+        <v>0.4267726198565928</v>
       </c>
       <c r="L6">
         <v>0.02186366135058213</v>
@@ -1556,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000883346323721</v>
+        <v>0.0008833463237205574</v>
       </c>
       <c r="V6">
-        <v>1.000883346323721</v>
+        <v>0.0008833463237205574</v>
       </c>
       <c r="W6">
-        <v>1.003113648157758</v>
+        <v>0.003113648157758275</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1597,7 +1597,7 @@
         <v>17.32149730281472</v>
       </c>
       <c r="K7">
-        <v>94.5419308068977</v>
+        <v>0.445419308068977</v>
       </c>
       <c r="L7">
         <v>0.02907136040054675</v>
@@ -1627,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000934482400581</v>
+        <v>0.0009344824005812491</v>
       </c>
       <c r="V7">
-        <v>1.000934482400581</v>
+        <v>0.0009344824005812491</v>
       </c>
       <c r="W7">
-        <v>1.002069322296948</v>
+        <v>0.002069322296947673</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1668,7 +1668,7 @@
         <v>2.426425771319799</v>
       </c>
       <c r="K8">
-        <v>70.81506891611963</v>
+        <v>0.2081506891611963</v>
       </c>
       <c r="L8">
         <v>0.031131271669849</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000296384113811</v>
+        <v>0.0002963841138114987</v>
       </c>
       <c r="V8">
-        <v>1.000296384113811</v>
+        <v>0.0002963841138114987</v>
       </c>
       <c r="W8">
-        <v>0.9974186886938565</v>
+        <v>-0.002581311306143474</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1739,7 +1739,7 @@
         <v>2.426425771319799</v>
       </c>
       <c r="K9">
-        <v>70.81506891611963</v>
+        <v>0.2081506891611963</v>
       </c>
       <c r="L9">
         <v>0.03097317253139786</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000222222222222</v>
+        <v>0.0002222222222221237</v>
       </c>
       <c r="V9">
-        <v>1.000222222222222</v>
+        <v>0.0002222222222221237</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1810,7 +1810,7 @@
         <v>2.616989370937134</v>
       </c>
       <c r="K10">
-        <v>72.35269730027136</v>
+        <v>0.2235269730027136</v>
       </c>
       <c r="L10">
         <v>0.03020752677665621</v>
@@ -1840,13 +1840,13 @@
         <v>0.09305555555553724</v>
       </c>
       <c r="U10">
-        <v>1.00023040147457</v>
+        <v>0.0002304014745695415</v>
       </c>
       <c r="V10">
-        <v>1.00023040147457</v>
+        <v>0.0002304014745695415</v>
       </c>
       <c r="W10">
-        <v>1.000517598343685</v>
+        <v>0.0005175983436853659</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1881,7 +1881,7 @@
         <v>1.867695216369842</v>
       </c>
       <c r="K11">
-        <v>65.12879073439751</v>
+        <v>0.1512879073439751</v>
       </c>
       <c r="L11">
         <v>0.02836025247296962</v>
@@ -1911,13 +1911,13 @@
         <v>0.1525000000000034</v>
       </c>
       <c r="U11">
-        <v>1.000080621940685</v>
+        <v>8.062194068503281E-05</v>
       </c>
       <c r="V11">
-        <v>1.000080621940685</v>
+        <v>8.062194068503281E-05</v>
       </c>
       <c r="W11">
-        <v>0.9989653388515261</v>
+        <v>-0.001034661148473948</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1952,7 +1952,7 @@
         <v>1.623102885993228</v>
       </c>
       <c r="K12">
-        <v>61.8772101796017</v>
+        <v>0.118772101796017</v>
       </c>
       <c r="L12">
         <v>0.02578191374399221</v>
@@ -1982,13 +1982,13 @@
         <v>0.2238636363636317</v>
       </c>
       <c r="U12">
-        <v>1.000018845168099</v>
+        <v>1.884516809913528E-05</v>
       </c>
       <c r="V12">
-        <v>1.000018845168099</v>
+        <v>1.884516809913528E-05</v>
       </c>
       <c r="W12">
-        <v>0.9994821336095288</v>
+        <v>-0.0005178663904712444</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2023,7 +2023,7 @@
         <v>1.623102885993228</v>
       </c>
       <c r="K13">
-        <v>61.8772101796017</v>
+        <v>0.118772101796017</v>
       </c>
       <c r="L13">
         <v>0.02300790424264093</v>
@@ -2053,13 +2053,13 @@
         <v>0.2583333333333258</v>
       </c>
       <c r="U13">
-        <v>1.000015704010804</v>
+        <v>1.570401080441819E-05</v>
       </c>
       <c r="V13">
-        <v>1.000015704010804</v>
+        <v>1.570401080441819E-05</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2094,7 +2094,7 @@
         <v>2.058425143353378</v>
       </c>
       <c r="K14">
-        <v>67.30343385473347</v>
+        <v>0.1730343385473347</v>
       </c>
       <c r="L14">
         <v>0.02110722885131198</v>
@@ -2124,13 +2124,13 @@
         <v>0.2326923076923322</v>
       </c>
       <c r="U14">
-        <v>1.000132878004704</v>
+        <v>0.0001328780047038514</v>
       </c>
       <c r="V14">
-        <v>1.000132878004704</v>
+        <v>0.0001328780047038514</v>
       </c>
       <c r="W14">
-        <v>1.001554404145078</v>
+        <v>0.001554404145077681</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2165,7 +2165,7 @@
         <v>2.058425143353378</v>
       </c>
       <c r="K15">
-        <v>67.30343385473347</v>
+        <v>0.1730343385473347</v>
       </c>
       <c r="L15">
         <v>0.01969456830457325</v>
@@ -2195,13 +2195,13 @@
         <v>0.160714285714306</v>
       </c>
       <c r="U15">
-        <v>1.000113880300416</v>
+        <v>0.0001138803004161471</v>
       </c>
       <c r="V15">
-        <v>1.000113880300416</v>
+        <v>0.0001138803004161471</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2236,7 +2236,7 @@
         <v>2.219208987253695</v>
       </c>
       <c r="K16">
-        <v>68.93646843185849</v>
+        <v>0.1893646843185849</v>
       </c>
       <c r="L16">
         <v>0.01879594566143615</v>
@@ -2266,13 +2266,13 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="U16">
-        <v>1.000133224779809</v>
+        <v>0.000133224779809149</v>
       </c>
       <c r="V16">
-        <v>1.000133224779809</v>
+        <v>0.000133224779809149</v>
       </c>
       <c r="W16">
-        <v>1.000517330574237</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2307,7 +2307,7 @@
         <v>2.896193593149815</v>
       </c>
       <c r="K17">
-        <v>74.33392422393554</v>
+        <v>0.2433392422393554</v>
       </c>
       <c r="L17">
         <v>0.01908464084599623</v>
@@ -2337,13 +2337,13 @@
         <v>0.1875</v>
       </c>
       <c r="U17">
-        <v>1.000246062992126</v>
+        <v>0.0002460629921261503</v>
       </c>
       <c r="V17">
-        <v>1.000552562508634</v>
+        <v>0.0005525625086337804</v>
       </c>
       <c r="W17">
-        <v>1.002068252326784</v>
+        <v>0.00206825232678387</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2378,7 +2378,7 @@
         <v>2.135351454717369</v>
       </c>
       <c r="K18">
-        <v>68.10564893784313</v>
+        <v>0.1810564893784313</v>
       </c>
       <c r="L18">
         <v>0.01944136899589557</v>
@@ -2408,13 +2408,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U18">
-        <v>1.000156131592276</v>
+        <v>0.0001561315922757878</v>
       </c>
       <c r="V18">
-        <v>1.000379676929449</v>
+        <v>0.0003796769294490687</v>
       </c>
       <c r="W18">
-        <v>0.9989680082559339</v>
+        <v>-0.001031991744066096</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2449,7 +2449,7 @@
         <v>1.87596982398334</v>
       </c>
       <c r="K19">
-        <v>65.22912056792872</v>
+        <v>0.1522912056792872</v>
       </c>
       <c r="L19">
         <v>0.01950002885984577</v>
@@ -2479,13 +2479,13 @@
         <v>0.125</v>
       </c>
       <c r="U19">
-        <v>1.000109994246455</v>
+        <v>0.0001099942464548587</v>
       </c>
       <c r="V19">
-        <v>1.00037953282959</v>
+        <v>0.0003795328295899125</v>
       </c>
       <c r="W19">
-        <v>0.9994834710743802</v>
+        <v>-0.0005165289256198191</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2520,7 +2520,7 @@
         <v>1.87596982398334</v>
       </c>
       <c r="K20">
-        <v>65.22912056792872</v>
+        <v>0.1522912056792872</v>
       </c>
       <c r="L20">
         <v>0.01930415595110898</v>
@@ -2550,13 +2550,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U20">
-        <v>1.00009840508073</v>
+        <v>9.840508073000187E-05</v>
       </c>
       <c r="V20">
-        <v>1.000275919155687</v>
+        <v>0.0002759191556873652</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2591,7 +2591,7 @@
         <v>1.87596982398334</v>
       </c>
       <c r="K21">
-        <v>65.22912056792872</v>
+        <v>0.1522912056792872</v>
       </c>
       <c r="L21">
         <v>0.01889780282403825</v>
@@ -2621,13 +2621,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U21">
-        <v>1.000088555858311</v>
+        <v>8.855585831057944E-05</v>
       </c>
       <c r="V21">
-        <v>1.000068960761327</v>
+        <v>6.896076132689721E-05</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2662,7 +2662,7 @@
         <v>2.442677410512441</v>
       </c>
       <c r="K22">
-        <v>70.95284045648789</v>
+        <v>0.2095284045648789</v>
       </c>
       <c r="L22">
         <v>0.01914931542141358</v>
@@ -2692,13 +2692,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U22">
-        <v>1.000178717792281</v>
+        <v>0.0001787177922805139</v>
       </c>
       <c r="V22">
-        <v>1.000068956006068</v>
+        <v>6.895600606804386E-05</v>
       </c>
       <c r="W22">
-        <v>1.002067183462532</v>
+        <v>0.002067183462532318</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2733,7 +2733,7 @@
         <v>2.740944561317209</v>
       </c>
       <c r="K23">
-        <v>73.26878322816167</v>
+        <v>0.2326878322816167</v>
       </c>
       <c r="L23">
         <v>0.0200905683874257</v>
@@ -2763,13 +2763,13 @@
         <v>0.2437500000000057</v>
       </c>
       <c r="U23">
-        <v>1.00020949376448</v>
+        <v>0.0002094937644796513</v>
       </c>
       <c r="V23">
-        <v>1.000310280631594</v>
+        <v>0.0003102806315935513</v>
       </c>
       <c r="W23">
-        <v>1.001031459515214</v>
+        <v>0.001031459515213884</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2804,7 +2804,7 @@
         <v>2.369045393138939</v>
       </c>
       <c r="K24">
-        <v>70.31800159070281</v>
+        <v>0.2031800159070281</v>
       </c>
       <c r="L24">
         <v>0.02108435292597742</v>
@@ -2834,13 +2834,13 @@
         <v>0.2687500000000114</v>
       </c>
       <c r="U24">
-        <v>1.000168738399235</v>
+        <v>0.0001687383992350355</v>
       </c>
       <c r="V24">
-        <v>1.000275719455454</v>
+        <v>0.0002757194554541265</v>
       </c>
       <c r="W24">
-        <v>0.9994848016486347</v>
+        <v>-0.0005151983513652647</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2875,7 +2875,7 @@
         <v>2.654693497178356</v>
       </c>
       <c r="K25">
-        <v>72.63792433559584</v>
+        <v>0.2263792433559584</v>
       </c>
       <c r="L25">
         <v>0.02235579354129947</v>
@@ -2905,13 +2905,13 @@
         <v>0.2562499999999943</v>
       </c>
       <c r="U25">
-        <v>1.000197765530686</v>
+        <v>0.0001977655306864001</v>
       </c>
       <c r="V25">
-        <v>1.000310098887089</v>
+        <v>0.0003100988870894383</v>
       </c>
       <c r="W25">
-        <v>1.001030927835052</v>
+        <v>0.001030927835051543</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2946,7 +2946,7 @@
         <v>3.406399034124232</v>
       </c>
       <c r="K26">
-        <v>77.3057321351118</v>
+        <v>0.2730573213511179</v>
       </c>
       <c r="L26">
         <v>0.0246038660718264</v>
@@ -2976,13 +2976,13 @@
         <v>0.3062500000000057</v>
       </c>
       <c r="U26">
-        <v>1.000285363277798</v>
+        <v>0.0002853632777981563</v>
       </c>
       <c r="V26">
-        <v>1.00055111600992</v>
+        <v>0.0005511160099200829</v>
       </c>
       <c r="W26">
-        <v>1.002574665293512</v>
+        <v>0.002574665293511913</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3017,7 +3017,7 @@
         <v>2.309796725875723</v>
       </c>
       <c r="K27">
-        <v>69.78666417239219</v>
+        <v>0.1978666417239219</v>
       </c>
       <c r="L27">
         <v>0.0265934681581362</v>
@@ -3047,13 +3047,13 @@
         <v>0.3374999999999773</v>
       </c>
       <c r="U27">
-        <v>1.000203668580303</v>
+        <v>0.0002036685803028515</v>
       </c>
       <c r="V27">
-        <v>1.000481960892316</v>
+        <v>0.0004819608923163354</v>
       </c>
       <c r="W27">
-        <v>0.9984591679506934</v>
+        <v>-0.001540832049306551</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3088,7 +3088,7 @@
         <v>2.309796725875724</v>
       </c>
       <c r="K28">
-        <v>69.78666417239219</v>
+        <v>0.1978666417239219</v>
       </c>
       <c r="L28">
         <v>0.02819536064303797</v>
@@ -3118,13 +3118,13 @@
         <v>0.3625000000000114</v>
       </c>
       <c r="U28">
-        <v>1.000188543618388</v>
+        <v>0.0001885436183877154</v>
       </c>
       <c r="V28">
-        <v>1.000481728717913</v>
+        <v>0.000481728717913299</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3159,7 +3159,7 @@
         <v>2.064344313542431</v>
       </c>
       <c r="K29">
-        <v>67.36659142444786</v>
+        <v>0.1736659142444786</v>
       </c>
       <c r="L29">
         <v>0.02915975936792008</v>
@@ -3189,13 +3189,13 @@
         <v>0.3812499999999943</v>
       </c>
       <c r="U29">
-        <v>1.000156581624839</v>
+        <v>0.0001565816248387808</v>
       </c>
       <c r="V29">
-        <v>1.000343926262209</v>
+        <v>0.0003439262622093597</v>
       </c>
       <c r="W29">
-        <v>0.999485596707819</v>
+        <v>-0.0005144032921809982</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3230,7 +3230,7 @@
         <v>1.856660591936012</v>
       </c>
       <c r="K30">
-        <v>64.99409125386221</v>
+        <v>0.1499409125386221</v>
       </c>
       <c r="L30">
         <v>0.02937776016049037</v>
@@ -3260,13 +3260,13 @@
         <v>0.3625000000000114</v>
       </c>
       <c r="U30">
-        <v>1.000127937876931</v>
+        <v>0.0001279378769314388</v>
       </c>
       <c r="V30">
-        <v>1.000309427215843</v>
+        <v>0.0003094272158425948</v>
       </c>
       <c r="W30">
-        <v>0.9994853319608851</v>
+        <v>-0.0005146680391149294</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3301,7 +3301,7 @@
         <v>1.67886814548046</v>
       </c>
       <c r="K31">
-        <v>62.67080178294299</v>
+        <v>0.12670801782943</v>
       </c>
       <c r="L31">
         <v>0.02883324017861448</v>
@@ -3331,13 +3331,13 @@
         <v>0.3124999999999716</v>
       </c>
       <c r="U31">
-        <v>1.000102167495293</v>
+        <v>0.0001021674952925711</v>
       </c>
       <c r="V31">
-        <v>1.000240591166867</v>
+        <v>0.0002405911668672545</v>
       </c>
       <c r="W31">
-        <v>0.9994850669412977</v>
+        <v>-0.000514933058702316</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3372,7 +3372,7 @@
         <v>2.08206503445474</v>
       </c>
       <c r="K32">
-        <v>67.55422131522563</v>
+        <v>0.1755422131522564</v>
       </c>
       <c r="L32">
         <v>0.0285256625674972</v>
@@ -3402,13 +3402,13 @@
         <v>0.3062499999999773</v>
       </c>
       <c r="U32">
-        <v>1.000396155568569</v>
+        <v>0.0003961555685694229</v>
       </c>
       <c r="V32">
-        <v>1.000240533296681</v>
+        <v>0.0002405332966806117</v>
       </c>
       <c r="W32">
-        <v>1.002060793405461</v>
+        <v>0.002060793405461059</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3443,7 +3443,7 @@
         <v>2.08206503445474</v>
       </c>
       <c r="K33">
-        <v>67.55422131522563</v>
+        <v>0.1755422131522564</v>
       </c>
       <c r="L33">
         <v>0.0282736817056812</v>
@@ -3473,13 +3473,13 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="U33">
-        <v>1.000344346688246</v>
+        <v>0.0003443466882457891</v>
       </c>
       <c r="V33">
-        <v>1.000309182726992</v>
+        <v>0.0003091827269916525</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3514,7 +3514,7 @@
         <v>1.872884630961309</v>
       </c>
       <c r="K34">
-        <v>65.1917800936759</v>
+        <v>0.151917800936759</v>
       </c>
       <c r="L34">
         <v>0.027775898800738</v>
@@ -3544,13 +3544,13 @@
         <v>0.2125000000000341</v>
       </c>
       <c r="U34">
-        <v>1.000344228154421</v>
+        <v>0.0003442281544205894</v>
       </c>
       <c r="V34">
-        <v>1.00030908716258</v>
+        <v>0.0003090871625797131</v>
       </c>
       <c r="W34">
-        <v>0.9994858611825194</v>
+        <v>-0.0005141388174806361</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3585,7 +3585,7 @@
         <v>1.421796187975313</v>
       </c>
       <c r="K35">
-        <v>58.70833371671846</v>
+        <v>0.08708333716718464</v>
       </c>
       <c r="L35">
         <v>0.02648974729535401</v>
@@ -3615,13 +3615,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U35">
-        <v>1.000240876791521</v>
+        <v>0.0002408767915211829</v>
       </c>
       <c r="V35">
-        <v>1.00020599443815</v>
+        <v>0.000205994438150281</v>
       </c>
       <c r="W35">
-        <v>0.9984567901234568</v>
+        <v>-0.001543209876543217</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3656,7 +3656,7 @@
         <v>1.421796187975313</v>
       </c>
       <c r="K36">
-        <v>58.70833371671846</v>
+        <v>0.08708333716718464</v>
       </c>
       <c r="L36">
         <v>0.02471439837537802</v>
@@ -3686,13 +3686,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U36">
-        <v>1.000137610733637</v>
+        <v>0.0001376107336370502</v>
       </c>
       <c r="V36">
-        <v>1.000205952013181</v>
+        <v>0.0002059520131809656</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3727,7 +3727,7 @@
         <v>1.421796187975313</v>
       </c>
       <c r="K37">
-        <v>58.70833371671846</v>
+        <v>0.08708333716718464</v>
       </c>
       <c r="L37">
         <v>0.02266774172480478</v>
@@ -3757,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1.000068795899764</v>
+        <v>6.879589976449552E-05</v>
       </c>
       <c r="V37">
-        <v>1.000068636535228</v>
+        <v>6.863653522759527E-05</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3798,7 +3798,7 @@
         <v>1.109982043366629</v>
       </c>
       <c r="K38">
-        <v>52.60623173814182</v>
+        <v>0.02606231738141818</v>
       </c>
       <c r="L38">
         <v>0.01993872535692543</v>
@@ -3828,13 +3828,13 @@
         <v>-0.04375000000001705</v>
       </c>
       <c r="U38">
-        <v>1.000103186750821</v>
+        <v>0.0001031867508212159</v>
       </c>
       <c r="V38">
-        <v>0.9998970522631345</v>
+        <v>-0.0001029477368654774</v>
       </c>
       <c r="W38">
-        <v>0.9984544049459042</v>
+        <v>-0.001545595054095794</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3869,7 +3869,7 @@
         <v>1.263883808919007</v>
       </c>
       <c r="K39">
-        <v>55.82812174104046</v>
+        <v>0.0582812174104046</v>
       </c>
       <c r="L39">
         <v>0.01727791532642753</v>
@@ -3899,13 +3899,13 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="U39">
-        <v>1.000137568139219</v>
+        <v>0.0001375681392190575</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>1.001031991744066</v>
+        <v>0.001031991744065985</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3940,7 +3940,7 @@
         <v>1.169179206728169</v>
       </c>
       <c r="K40">
-        <v>53.89961341606593</v>
+        <v>0.03899613416065928</v>
       </c>
       <c r="L40">
         <v>0.01457701624039156</v>
@@ -3970,13 +3970,13 @@
         <v>-0.1187499999999773</v>
       </c>
       <c r="U40">
-        <v>1.000103161912622</v>
+        <v>0.0001031619126217187</v>
       </c>
       <c r="V40">
-        <v>0.9998970416638066</v>
+        <v>-0.0001029583361934483</v>
       </c>
       <c r="W40">
-        <v>0.9994845360824742</v>
+        <v>-0.0005154639175257714</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4011,7 +4011,7 @@
         <v>1.083702021561908</v>
       </c>
       <c r="K41">
-        <v>52.00849307376411</v>
+        <v>0.02008493073764117</v>
       </c>
       <c r="L41">
         <v>0.01178315902667443</v>
@@ -4041,13 +4041,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U41">
-        <v>1.000120343149896</v>
+        <v>0.0001203431498959517</v>
       </c>
       <c r="V41">
-        <v>0.9996910931868886</v>
+        <v>-0.0003089068131113537</v>
       </c>
       <c r="W41">
-        <v>0.9994842702423931</v>
+        <v>-0.000515729757606942</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4082,7 +4082,7 @@
         <v>1.237615098133508</v>
       </c>
       <c r="K42">
-        <v>55.30956146863044</v>
+        <v>0.05309561468630442</v>
       </c>
       <c r="L42">
         <v>0.009445625640204918</v>
@@ -4112,13 +4112,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U42">
-        <v>1.000171898098807</v>
+        <v>0.0001718980988070218</v>
       </c>
       <c r="V42">
-        <v>0.9998626656595482</v>
+        <v>-0.0001373343404518224</v>
       </c>
       <c r="W42">
-        <v>1.001031991744066</v>
+        <v>0.001031991744065985</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4153,7 +4153,7 @@
         <v>1.237615098133508</v>
       </c>
       <c r="K43">
-        <v>55.30956146863044</v>
+        <v>0.05309561468630442</v>
       </c>
       <c r="L43">
         <v>0.007498938388517692</v>
@@ -4183,13 +4183,13 @@
         <v>-0.1749999999999829</v>
       </c>
       <c r="U43">
-        <v>1.000171868554929</v>
+        <v>0.0001718685549292331</v>
       </c>
       <c r="V43">
-        <v>0.9998626467962366</v>
+        <v>-0.0001373532037634018</v>
       </c>
       <c r="W43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4224,7 +4224,7 @@
         <v>1.057301969122102</v>
       </c>
       <c r="K44">
-        <v>51.39264847801012</v>
+        <v>0.01392648478010128</v>
       </c>
       <c r="L44">
         <v>0.005509356832854011</v>
@@ -4254,13 +4254,13 @@
         <v>-0.1750000000000398</v>
       </c>
       <c r="U44">
-        <v>1.000085919510603</v>
+        <v>8.591951060266112E-05</v>
       </c>
       <c r="V44">
-        <v>0.9998282849096779</v>
+        <v>-0.0001717150903220999</v>
       </c>
       <c r="W44">
-        <v>0.9989690721649485</v>
+        <v>-0.001030927835051543</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4295,7 +4295,7 @@
         <v>0.9167129187640948</v>
       </c>
       <c r="K45">
-        <v>47.8273459624405</v>
+        <v>-0.02172654037559496</v>
       </c>
       <c r="L45">
         <v>0.00322469716298652</v>
@@ -4325,13 +4325,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U45">
-        <v>1.000051547277444</v>
+        <v>5.154727744449694E-05</v>
       </c>
       <c r="V45">
-        <v>0.9997939065022499</v>
+        <v>-0.0002060934977501372</v>
       </c>
       <c r="W45">
-        <v>0.9989680082559339</v>
+        <v>-0.001031991744066096</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4366,7 +4366,7 @@
         <v>0.8567538447116367</v>
       </c>
       <c r="K46">
-        <v>46.14256473208999</v>
+        <v>-0.03857435267910003</v>
       </c>
       <c r="L46">
         <v>0.0007076072262487199</v>
@@ -4396,13 +4396,13 @@
         <v>-0.1875</v>
       </c>
       <c r="U46">
-        <v>1.000017181540153</v>
+        <v>1.718154015306617E-05</v>
       </c>
       <c r="V46">
-        <v>0.9997938640189644</v>
+        <v>-0.0002061359810355823</v>
       </c>
       <c r="W46">
-        <v>0.9994834710743802</v>
+        <v>-0.0005165289256198191</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4437,7 +4437,7 @@
         <v>0.9256028960342167</v>
       </c>
       <c r="K47">
-        <v>48.06821271096433</v>
+        <v>-0.01931787289035669</v>
       </c>
       <c r="L47">
         <v>-0.001604162538188915</v>
@@ -4467,13 +4467,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U47">
-        <v>0.9999656375100943</v>
+        <v>-3.436248990573709E-05</v>
       </c>
       <c r="V47">
-        <v>0.9996907322772414</v>
+        <v>-0.0003092677227586327</v>
       </c>
       <c r="W47">
-        <v>1.000516795865633</v>
+        <v>0.0005167958656331351</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4508,7 +4508,7 @@
         <v>0.8630549835533013</v>
       </c>
       <c r="K48">
-        <v>46.32471887154101</v>
+        <v>-0.0367528112845899</v>
       </c>
       <c r="L48">
         <v>-0.003826306509959033</v>
@@ -4538,13 +4538,13 @@
         <v>-0.1937499999999943</v>
       </c>
       <c r="U48">
-        <v>0.9999828181646362</v>
+        <v>-1.71818353638109E-05</v>
       </c>
       <c r="V48">
-        <v>0.9996562628901416</v>
+        <v>-0.0003437371098583553</v>
       </c>
       <c r="W48">
-        <v>0.9994834710743802</v>
+        <v>-0.0005165289256198191</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4579,7 +4579,7 @@
         <v>0.8630549835533012</v>
       </c>
       <c r="K49">
-        <v>46.324718871541</v>
+        <v>-0.03675281128458996</v>
       </c>
       <c r="L49">
         <v>-0.005838620724422027</v>
@@ -4609,13 +4609,13 @@
         <v>-0.1687499999999886</v>
       </c>
       <c r="U49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>0.9996905302248815</v>
+        <v>-0.0003094697751184761</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4650,7 +4650,7 @@
         <v>0.8029346856761261</v>
       </c>
       <c r="K50">
-        <v>44.53487372866279</v>
+        <v>-0.05465126271337212</v>
       </c>
       <c r="L50">
         <v>-0.007762293647471691</v>
@@ -4680,13 +4680,13 @@
         <v>-0.1812500000000057</v>
       </c>
       <c r="U50">
-        <v>0.9999828178694157</v>
+        <v>-1.718213058432561E-05</v>
       </c>
       <c r="V50">
-        <v>0.9997592267739827</v>
+        <v>-0.0002407732260173434</v>
       </c>
       <c r="W50">
-        <v>0.999483204134367</v>
+        <v>-0.000516795865633024</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4721,7 +4721,7 @@
         <v>0.8762608645259221</v>
       </c>
       <c r="K51">
-        <v>46.70250715629185</v>
+        <v>-0.0329749284370815</v>
       </c>
       <c r="L51">
         <v>-0.009293662004398866</v>
@@ -4751,13 +4751,13 @@
         <v>-0.2062499999999829</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>0.9997935732470927</v>
+        <v>-0.0002064267529072739</v>
       </c>
       <c r="W51">
-        <v>1.000517063081696</v>
+        <v>0.0005170630816959676</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4792,7 +4792,7 @@
         <v>0.7590808659234746</v>
       </c>
       <c r="K52">
-        <v>43.15213021915145</v>
+        <v>-0.06847869780848553</v>
       </c>
       <c r="L52">
         <v>-0.01083182334265221</v>
@@ -4822,13 +4822,13 @@
         <v>-0.2187499999999716</v>
       </c>
       <c r="U52">
-        <v>0.9998969054451108</v>
+        <v>-0.0001030945548892159</v>
       </c>
       <c r="V52">
-        <v>0.9997247075017205</v>
+        <v>-0.0002752924982795113</v>
       </c>
       <c r="W52">
-        <v>0.998966408268734</v>
+        <v>-0.001033591731266048</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4863,7 +4863,7 @@
         <v>0.7590808659234745</v>
       </c>
       <c r="K53">
-        <v>43.15213021915144</v>
+        <v>-0.06847869780848564</v>
       </c>
       <c r="L53">
         <v>-0.01223682122361042</v>
@@ -4893,13 +4893,13 @@
         <v>-0.2062500000000114</v>
       </c>
       <c r="U53">
-        <v>0.9998625264207035</v>
+        <v>-0.0001374735792964987</v>
       </c>
       <c r="V53">
-        <v>0.9998278948093074</v>
+        <v>-0.0001721051906925508</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4934,7 +4934,7 @@
         <v>0.661119893463224</v>
       </c>
       <c r="K54">
-        <v>39.7996493850226</v>
+        <v>-0.102003506149774</v>
       </c>
       <c r="L54">
         <v>-0.0138030178225752</v>
@@ -4964,13 +4964,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U54">
-        <v>0.9998453209590102</v>
+        <v>-0.000154679040989758</v>
       </c>
       <c r="V54">
-        <v>0.9996901573312218</v>
+        <v>-0.0003098426687782041</v>
       </c>
       <c r="W54">
-        <v>0.9989653388515261</v>
+        <v>-0.001034661148473948</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5005,7 +5005,7 @@
         <v>0.7290420462569119</v>
       </c>
       <c r="K55">
-        <v>42.16450651591536</v>
+        <v>-0.07835493484084644</v>
       </c>
       <c r="L55">
         <v>-0.01512923243036149</v>
@@ -5035,13 +5035,13 @@
         <v>-0.2125000000000057</v>
       </c>
       <c r="U55">
-        <v>0.9998281078107811</v>
+        <v>-0.0001718921892188696</v>
       </c>
       <c r="V55">
-        <v>0.9997589365658794</v>
+        <v>-0.0002410634341205586</v>
       </c>
       <c r="W55">
-        <v>1.000517866390471</v>
+        <v>0.0005178663904712444</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5076,7 +5076,7 @@
         <v>0.8005390491976566</v>
       </c>
       <c r="K56">
-        <v>44.46107678444337</v>
+        <v>-0.05538923215556629</v>
       </c>
       <c r="L56">
         <v>-0.01598280562036524</v>
@@ -5106,13 +5106,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U56">
-        <v>0.9997593095622873</v>
+        <v>-0.0002406904377126873</v>
       </c>
       <c r="V56">
-        <v>0.9998277703144912</v>
+        <v>-0.0001722296855087846</v>
       </c>
       <c r="W56">
-        <v>1.000517598343685</v>
+        <v>0.0005175983436853659</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5147,7 +5147,7 @@
         <v>0.7445074185713393</v>
       </c>
       <c r="K57">
-        <v>42.67722857728241</v>
+        <v>-0.07322771422717589</v>
       </c>
       <c r="L57">
         <v>-0.01662552143005252</v>
@@ -5177,13 +5177,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U57">
-        <v>0.9997936442426743</v>
+        <v>-0.0002063557573257491</v>
       </c>
       <c r="V57">
-        <v>0.9997243850341074</v>
+        <v>-0.0002756149658925677</v>
       </c>
       <c r="W57">
-        <v>0.9994826694257629</v>
+        <v>-0.0005173305742370848</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5218,7 +5218,7 @@
         <v>0.5750403111040215</v>
       </c>
       <c r="K58">
-        <v>36.50956150455274</v>
+        <v>-0.1349043849544726</v>
       </c>
       <c r="L58">
         <v>-0.01779100761957796</v>
@@ -5248,13 +5248,13 @@
         <v>-0.2000000000000171</v>
       </c>
       <c r="U58">
-        <v>0.9997248022015824</v>
+        <v>-0.0002751977984175591</v>
       </c>
       <c r="V58">
-        <v>0.9995864635743331</v>
+        <v>-0.0004135364256668828</v>
       </c>
       <c r="W58">
-        <v>0.9979296066252589</v>
+        <v>-0.002070393374741131</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5289,7 +5289,7 @@
         <v>0.5425416213796428</v>
       </c>
       <c r="K59">
-        <v>35.17192754218171</v>
+        <v>-0.1482807245781829</v>
       </c>
       <c r="L59">
         <v>-0.01932268380667957</v>
@@ -5319,13 +5319,13 @@
         <v>-0.2187500000000284</v>
       </c>
       <c r="U59">
-        <v>0.9997247264469065</v>
+        <v>-0.0002752735530935357</v>
       </c>
       <c r="V59">
-        <v>0.9996207681169413</v>
+        <v>-0.0003792318830586616</v>
       </c>
       <c r="W59">
-        <v>0.9994813278008298</v>
+        <v>-0.0005186721991702337</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5360,7 +5360,7 @@
         <v>0.4848537267112661</v>
       </c>
       <c r="K60">
-        <v>32.65329897411149</v>
+        <v>-0.1734670102588851</v>
       </c>
       <c r="L60">
         <v>-0.02128492055615827</v>
@@ -5390,13 +5390,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U60">
-        <v>0.9997074413161701</v>
+        <v>-0.0002925586838299354</v>
       </c>
       <c r="V60">
-        <v>0.9996206242455595</v>
+        <v>-0.0003793757544404697</v>
       </c>
       <c r="W60">
-        <v>0.9989621172807474</v>
+        <v>-0.001037882719252647</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5431,7 +5431,7 @@
         <v>0.5967789638875513</v>
       </c>
       <c r="K61">
-        <v>37.37392446820697</v>
+        <v>-0.1262607553179304</v>
       </c>
       <c r="L61">
         <v>-0.02293024087897544</v>
@@ -5461,13 +5461,13 @@
         <v>-0.2562499999999943</v>
       </c>
       <c r="U61">
-        <v>0.9997589988122083</v>
+        <v>-0.0002410011877916896</v>
       </c>
       <c r="V61">
-        <v>0.9997239856472536</v>
+        <v>-0.0002760143527463788</v>
       </c>
       <c r="W61">
-        <v>1.001038961038961</v>
+        <v>0.00103896103896095</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5502,7 +5502,7 @@
         <v>0.7145950030204996</v>
       </c>
       <c r="K62">
-        <v>41.67718917654841</v>
+        <v>-0.08322810823451587</v>
       </c>
       <c r="L62">
         <v>-0.02381960297600498</v>
@@ -5532,13 +5532,13 @@
         <v>-0.2437499999999773</v>
       </c>
       <c r="U62">
-        <v>0.9997245036761541</v>
+        <v>-0.0002754963238459363</v>
       </c>
       <c r="V62">
-        <v>0.99975842076201</v>
+        <v>-0.0002415792379899528</v>
       </c>
       <c r="W62">
-        <v>1.001037882719253</v>
+        <v>0.001037882719252758</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5573,7 +5573,7 @@
         <v>0.7145950030204995</v>
       </c>
       <c r="K63">
-        <v>41.67718917654841</v>
+        <v>-0.08322810823451587</v>
       </c>
       <c r="L63">
         <v>-0.0241077380047237</v>
@@ -5603,13 +5603,13 @@
         <v>-0.2375000000000114</v>
       </c>
       <c r="U63">
-        <v>0.9997244277570141</v>
+        <v>-0.0002755722429859109</v>
       </c>
       <c r="V63">
-        <v>0.9997928820463254</v>
+        <v>-0.0002071179536745626</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5644,7 +5644,7 @@
         <v>0.7798670468614589</v>
       </c>
       <c r="K64">
-        <v>43.81602818236581</v>
+        <v>-0.06183971817634187</v>
       </c>
       <c r="L64">
         <v>-0.02373739912876523</v>
@@ -5674,13 +5674,13 @@
         <v>-0.2437500000000341</v>
       </c>
       <c r="U64">
-        <v>0.9997588078215178</v>
+        <v>-0.0002411921784821747</v>
       </c>
       <c r="V64">
-        <v>0.9998273659496599</v>
+        <v>-0.0001726340503400703</v>
       </c>
       <c r="W64">
-        <v>1.000518403317781</v>
+        <v>0.0005184033177811909</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5715,7 +5715,7 @@
         <v>0.9172818760003209</v>
       </c>
       <c r="K65">
-        <v>47.8428283020064</v>
+        <v>-0.02157171697993598</v>
       </c>
       <c r="L65">
         <v>-0.02252875477731896</v>
@@ -5745,13 +5745,13 @@
         <v>-0.2249999999999943</v>
       </c>
       <c r="U65">
-        <v>0.999844910478882</v>
+        <v>-0.0001550895211179792</v>
       </c>
       <c r="V65">
-        <v>0.9999309344567994</v>
+        <v>-6.906554320063041E-05</v>
       </c>
       <c r="W65">
-        <v>1.001036269430052</v>
+        <v>0.001036269430051862</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5786,7 +5786,7 @@
         <v>0.9896054702839531</v>
       </c>
       <c r="K66">
-        <v>49.73877912301469</v>
+        <v>-0.002612208769853075</v>
       </c>
       <c r="L66">
         <v>-0.02061856272348094</v>
@@ -5816,13 +5816,13 @@
         <v>-0.15625</v>
       </c>
       <c r="U66">
-        <v>0.9998621212643481</v>
+        <v>-0.0001378787356518529</v>
       </c>
       <c r="V66">
-        <v>0.9999309296864208</v>
+        <v>-6.907031357916704E-05</v>
       </c>
       <c r="W66">
-        <v>1.000517598343685</v>
+        <v>0.0005175983436853659</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5857,7 +5857,7 @@
         <v>1.06573556952986</v>
       </c>
       <c r="K67">
-        <v>51.59109351892558</v>
+        <v>0.01591093518925579</v>
       </c>
       <c r="L67">
         <v>-0.01814125415271533</v>
@@ -5887,13 +5887,13 @@
         <v>-0.06249999999997158</v>
       </c>
       <c r="U67">
-        <v>0.999879339469783</v>
+        <v>-0.0001206605302169761</v>
       </c>
       <c r="V67">
-        <v>1.000034537542309</v>
+        <v>3.453754230853257E-05</v>
       </c>
       <c r="W67">
-        <v>1.000517330574237</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5928,7 +5928,7 @@
         <v>0.9866670822709576</v>
       </c>
       <c r="K68">
-        <v>49.66444006023894</v>
+        <v>-0.003355599397610598</v>
       </c>
       <c r="L68">
         <v>-0.01560006805077798</v>
@@ -5958,13 +5958,13 @@
         <v>0.03749999999999432</v>
       </c>
       <c r="U68">
-        <v>0.9999138035064734</v>
+        <v>-8.619649352659131E-05</v>
       </c>
       <c r="V68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68">
-        <v>0.999482936918304</v>
+        <v>-0.0005170630816959676</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5999,7 +5999,7 @@
         <v>0.9866670822709575</v>
       </c>
       <c r="K69">
-        <v>49.66444006023894</v>
+        <v>-0.003355599397610598</v>
       </c>
       <c r="L69">
         <v>-0.01312513656884471</v>
@@ -6029,13 +6029,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U69">
-        <v>0.9998793145063963</v>
+        <v>-0.0001206854936036672</v>
       </c>
       <c r="V69">
-        <v>1.000069072699016</v>
+        <v>6.907269901579305E-05</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6070,7 +6070,7 @@
         <v>1.151080309534975</v>
       </c>
       <c r="K70">
-        <v>53.51173103266506</v>
+        <v>0.03511731032665066</v>
       </c>
       <c r="L70">
         <v>-0.01042340941599857</v>
@@ -6100,13 +6100,13 @@
         <v>0.1624999999999659</v>
       </c>
       <c r="U70">
-        <v>0.9999310285369429</v>
+        <v>-6.897146305706592E-05</v>
       </c>
       <c r="V70">
-        <v>1.000103601892461</v>
+        <v>0.0001036018924611692</v>
       </c>
       <c r="W70">
-        <v>1.001034661148474</v>
+        <v>0.001034661148473726</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6141,7 +6141,7 @@
         <v>1.151080309534975</v>
       </c>
       <c r="K71">
-        <v>53.51173103266506</v>
+        <v>0.03511731032665066</v>
       </c>
       <c r="L71">
         <v>-0.007718316940812941</v>
@@ -6171,13 +6171,13 @@
         <v>0.21875</v>
       </c>
       <c r="U71">
-        <v>0.9999482678346641</v>
+        <v>-5.173216533593816E-05</v>
       </c>
       <c r="V71">
-        <v>1.000069060773481</v>
+        <v>6.906077348078909E-05</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6212,7 +6212,7 @@
         <v>1.151080309534975</v>
       </c>
       <c r="K72">
-        <v>53.51173103266506</v>
+        <v>0.03511731032665066</v>
       </c>
       <c r="L72">
         <v>-0.005155398676110323</v>
@@ -6242,13 +6242,13 @@
         <v>0.2687499999999829</v>
       </c>
       <c r="U72">
-        <v>0.9999137752638476</v>
+        <v>-8.622473615238491E-05</v>
       </c>
       <c r="V72">
-        <v>1.000103584006629</v>
+        <v>0.0001035840066292426</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6283,7 +6283,7 @@
         <v>1.151080309534975</v>
       </c>
       <c r="K73">
-        <v>53.51173103266506</v>
+        <v>0.03511731032665066</v>
       </c>
       <c r="L73">
         <v>-0.002823172120509308</v>
@@ -6313,13 +6313,13 @@
         <v>0.2874999999999943</v>
       </c>
       <c r="U73">
-        <v>0.9999137678285015</v>
+        <v>-8.623217149850149E-05</v>
       </c>
       <c r="V73">
-        <v>1.00024167098222</v>
+        <v>0.0002416709822199437</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6354,7 +6354,7 @@
         <v>1.045554429285991</v>
       </c>
       <c r="K74">
-        <v>51.11349834142257</v>
+        <v>0.0111349834142257</v>
       </c>
       <c r="L74">
         <v>-0.0009575192180107224</v>
@@ -6384,13 +6384,13 @@
         <v>0.2624999999999886</v>
       </c>
       <c r="U74">
-        <v>0.999931008313498</v>
+        <v>-6.899168650198462E-05</v>
       </c>
       <c r="V74">
-        <v>1.000241612591467</v>
+        <v>0.0002416125914674883</v>
       </c>
       <c r="W74">
-        <v>0.999483204134367</v>
+        <v>-0.000516795865633024</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6425,7 +6425,7 @@
         <v>0.9535375397270556</v>
       </c>
       <c r="K75">
-        <v>48.81081219766486</v>
+        <v>-0.0118918780233514</v>
       </c>
       <c r="L75">
         <v>0.0003215748421794413</v>
@@ -6455,13 +6455,13 @@
         <v>0.2125000000000057</v>
       </c>
       <c r="U75">
-        <v>0.999948252664988</v>
+        <v>-5.174733501200901E-05</v>
       </c>
       <c r="V75">
-        <v>1.000276061975914</v>
+        <v>0.0002760619759136773</v>
       </c>
       <c r="W75">
-        <v>0.999482936918304</v>
+        <v>-0.0005170630816959676</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6496,7 +6496,7 @@
         <v>0.9535375397270557</v>
       </c>
       <c r="K76">
-        <v>48.81081219766486</v>
+        <v>-0.0118918780233514</v>
       </c>
       <c r="L76">
         <v>0.001162589947301073</v>
@@ -6526,13 +6526,13 @@
         <v>0.1625000000000227</v>
       </c>
       <c r="U76">
-        <v>0.9999654999913751</v>
+        <v>-3.450000862492697E-05</v>
       </c>
       <c r="V76">
-        <v>1.000206989340049</v>
+        <v>0.0002069893400491463</v>
       </c>
       <c r="W76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6567,7 +6567,7 @@
         <v>0.8688146380649535</v>
       </c>
       <c r="K77">
-        <v>46.49014516306227</v>
+        <v>-0.03509854836937731</v>
       </c>
       <c r="L77">
         <v>0.001491938293204421</v>
@@ -6597,13 +6597,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U77">
-        <v>0.9999309976021666</v>
+        <v>-6.900239783336204E-05</v>
       </c>
       <c r="V77">
-        <v>1.000103473252164</v>
+        <v>0.00010347325216431</v>
       </c>
       <c r="W77">
-        <v>0.9994826694257629</v>
+        <v>-0.0005173305742370848</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6638,7 +6638,7 @@
         <v>0.9623421585180121</v>
       </c>
       <c r="K78">
-        <v>49.04048737579924</v>
+        <v>-0.009595126242007535</v>
       </c>
       <c r="L78">
         <v>0.001673309435773912</v>
@@ -6668,13 +6668,13 @@
         <v>0.06874999999999432</v>
       </c>
       <c r="U78">
-        <v>0.9999654964202537</v>
+        <v>-3.450357974632556E-05</v>
       </c>
       <c r="V78">
-        <v>1.000137950062078</v>
+        <v>0.0001379500620775076</v>
       </c>
       <c r="W78">
-        <v>1.000517598343685</v>
+        <v>0.0005175983436853659</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6709,7 +6709,7 @@
         <v>0.8760909824354138</v>
       </c>
       <c r="K79">
-        <v>46.69768101001861</v>
+        <v>-0.0330231898998139</v>
       </c>
       <c r="L79">
         <v>0.001558966634283767</v>
@@ -6739,13 +6739,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U79">
-        <v>0.9999482428445732</v>
+        <v>-5.175715542682369E-05</v>
       </c>
       <c r="V79">
-        <v>1.000068965517241</v>
+        <v>6.896551724122624E-05</v>
       </c>
       <c r="W79">
-        <v>0.9994826694257629</v>
+        <v>-0.0005173305742370848</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6780,7 +6780,7 @@
         <v>0.8005630732500592</v>
       </c>
       <c r="K80">
-        <v>44.46181781374778</v>
+        <v>-0.05538182186252222</v>
       </c>
       <c r="L80">
         <v>0.001078682790503355</v>
@@ -6810,13 +6810,13 @@
         <v>-0.04374999999996021</v>
       </c>
       <c r="U80">
-        <v>0.9999482401656317</v>
+        <v>-5.175983436833675E-05</v>
       </c>
       <c r="V80">
-        <v>0.9999655196193367</v>
+        <v>-3.448038066333758E-05</v>
       </c>
       <c r="W80">
-        <v>0.9994824016563147</v>
+        <v>-0.0005175983436852549</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6851,7 +6851,7 @@
         <v>0.8913105685380092</v>
       </c>
       <c r="K81">
-        <v>47.12661068811115</v>
+        <v>-0.02873389311888852</v>
       </c>
       <c r="L81">
         <v>0.0005918053032915883</v>
@@ -6881,13 +6881,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U81">
-        <v>0.9999482374864123</v>
+        <v>-5.176251358773865E-05</v>
       </c>
       <c r="V81">
-        <v>0.9999655184303989</v>
+        <v>-3.448156960106363E-05</v>
       </c>
       <c r="W81">
-        <v>1.000517866390471</v>
+        <v>0.0005178663904712444</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6922,7 +6922,7 @@
         <v>0.8913105685380092</v>
       </c>
       <c r="K82">
-        <v>47.12661068811115</v>
+        <v>-0.02873389311888852</v>
       </c>
       <c r="L82">
         <v>0.0001298031454871267</v>
@@ -6952,13 +6952,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U82">
-        <v>0.9999827449356387</v>
+        <v>-1.725506436134339E-05</v>
       </c>
       <c r="V82">
-        <v>0.9999310344827587</v>
+        <v>-6.896551724133726E-05</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6993,7 +6993,7 @@
         <v>0.8913105685380092</v>
       </c>
       <c r="K83">
-        <v>47.12661068811115</v>
+        <v>-0.02873389311888852</v>
       </c>
       <c r="L83">
         <v>-0.000288164190238061</v>
@@ -7023,13 +7023,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U83">
-        <v>0.999982744637896</v>
+        <v>-1.725536210395173E-05</v>
       </c>
       <c r="V83">
-        <v>0.9999655148630939</v>
+        <v>-3.448513690607058E-05</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7064,7 +7064,7 @@
         <v>0.8060007040210428</v>
       </c>
       <c r="K84">
-        <v>44.62903598135318</v>
+        <v>-0.05370964018646823</v>
       </c>
       <c r="L84">
         <v>-0.0008401830762833218</v>
@@ -7094,13 +7094,13 @@
         <v>-0.1125000000000114</v>
       </c>
       <c r="U84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>0.9999310273476567</v>
+        <v>-6.897265234329097E-05</v>
       </c>
       <c r="W84">
-        <v>0.9994824016563147</v>
+        <v>-0.0005175983436852549</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7135,7 +7135,7 @@
         <v>0.8060007040210428</v>
       </c>
       <c r="K85">
-        <v>44.62903598135318</v>
+        <v>-0.05370964018646823</v>
       </c>
       <c r="L85">
         <v>-0.001435187969544685</v>
@@ -7165,13 +7165,13 @@
         <v>-0.1124999999999829</v>
       </c>
       <c r="U85">
-        <v>0.9999827443401436</v>
+        <v>-1.725565985644106E-05</v>
       </c>
       <c r="V85">
-        <v>0.9998620451802035</v>
+        <v>-0.0001379548197965041</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7206,7 +7206,7 @@
         <v>0.9120537106905559</v>
       </c>
       <c r="K86">
-        <v>47.70021394227253</v>
+        <v>-0.02299786057727465</v>
       </c>
       <c r="L86">
         <v>-0.001824696198668504</v>
@@ -7236,13 +7236,13 @@
         <v>-0.1062500000000171</v>
       </c>
       <c r="U86">
-        <v>0.9999827440423806</v>
+        <v>-1.725595761936649E-05</v>
       </c>
       <c r="V86">
-        <v>0.9998965196095337</v>
+        <v>-0.0001034803904662596</v>
       </c>
       <c r="W86">
-        <v>1.000517866390471</v>
+        <v>0.0005178663904712444</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7277,7 +7277,7 @@
         <v>0.8204616810746699</v>
       </c>
       <c r="K87">
-        <v>45.06887948283142</v>
+        <v>-0.0493112051716858</v>
       </c>
       <c r="L87">
         <v>-0.002246665092416107</v>
@@ -7307,13 +7307,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U87">
-        <v>0.9999827437446074</v>
+        <v>-1.725625539261699E-05</v>
       </c>
       <c r="V87">
-        <v>0.9998620118669794</v>
+        <v>-0.0001379881330205723</v>
       </c>
       <c r="W87">
-        <v>0.9994824016563147</v>
+        <v>-0.0005175983436852549</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7348,7 +7348,7 @@
         <v>0.8204616810746699</v>
       </c>
       <c r="K88">
-        <v>45.06887948283142</v>
+        <v>-0.0493112051716858</v>
       </c>
       <c r="L88">
         <v>-0.002653245776211171</v>
@@ -7378,13 +7378,13 @@
         <v>-0.06875000000002274</v>
       </c>
       <c r="U88">
-        <v>1.000051769659528</v>
+        <v>5.176965952813362E-05</v>
       </c>
       <c r="V88">
-        <v>0.999861992823627</v>
+        <v>-0.0001380071763730228</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7419,7 +7419,7 @@
         <v>0.9317347478197898</v>
       </c>
       <c r="K89">
-        <v>48.23305833636692</v>
+        <v>-0.01766941663633076</v>
       </c>
       <c r="L89">
         <v>-0.002826525289282348</v>
@@ -7449,13 +7449,13 @@
         <v>-0.04999999999998295</v>
       </c>
       <c r="U89">
-        <v>1.000086278299282</v>
+        <v>8.627829928231634E-05</v>
       </c>
       <c r="V89">
-        <v>0.9999309868875087</v>
+        <v>-6.901311249130071E-05</v>
       </c>
       <c r="W89">
-        <v>1.000517866390471</v>
+        <v>0.0005178663904712444</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7490,7 +7490,7 @@
         <v>0.9317347478197898</v>
       </c>
       <c r="K90">
-        <v>48.23305833636692</v>
+        <v>-0.01766941663633076</v>
       </c>
       <c r="L90">
         <v>-0.002837126357216913</v>
@@ -7520,13 +7520,13 @@
         <v>-0.03749999999999432</v>
       </c>
       <c r="U90">
-        <v>1.000120779198371</v>
+        <v>0.0001207791983710571</v>
       </c>
       <c r="V90">
-        <v>0.999965491062185</v>
+        <v>-3.450893781498099E-05</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7561,7 +7561,7 @@
         <v>0.9317347478197898</v>
       </c>
       <c r="K91">
-        <v>48.23305833636692</v>
+        <v>-0.01766941663633076</v>
       </c>
       <c r="L91">
         <v>-0.002738160334906306</v>
@@ -7591,13 +7591,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U91">
-        <v>1.000086260437513</v>
+        <v>8.626043751291945E-05</v>
       </c>
       <c r="V91">
-        <v>0.9999654898712772</v>
+        <v>-3.451012872279779E-05</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7632,7 +7632,7 @@
         <v>0.8247020841081103</v>
       </c>
       <c r="K92">
-        <v>45.19653324730067</v>
+        <v>-0.04803466752699331</v>
       </c>
       <c r="L92">
         <v>-0.002757586944326579</v>
@@ -7662,13 +7662,13 @@
         <v>-0.01874999999998295</v>
       </c>
       <c r="U92">
-        <v>1.000034501198917</v>
+        <v>3.450119891668102E-05</v>
       </c>
       <c r="V92">
-        <v>0.9999654886802871</v>
+        <v>-3.451131971288213E-05</v>
       </c>
       <c r="W92">
-        <v>0.9994824016563147</v>
+        <v>-0.0005175983436852549</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7703,7 +7703,7 @@
         <v>0.8247020841081104</v>
       </c>
       <c r="K93">
-        <v>45.19653324730068</v>
+        <v>-0.0480346675269932</v>
       </c>
       <c r="L93">
         <v>-0.002837472686870805</v>
@@ -7733,13 +7733,13 @@
         <v>-0.01250000000001705</v>
       </c>
       <c r="U93">
-        <v>1.000034500008625</v>
+        <v>3.450000862503799E-05</v>
       </c>
       <c r="V93">
-        <v>0.9999309749784296</v>
+        <v>-6.902502157035695E-05</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7774,7 +7774,7 @@
         <v>0.6573584866987093</v>
       </c>
       <c r="K94">
-        <v>39.66302353862507</v>
+        <v>-0.1033697646137493</v>
       </c>
       <c r="L94">
         <v>-0.003315477349723416</v>
@@ -7804,13 +7804,13 @@
         <v>-0.02499999999997726</v>
       </c>
       <c r="U94">
-        <v>0.9999827505907921</v>
+        <v>-1.724940920788676E-05</v>
       </c>
       <c r="V94">
-        <v>0.9998964553204709</v>
+        <v>-0.0001035446795291106</v>
       </c>
       <c r="W94">
-        <v>0.9989642672190575</v>
+        <v>-0.001035732780942489</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7845,7 +7845,7 @@
         <v>0.7641553279837006</v>
       </c>
       <c r="K95">
-        <v>43.31564890360724</v>
+        <v>-0.0668435109639276</v>
       </c>
       <c r="L95">
         <v>-0.003803735281285549</v>
@@ -7875,13 +7875,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U95">
-        <v>0.99996550058649</v>
+        <v>-3.449941350996966E-05</v>
       </c>
       <c r="V95">
-        <v>0.99996548153262</v>
+        <v>-3.451846738000697E-05</v>
       </c>
       <c r="W95">
-        <v>1.000518403317781</v>
+        <v>0.0005184033177811909</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7916,7 +7916,7 @@
         <v>0.7641553279837006</v>
       </c>
       <c r="K96">
-        <v>43.31564890360724</v>
+        <v>-0.0668435109639276</v>
       </c>
       <c r="L96">
         <v>-0.004253272289892624</v>
@@ -7946,13 +7946,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U96">
-        <v>0.9999482490943592</v>
+        <v>-5.175090564080165E-05</v>
       </c>
       <c r="V96">
-        <v>0.9999309606821084</v>
+        <v>-6.90393178915949E-05</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7987,7 +7987,7 @@
         <v>0.7641553279837004</v>
       </c>
       <c r="K97">
-        <v>43.31564890360723</v>
+        <v>-0.06684351096392765</v>
       </c>
       <c r="L97">
         <v>-0.004635246981833958</v>
@@ -8017,13 +8017,13 @@
         <v>-0.04374999999998863</v>
       </c>
       <c r="U97">
-        <v>0.9999309952214191</v>
+        <v>-6.900477858085008E-05</v>
       </c>
       <c r="V97">
-        <v>0.999930955915352</v>
+        <v>-6.904408464802891E-05</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8058,7 +8058,7 @@
         <v>0.7641553279837004</v>
       </c>
       <c r="K98">
-        <v>43.31564890360723</v>
+        <v>-0.06684351096392765</v>
       </c>
       <c r="L98">
         <v>-0.004935097364985005</v>
@@ -8088,13 +8088,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U98">
-        <v>0.9999482428445732</v>
+        <v>-5.175715542682369E-05</v>
       </c>
       <c r="V98">
-        <v>0.9999309511479372</v>
+        <v>-6.904885206282518E-05</v>
       </c>
       <c r="W98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8129,7 +8129,7 @@
         <v>0.6755749508507738</v>
       </c>
       <c r="K99">
-        <v>40.31899322126714</v>
+        <v>-0.09681006778732859</v>
       </c>
       <c r="L99">
         <v>-0.005336629331275787</v>
@@ -8159,13 +8159,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U99">
-        <v>0.9999309868875086</v>
+        <v>-6.901311249141173E-05</v>
       </c>
       <c r="V99">
-        <v>0.9999309463798639</v>
+        <v>-6.905362013609473E-05</v>
       </c>
       <c r="W99">
-        <v>0.9994818652849741</v>
+        <v>-0.0005181347150259308</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8200,7 +8200,7 @@
         <v>0.5430489118859377</v>
       </c>
       <c r="K100">
-        <v>35.19324032458667</v>
+        <v>-0.1480675967541333</v>
       </c>
       <c r="L100">
         <v>-0.006131797708710546</v>
@@ -8230,13 +8230,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U100">
-        <v>0.9998619642487405</v>
+        <v>-0.0001380357512594799</v>
       </c>
       <c r="V100">
-        <v>0.9998618832222644</v>
+        <v>-0.0001381167777355641</v>
       </c>
       <c r="W100">
-        <v>0.9989631933644374</v>
+        <v>-0.001036806635562604</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8271,7 +8271,7 @@
         <v>0.6462951123789678</v>
       </c>
       <c r="K101">
-        <v>39.25754911858077</v>
+        <v>-0.1074245088141923</v>
       </c>
       <c r="L101">
         <v>-0.006904060526849635</v>
@@ -8301,13 +8301,13 @@
         <v>-0.1187500000000057</v>
       </c>
       <c r="U101">
-        <v>0.9998792020432111</v>
+        <v>-0.0001207979567888762</v>
       </c>
       <c r="V101">
-        <v>0.9998618641433852</v>
+        <v>-0.0001381358566148183</v>
       </c>
       <c r="W101">
-        <v>1.000518941359626</v>
+        <v>0.0005189413596264902</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8342,7 +8342,7 @@
         <v>0.6462951123789678</v>
       </c>
       <c r="K102">
-        <v>39.25754911858077</v>
+        <v>-0.1074245088141923</v>
       </c>
       <c r="L102">
         <v>-0.007588182545050278</v>
@@ -8372,13 +8372,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U102">
-        <v>0.9998791874493018</v>
+        <v>-0.0001208125506981794</v>
       </c>
       <c r="V102">
-        <v>0.9998963837944254</v>
+        <v>-0.0001036162055746415</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8413,7 +8413,7 @@
         <v>0.8750955566847864</v>
       </c>
       <c r="K103">
-        <v>46.66938458496357</v>
+        <v>-0.03330615415036431</v>
       </c>
       <c r="L103">
         <v>-0.007770680238295184</v>
@@ -8443,13 +8443,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U103">
-        <v>0.99991369489419</v>
+        <v>-8.630510580998063E-05</v>
       </c>
       <c r="V103">
-        <v>0.9999654576856648</v>
+        <v>-3.454231433519528E-05</v>
       </c>
       <c r="W103">
-        <v>1.00103734439834</v>
+        <v>0.001037344398340245</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8484,7 +8484,7 @@
         <v>0.7810415307590181</v>
       </c>
       <c r="K104">
-        <v>43.85307794738314</v>
+        <v>-0.0614692205261686</v>
       </c>
       <c r="L104">
         <v>-0.007797870877635863</v>
@@ -8514,13 +8514,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U104">
-        <v>0.9999136874449758</v>
+        <v>-8.631255502422608E-05</v>
       </c>
       <c r="V104">
-        <v>0.9998963694773568</v>
+        <v>-0.0001036305226431722</v>
       </c>
       <c r="W104">
-        <v>0.9994818652849741</v>
+        <v>-0.0005181347150259308</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8555,7 +8555,7 @@
         <v>0.8941768758768316</v>
       </c>
       <c r="K105">
-        <v>47.20661978638658</v>
+        <v>-0.02793380213613417</v>
       </c>
       <c r="L105">
         <v>-0.007512285646519151</v>
@@ -8585,13 +8585,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U105">
-        <v>0.9999482079966854</v>
+        <v>-5.17920033146213E-05</v>
       </c>
       <c r="V105">
-        <v>0.9999309058246391</v>
+        <v>-6.909417536093976E-05</v>
       </c>
       <c r="W105">
-        <v>1.000518403317781</v>
+        <v>0.0005184033177811909</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8626,7 +8626,7 @@
         <v>0.8941768758768316</v>
       </c>
       <c r="K106">
-        <v>47.20661978638658</v>
+        <v>-0.02793380213613417</v>
       </c>
       <c r="L106">
         <v>-0.007028011125844912</v>
@@ -8656,13 +8656,13 @@
         <v>-0.07500000000001705</v>
       </c>
       <c r="U106">
-        <v>0.9999482053141346</v>
+        <v>-5.17946858653584E-05</v>
       </c>
       <c r="V106">
-        <v>0.9999309010503039</v>
+        <v>-6.909894969608921E-05</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8697,7 +8697,7 @@
         <v>0.7945712349989448</v>
       </c>
       <c r="K107">
-        <v>44.2763830993542</v>
+        <v>-0.057236169006458</v>
       </c>
       <c r="L107">
         <v>-0.006617193077778026</v>
@@ -8727,13 +8727,13 @@
         <v>-0.05624999999997726</v>
       </c>
       <c r="U107">
-        <v>0.9999482026313063</v>
+        <v>-5.179736869365126E-05</v>
       </c>
       <c r="V107">
-        <v>0.9999308962753093</v>
+        <v>-6.910372469071113E-05</v>
       </c>
       <c r="W107">
-        <v>0.9994818652849741</v>
+        <v>-0.0005181347150259308</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8768,7 +8768,7 @@
         <v>1.029084217514938</v>
       </c>
       <c r="K108">
-        <v>50.71668335064373</v>
+        <v>0.00716683350643732</v>
       </c>
       <c r="L108">
         <v>-0.005875756835775242</v>
@@ -8798,13 +8798,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U108">
-        <v>0.9999654666321334</v>
+        <v>-3.453336786662931E-05</v>
       </c>
       <c r="V108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>1.001036806635562</v>
+        <v>0.001036806635562382</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8839,7 +8839,7 @@
         <v>0.9160216074083927</v>
       </c>
       <c r="K109">
-        <v>47.80852177587923</v>
+        <v>-0.02191478224120774</v>
       </c>
       <c r="L109">
         <v>-0.005148426556844129</v>
@@ -8869,13 +8869,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U109">
-        <v>0.9999654654395387</v>
+        <v>-3.453456046131897E-05</v>
       </c>
       <c r="V109">
-        <v>1.000034554250173</v>
+        <v>3.455425017273583E-05</v>
       </c>
       <c r="W109">
-        <v>0.9994821336095288</v>
+        <v>-0.0005178663904712444</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8910,7 +8910,7 @@
         <v>1.26297068631985</v>
       </c>
       <c r="K110">
-        <v>55.81029811631156</v>
+        <v>0.05810298116311552</v>
       </c>
       <c r="L110">
         <v>-0.003891342265957741</v>
@@ -8940,13 +8940,13 @@
         <v>0.06249999999997158</v>
       </c>
       <c r="U110">
-        <v>1.000034535753138</v>
+        <v>3.453575313816515E-05</v>
       </c>
       <c r="V110">
-        <v>1.000103659168654</v>
+        <v>0.0001036591686536248</v>
       </c>
       <c r="W110">
-        <v>1.001554404145078</v>
+        <v>0.001554404145077681</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8981,7 +8981,7 @@
         <v>1.384707205236139</v>
       </c>
       <c r="K111">
-        <v>58.066130810345</v>
+        <v>0.08066130810344996</v>
       </c>
       <c r="L111">
         <v>-0.002190533595855414</v>
@@ -9011,13 +9011,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U111">
-        <v>1.000034534560462</v>
+        <v>3.453456046154102E-05</v>
       </c>
       <c r="V111">
-        <v>1.000138197899392</v>
+        <v>0.0001381978993919564</v>
       </c>
       <c r="W111">
-        <v>1.000517330574237</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9052,7 +9052,7 @@
         <v>1.384707205236139</v>
       </c>
       <c r="K112">
-        <v>58.066130810345</v>
+        <v>0.08066130810344996</v>
       </c>
       <c r="L112">
         <v>-0.0003212734777027403</v>
@@ -9082,13 +9082,13 @@
         <v>0.1250000000000284</v>
       </c>
       <c r="U112">
-        <v>1.000034533367867</v>
+        <v>3.453336786662931E-05</v>
       </c>
       <c r="V112">
-        <v>1.000138178803371</v>
+        <v>0.0001381788033714137</v>
       </c>
       <c r="W112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9123,7 +9123,7 @@
         <v>1.384707205236139</v>
       </c>
       <c r="K113">
-        <v>58.066130810345</v>
+        <v>0.08066130810344996</v>
       </c>
       <c r="L113">
         <v>0.001532058045508678</v>
@@ -9153,13 +9153,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U113">
-        <v>1.000034532175355</v>
+        <v>3.453217535454023E-05</v>
       </c>
       <c r="V113">
-        <v>1.000138159712628</v>
+        <v>0.0001381597126277612</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9194,7 +9194,7 @@
         <v>1.212541490067831</v>
       </c>
       <c r="K114">
-        <v>54.80310744503405</v>
+        <v>0.04803107445034049</v>
       </c>
       <c r="L114">
         <v>0.003063340676716423</v>
@@ -9224,13 +9224,13 @@
         <v>0.1687500000000171</v>
       </c>
       <c r="U114">
-        <v>1.000034530982924</v>
+        <v>3.453098292416357E-05</v>
       </c>
       <c r="V114">
-        <v>1.000138140627159</v>
+        <v>0.0001381406271585561</v>
       </c>
       <c r="W114">
-        <v>0.999482936918304</v>
+        <v>-0.0005170630816959676</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9265,7 +9265,7 @@
         <v>1.212541490067831</v>
       </c>
       <c r="K115">
-        <v>54.80310744503407</v>
+        <v>0.04803107445034072</v>
       </c>
       <c r="L115">
         <v>0.004290706056935809</v>
@@ -9295,13 +9295,13 @@
         <v>0.1937500000000227</v>
       </c>
       <c r="U115">
-        <v>1.000034529790577</v>
+        <v>3.452979057683159E-05</v>
       </c>
       <c r="V115">
-        <v>1.000207182320442</v>
+        <v>0.0002071823204419232</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9336,7 +9336,7 @@
         <v>1.212541490067831</v>
       </c>
       <c r="K116">
-        <v>54.80310744503407</v>
+        <v>0.04803107445034072</v>
       </c>
       <c r="L116">
         <v>0.005240048901819699</v>
@@ -9366,13 +9366,13 @@
         <v>0.1812500000000057</v>
       </c>
       <c r="U116">
-        <v>1.000017264299156</v>
+        <v>1.726429915560601E-05</v>
       </c>
       <c r="V116">
-        <v>1.000172616170683</v>
+        <v>0.00017261617068276</v>
       </c>
       <c r="W116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9407,7 +9407,7 @@
         <v>1.212541490067831</v>
       </c>
       <c r="K117">
-        <v>54.80310744503407</v>
+        <v>0.04803107445034072</v>
       </c>
       <c r="L117">
         <v>0.005941330087661502</v>
@@ -9437,13 +9437,13 @@
         <v>0.1875</v>
       </c>
       <c r="U117">
-        <v>1.00003452800221</v>
+        <v>3.452800220982155E-05</v>
       </c>
       <c r="V117">
-        <v>1.000172586379483</v>
+        <v>0.0001725863794830307</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9478,7 +9478,7 @@
         <v>0.8316771439620493</v>
       </c>
       <c r="K118">
-        <v>45.40522584471803</v>
+        <v>-0.04594774155281978</v>
       </c>
       <c r="L118">
         <v>0.005860155087297872</v>
@@ -9508,13 +9508,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U118">
-        <v>0.9999827365949661</v>
+        <v>-1.726340503394042E-05</v>
       </c>
       <c r="V118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W118">
-        <v>0.9984480082772891</v>
+        <v>-0.001551991722710921</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9549,7 +9549,7 @@
         <v>1.162313119134873</v>
       </c>
       <c r="K119">
-        <v>53.75322883856463</v>
+        <v>0.03753228838564626</v>
       </c>
       <c r="L119">
         <v>0.005854653736885462</v>
@@ -9579,13 +9579,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U119">
-        <v>1.000017263703064</v>
+        <v>1.726370306420755E-05</v>
       </c>
       <c r="V119">
-        <v>1.000138045278851</v>
+        <v>0.0001380452788513065</v>
       </c>
       <c r="W119">
-        <v>1.001554404145078</v>
+        <v>0.001554404145077681</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9620,7 +9620,7 @@
         <v>0.9434166411428966</v>
       </c>
       <c r="K120">
-        <v>48.54422984605536</v>
+        <v>-0.01455770153944641</v>
       </c>
       <c r="L120">
         <v>0.005496834475681978</v>
@@ -9650,13 +9650,13 @@
         <v>0.05624999999997726</v>
       </c>
       <c r="U120">
-        <v>0.9999827365949661</v>
+        <v>-1.726340503394042E-05</v>
       </c>
       <c r="V120">
-        <v>1.000034506556246</v>
+        <v>3.450655624570587E-05</v>
       </c>
       <c r="W120">
-        <v>0.9989653388515261</v>
+        <v>-0.001034661148473948</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9691,7 +9691,7 @@
         <v>0.8583380306162692</v>
       </c>
       <c r="K121">
-        <v>46.18847682580246</v>
+        <v>-0.0381152317419754</v>
       </c>
       <c r="L121">
         <v>0.004739835358374564</v>
@@ -9721,13 +9721,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U121">
-        <v>0.9999654725938714</v>
+        <v>-3.452740612863714E-05</v>
       </c>
       <c r="V121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W121">
-        <v>0.9994821336095288</v>
+        <v>-0.0005178663904712444</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9762,7 +9762,7 @@
         <v>0.8583380306162692</v>
       </c>
       <c r="K122">
-        <v>46.18847682580246</v>
+        <v>-0.0381152317419754</v>
       </c>
       <c r="L122">
         <v>0.003772049390807075</v>
@@ -9792,13 +9792,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U122">
-        <v>0.9999827357008441</v>
+        <v>-1.726429915593908E-05</v>
       </c>
       <c r="V122">
-        <v>1.000034505365584</v>
+        <v>3.450536558413653E-05</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9833,7 +9833,7 @@
         <v>0.8583380306162695</v>
       </c>
       <c r="K123">
-        <v>46.18847682580246</v>
+        <v>-0.0381152317419754</v>
       </c>
       <c r="L123">
         <v>0.002724537338566591</v>
@@ -9863,13 +9863,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U123">
-        <v>0.999982735402783</v>
+        <v>-1.726459721695939E-05</v>
       </c>
       <c r="V123">
-        <v>0.9999654958249951</v>
+        <v>-3.450417500494574E-05</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9904,7 +9904,7 @@
         <v>0.9635211484681938</v>
       </c>
       <c r="K124">
-        <v>49.07108585104203</v>
+        <v>-0.009289141489579711</v>
       </c>
       <c r="L124">
         <v>0.001874120690560412</v>
@@ -9934,13 +9934,13 @@
         <v>-0.1000000000000227</v>
       </c>
       <c r="U124">
-        <v>1.000034529790577</v>
+        <v>3.452979057683159E-05</v>
       </c>
       <c r="V124">
-        <v>1.000034505365584</v>
+        <v>3.450536558435857E-05</v>
       </c>
       <c r="W124">
-        <v>1.000518134715026</v>
+        <v>0.0005181347150258198</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9975,7 +9975,7 @@
         <v>1.074240219891272</v>
       </c>
       <c r="K125">
-        <v>51.78957623083703</v>
+        <v>0.01789576230837031</v>
       </c>
       <c r="L125">
         <v>0.001379012088331697</v>
@@ -10005,13 +10005,13 @@
         <v>-0.125</v>
       </c>
       <c r="U125">
-        <v>1.000034528598311</v>
+        <v>3.452859831143407E-05</v>
       </c>
       <c r="V125">
-        <v>0.9999654958249947</v>
+        <v>-3.45041750052788E-05</v>
       </c>
       <c r="W125">
-        <v>1.000517866390471</v>
+        <v>0.0005178663904712444</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10046,7 +10046,7 @@
         <v>1.074240219891272</v>
       </c>
       <c r="K126">
-        <v>51.78957623083703</v>
+        <v>0.01789576230837031</v>
       </c>
       <c r="L126">
         <v>0.001125670894898783</v>
@@ -10076,13 +10076,13 @@
         <v>-0.09374999999997158</v>
       </c>
       <c r="U126">
-        <v>1.000034527406129</v>
+        <v>3.452740612863714E-05</v>
       </c>
       <c r="V126">
-        <v>0.9999309892688312</v>
+        <v>-6.901073116882817E-05</v>
       </c>
       <c r="W126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10117,7 +10117,7 @@
         <v>1.074240219891272</v>
       </c>
       <c r="K127">
-        <v>51.78957623083703</v>
+        <v>0.01789576230837031</v>
       </c>
       <c r="L127">
         <v>0.001030835809761152</v>
@@ -10147,13 +10147,13 @@
         <v>-0.09375</v>
       </c>
       <c r="U127">
-        <v>1.000034526214028</v>
+        <v>3.452621402799672E-05</v>
       </c>
       <c r="V127">
-        <v>0.9999309845060218</v>
+        <v>-6.901549397819728E-05</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10188,7 +10188,7 @@
         <v>1.203377495206169</v>
       </c>
       <c r="K128">
-        <v>54.61513053593068</v>
+        <v>0.04615130535930678</v>
       </c>
       <c r="L128">
         <v>0.001222853213776187</v>
@@ -10218,13 +10218,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U128">
-        <v>1.000051787533015</v>
+        <v>5.178753301460226E-05</v>
       </c>
       <c r="V128">
-        <v>0.9999654898712771</v>
+        <v>-3.451012872290882E-05</v>
       </c>
       <c r="W128">
-        <v>1.000517598343685</v>
+        <v>0.0005175983436853659</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10259,7 +10259,7 @@
         <v>0.9461497139454076</v>
       </c>
       <c r="K129">
-        <v>48.6164916894954</v>
+        <v>-0.013835083105046</v>
       </c>
       <c r="L129">
         <v>0.001194877811873285</v>
@@ -10289,13 +10289,13 @@
         <v>-0.03125000000002842</v>
       </c>
       <c r="U129">
-        <v>1.000034523234137</v>
+        <v>3.452323413677405E-05</v>
       </c>
       <c r="V129">
-        <v>0.9999309773605743</v>
+        <v>-6.902263942565323E-05</v>
       </c>
       <c r="W129">
-        <v>0.9989653388515261</v>
+        <v>-0.001034661148473948</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10330,7 +10330,7 @@
         <v>0.9461497139454075</v>
       </c>
       <c r="K130">
-        <v>48.6164916894954</v>
+        <v>-0.013835083105046</v>
       </c>
       <c r="L130">
         <v>0.001031062485980995</v>
@@ -10360,13 +10360,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U130">
-        <v>1.000069044084648</v>
+        <v>6.904408464780687E-05</v>
       </c>
       <c r="V130">
-        <v>0.9999309725961207</v>
+        <v>-6.902740387926265E-05</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10401,7 +10401,7 @@
         <v>1.064573455988222</v>
       </c>
       <c r="K131">
-        <v>51.56384496276772</v>
+        <v>0.01563844962767713</v>
       </c>
       <c r="L131">
         <v>0.0009801744137398116</v>
@@ -10431,13 +10431,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U131">
-        <v>1.000069039317892</v>
+        <v>6.903931789170592E-05</v>
       </c>
       <c r="V131">
-        <v>0.9999654839155045</v>
+        <v>-3.451608449545063E-05</v>
       </c>
       <c r="W131">
-        <v>1.000517866390471</v>
+        <v>0.0005178663904712444</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10472,7 +10472,7 @@
         <v>1.064573455988222</v>
       </c>
       <c r="K132">
-        <v>51.56384496276772</v>
+        <v>0.01563844962767713</v>
       </c>
       <c r="L132">
         <v>0.0009973711834444397</v>
@@ -10502,13 +10502,13 @@
         <v>0.04374999999998863</v>
       </c>
       <c r="U132">
-        <v>1.000069034551793</v>
+        <v>6.903455179307905E-05</v>
       </c>
       <c r="V132">
-        <v>0.9999654827241035</v>
+        <v>-3.451727589653952E-05</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10543,7 +10543,7 @@
         <v>0.9410864930096592</v>
       </c>
       <c r="K133">
-        <v>48.48246053943235</v>
+        <v>-0.01517539460567652</v>
       </c>
       <c r="L133">
         <v>0.0008625556293558294</v>
@@ -10573,13 +10573,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U133">
-        <v>1.000017257446588</v>
+        <v>1.725744658820361E-05</v>
       </c>
       <c r="V133">
-        <v>1.00003451846738</v>
+        <v>3.451846738000697E-05</v>
       </c>
       <c r="W133">
-        <v>0.9994824016563147</v>
+        <v>-0.0005175983436852549</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10614,7 +10614,7 @@
         <v>0.9410864930096591</v>
       </c>
       <c r="K134">
-        <v>48.48246053943235</v>
+        <v>-0.01517539460567652</v>
       </c>
       <c r="L134">
         <v>0.0006411011692560694</v>
@@ -10644,13 +10644,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U134">
-        <v>1.000034514297548</v>
+        <v>3.451429754774971E-05</v>
       </c>
       <c r="V134">
-        <v>0.9999309654482069</v>
+        <v>-6.903455179307905E-05</v>
       </c>
       <c r="W134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10685,7 +10685,7 @@
         <v>1.198142798594598</v>
       </c>
       <c r="K135">
-        <v>54.50705019531221</v>
+        <v>0.04507050195312212</v>
       </c>
       <c r="L135">
         <v>0.0007559923764959574</v>
@@ -10715,13 +10715,13 @@
         <v>0.03749999999996589</v>
       </c>
       <c r="U135">
-        <v>1.000051769659528</v>
+        <v>5.176965952813362E-05</v>
       </c>
       <c r="V135">
-        <v>1.000069039317892</v>
+        <v>6.903931789170592E-05</v>
       </c>
       <c r="W135">
-        <v>1.001035732780943</v>
+        <v>0.001035732780942711</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10756,7 +10756,7 @@
         <v>1.055360173693925</v>
       </c>
       <c r="K136">
-        <v>51.34672682682255</v>
+        <v>0.01346726826822553</v>
       </c>
       <c r="L136">
         <v>0.0008760438014570892</v>
@@ -10786,13 +10786,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U136">
-        <v>1.000034511319713</v>
+        <v>3.451131971288213E-05</v>
       </c>
       <c r="V136">
-        <v>1.000069034551793</v>
+        <v>6.903455179307905E-05</v>
       </c>
       <c r="W136">
-        <v>0.9994826694257629</v>
+        <v>-0.0005173305742370848</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10827,7 +10827,7 @@
         <v>1.055360173693925</v>
       </c>
       <c r="K137">
-        <v>51.34672682682255</v>
+        <v>0.01346726826822553</v>
       </c>
       <c r="L137">
         <v>0.000988379580340487</v>
@@ -10857,13 +10857,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U137">
-        <v>1.000051765193084</v>
+        <v>5.17651930842522E-05</v>
       </c>
       <c r="V137">
-        <v>1.000069029786353</v>
+        <v>6.902978635281443E-05</v>
       </c>
       <c r="W137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10898,7 +10898,7 @@
         <v>1.055360173693925</v>
       </c>
       <c r="K138">
-        <v>51.34672682682255</v>
+        <v>0.01346726826822553</v>
       </c>
       <c r="L138">
         <v>0.001085281884838883</v>
@@ -10928,13 +10928,13 @@
         <v>0.01874999999995453</v>
       </c>
       <c r="U138">
-        <v>1.000017254171196</v>
+        <v>1.725417119580186E-05</v>
       </c>
       <c r="V138">
-        <v>1.00006902502157</v>
+        <v>6.902502157046797E-05</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10969,7 +10969,7 @@
         <v>1.055360173693925</v>
       </c>
       <c r="K139">
-        <v>51.34672682682255</v>
+        <v>0.01346726826822553</v>
       </c>
       <c r="L139">
         <v>0.001162705857382642</v>
@@ -10999,13 +10999,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U139">
-        <v>1.000034507746989</v>
+        <v>3.450774698920966E-05</v>
       </c>
       <c r="V139">
-        <v>1.000034510128723</v>
+        <v>3.451012872268677E-05</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11040,7 +11040,7 @@
         <v>1.055360173693925</v>
       </c>
       <c r="K140">
-        <v>51.34672682682253</v>
+        <v>0.01346726826822531</v>
       </c>
       <c r="L140">
         <v>0.001219160552053298</v>
@@ -11070,13 +11070,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U140">
-        <v>0.9999827467218774</v>
+        <v>-1.725327812263089E-05</v>
       </c>
       <c r="V140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11111,7 +11111,7 @@
         <v>0.9145156696840558</v>
       </c>
       <c r="K141">
-        <v>47.76746851254419</v>
+        <v>-0.02232531487455808</v>
       </c>
       <c r="L141">
         <v>0.001066358039109693</v>
@@ -11141,13 +11141,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U141">
-        <v>0.999948239272589</v>
+        <v>-5.176072741097659E-05</v>
       </c>
       <c r="V141">
-        <v>0.9999654910621852</v>
+        <v>-3.450893781475894E-05</v>
       </c>
       <c r="W141">
-        <v>0.9994824016563147</v>
+        <v>-0.0005175983436852549</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11182,7 +11182,7 @@
         <v>0.9145156696840558</v>
       </c>
       <c r="K142">
-        <v>47.76746851254419</v>
+        <v>-0.02232531487455808</v>
       </c>
       <c r="L142">
         <v>0.0007926428516864011</v>
@@ -11212,13 +11212,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U142">
-        <v>0.9999482365932778</v>
+        <v>-5.176340672219393E-05</v>
       </c>
       <c r="V142">
-        <v>0.9999654898712771</v>
+        <v>-3.451012872290882E-05</v>
       </c>
       <c r="W142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11253,7 +11253,7 @@
         <v>0.7967038393869484</v>
       </c>
       <c r="K143">
-        <v>44.34252445627271</v>
+        <v>-0.05657475543727286</v>
       </c>
       <c r="L143">
         <v>0.0002717231700741122</v>
@@ -11283,13 +11283,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U143">
-        <v>0.9999309785515849</v>
+        <v>-6.90214484151408E-05</v>
       </c>
       <c r="V143">
-        <v>0.9998964660408615</v>
+        <v>-0.0001035339591385354</v>
       </c>
       <c r="W143">
-        <v>0.9994821336095288</v>
+        <v>-0.0005178663904712444</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11324,7 +11324,7 @@
         <v>1.067912867411951</v>
       </c>
       <c r="K144">
-        <v>51.6420630792086</v>
+        <v>0.016420630792086</v>
       </c>
       <c r="L144">
         <v>1.027143713835436E-05</v>
@@ -11354,13 +11354,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U144">
-        <v>0.9999827434468239</v>
+        <v>-1.725655317608155E-05</v>
       </c>
       <c r="V144">
-        <v>1.000034514893176</v>
+        <v>3.451489317618517E-05</v>
       </c>
       <c r="W144">
-        <v>1.001036269430052</v>
+        <v>0.001036269430051862</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11395,7 +11395,7 @@
         <v>1.210654461109361</v>
       </c>
       <c r="K145">
-        <v>54.76452708497124</v>
+        <v>0.04764527084971237</v>
       </c>
       <c r="L145">
         <v>0.0001111433554402596</v>
@@ -11425,13 +11425,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V145">
-        <v>1.000069027403879</v>
+        <v>6.902740387948469E-05</v>
       </c>
       <c r="W145">
-        <v>1.000517598343685</v>
+        <v>0.0005175983436853659</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11466,7 +11466,7 @@
         <v>1.052510259230026</v>
       </c>
       <c r="K146">
-        <v>51.27917166294031</v>
+        <v>0.01279171662940315</v>
       </c>
       <c r="L146">
         <v>0.0002361755351623983</v>
@@ -11496,13 +11496,13 @@
         <v>-0.01249999999998863</v>
       </c>
       <c r="U146">
-        <v>0.9999827431490301</v>
+        <v>-1.725685096987117E-05</v>
       </c>
       <c r="V146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W146">
-        <v>0.9994826694257629</v>
+        <v>-0.0005173305742370848</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11537,7 +11537,7 @@
         <v>1.190012400652837</v>
       </c>
       <c r="K147">
-        <v>54.33815809892663</v>
+        <v>0.04338158098926626</v>
       </c>
       <c r="L147">
         <v>0.0005555274692967015</v>
@@ -11567,13 +11567,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V147">
-        <v>1.000034511319713</v>
+        <v>3.451131971288213E-05</v>
       </c>
       <c r="W147">
-        <v>1.000517598343685</v>
+        <v>0.0005175983436853659</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11608,7 +11608,7 @@
         <v>1.190012400652837</v>
       </c>
       <c r="K148">
-        <v>54.33815809892663</v>
+        <v>0.04338158098926626</v>
       </c>
       <c r="L148">
         <v>0.0009702259575626626</v>
@@ -11638,13 +11638,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U148">
-        <v>1.000051771446322</v>
+        <v>5.177144632151354E-05</v>
       </c>
       <c r="V148">
-        <v>1.000069020257446</v>
+        <v>6.902025744559559E-05</v>
       </c>
       <c r="W148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11679,7 +11679,7 @@
         <v>1.032676904030103</v>
       </c>
       <c r="K149">
-        <v>50.80378991775121</v>
+        <v>0.008037899177512076</v>
       </c>
       <c r="L149">
         <v>0.001224212797098449</v>
@@ -11709,13 +11709,13 @@
         <v>0.006250000000022737</v>
       </c>
       <c r="U149">
-        <v>0.9999827437446074</v>
+        <v>-1.725625539261699E-05</v>
       </c>
       <c r="V149">
-        <v>1.000034507746989</v>
+        <v>3.450774698920966E-05</v>
       </c>
       <c r="W149">
-        <v>0.9994826694257629</v>
+        <v>-0.0005173305742370848</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11750,7 +11750,7 @@
         <v>1.31102074673893</v>
       </c>
       <c r="K150">
-        <v>56.72907733904616</v>
+        <v>0.06729077339046163</v>
       </c>
       <c r="L150">
         <v>0.001737203548228785</v>
@@ -11780,13 +11780,13 @@
         <v>0.02499999999997726</v>
       </c>
       <c r="U150">
-        <v>1.000051769659528</v>
+        <v>5.176965952813362E-05</v>
       </c>
       <c r="V150">
-        <v>1.000034506556246</v>
+        <v>3.450655624570587E-05</v>
       </c>
       <c r="W150">
-        <v>1.001035196687371</v>
+        <v>0.001035196687370732</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11821,7 +11821,7 @@
         <v>1.31102074673893</v>
       </c>
       <c r="K151">
-        <v>56.72907733904617</v>
+        <v>0.06729077339046174</v>
       </c>
       <c r="L151">
         <v>0.002368068617466423</v>
@@ -11851,13 +11851,13 @@
         <v>0.06875000000002274</v>
       </c>
       <c r="U151">
-        <v>1.000069022639426</v>
+        <v>6.902263942576425E-05</v>
       </c>
       <c r="V151">
-        <v>1.000069010731169</v>
+        <v>6.901073116871714E-05</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11892,7 +11892,7 @@
         <v>1.31102074673893</v>
       </c>
       <c r="K152">
-        <v>56.72907733904617</v>
+        <v>0.06729077339046174</v>
       </c>
       <c r="L152">
         <v>0.003021492639524262</v>
@@ -11922,13 +11922,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U152">
-        <v>1.00006901787563</v>
+        <v>6.901787562973993E-05</v>
       </c>
       <c r="V152">
-        <v>1.000069005969016</v>
+        <v>6.900596901648903E-05</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11963,7 +11963,7 @@
         <v>1.127931248041615</v>
       </c>
       <c r="K153">
-        <v>53.00600050305555</v>
+        <v>0.0300600050305555</v>
       </c>
       <c r="L153">
         <v>0.003447418012837185</v>
@@ -11993,13 +11993,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U153">
-        <v>1.000051759834369</v>
+        <v>5.17598343685588E-05</v>
       </c>
       <c r="V153">
-        <v>1.000034500603761</v>
+        <v>3.450060376053443E-05</v>
       </c>
       <c r="W153">
-        <v>0.999482936918304</v>
+        <v>-0.0005170630816959676</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12034,7 +12034,7 @@
         <v>1.274935625037042</v>
       </c>
       <c r="K154">
-        <v>56.04271219834113</v>
+        <v>0.06042712198341127</v>
       </c>
       <c r="L154">
         <v>0.003884301365515044</v>
@@ -12064,13 +12064,13 @@
         <v>0.08750000000000568</v>
       </c>
       <c r="U154">
-        <v>1.000051757155427</v>
+        <v>5.175715542660164E-05</v>
       </c>
       <c r="V154">
-        <v>1.00006899882702</v>
+        <v>6.899882702016136E-05</v>
       </c>
       <c r="W154">
-        <v>1.000517330574237</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12105,7 +12105,7 @@
         <v>1.104087521603606</v>
       </c>
       <c r="K155">
-        <v>52.4734598854585</v>
+        <v>0.02473459885458507</v>
       </c>
       <c r="L155">
         <v>0.004097331622308379</v>
@@ -12135,13 +12135,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U155">
-        <v>1.000017251492254</v>
+        <v>1.725149225428879E-05</v>
       </c>
       <c r="V155">
-        <v>1.000034497033255</v>
+        <v>3.449703325508757E-05</v>
       </c>
       <c r="W155">
-        <v>0.999482936918304</v>
+        <v>-0.0005170630816959676</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12176,7 +12176,7 @@
         <v>1.104087521603606</v>
       </c>
       <c r="K156">
-        <v>52.4734598854585</v>
+        <v>0.02473459885458507</v>
       </c>
       <c r="L156">
         <v>0.004146252169752245</v>
@@ -12206,13 +12206,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U156">
-        <v>1.000017251194645</v>
+        <v>1.725119464524028E-05</v>
       </c>
       <c r="V156">
-        <v>1.000068991686502</v>
+        <v>6.899168650176257E-05</v>
       </c>
       <c r="W156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12247,7 +12247,7 @@
         <v>1.104087521603606</v>
       </c>
       <c r="K157">
-        <v>52.4734598854585</v>
+        <v>0.02473459885458507</v>
       </c>
       <c r="L157">
         <v>0.004077539226089041</v>
@@ -12277,13 +12277,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U157">
-        <v>1.000017250897047</v>
+        <v>1.72508970468499E-05</v>
       </c>
       <c r="V157">
-        <v>1.000068986926977</v>
+        <v>6.898692697743236E-05</v>
       </c>
       <c r="W157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12318,7 +12318,7 @@
         <v>1.104087521603606</v>
       </c>
       <c r="K158">
-        <v>52.4734598854585</v>
+        <v>0.02473459885458507</v>
       </c>
       <c r="L158">
         <v>0.003927096290335048</v>
@@ -12348,13 +12348,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V158">
-        <v>1.000103473252164</v>
+        <v>0.00010347325216431</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12389,7 +12389,7 @@
         <v>1.104087521603606</v>
       </c>
       <c r="K159">
-        <v>52.4734598854585</v>
+        <v>0.02473459885458507</v>
       </c>
       <c r="L159">
         <v>0.003722430416592207</v>
@@ -12419,13 +12419,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U159">
-        <v>1.000034501198916</v>
+        <v>3.450119891645897E-05</v>
       </c>
       <c r="V159">
-        <v>1.00003448751552</v>
+        <v>3.448751551959894E-05</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12460,7 +12460,7 @@
         <v>1.104087521603606</v>
       </c>
       <c r="K160">
-        <v>52.4734598854585</v>
+        <v>0.02473459885458507</v>
       </c>
       <c r="L160">
         <v>0.003484406065538053</v>
@@ -12490,13 +12490,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U160">
-        <v>1.000034500008625</v>
+        <v>3.450000862503799E-05</v>
       </c>
       <c r="V160">
-        <v>0.9999999999999999</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12531,7 +12531,7 @@
         <v>1.286384837292626</v>
       </c>
       <c r="K161">
-        <v>56.26283101211741</v>
+        <v>0.06262831012117409</v>
       </c>
       <c r="L161">
         <v>0.003417089488674063</v>
@@ -12561,13 +12561,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U161">
-        <v>1.000034498818415</v>
+        <v>3.449881841532942E-05</v>
       </c>
       <c r="V161">
-        <v>1.000068972652344</v>
+        <v>6.897265234351302E-05</v>
       </c>
       <c r="W161">
-        <v>1.000517330574237</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12602,7 +12602,7 @@
         <v>1.286384837292626</v>
       </c>
       <c r="K162">
-        <v>56.26283101211741</v>
+        <v>0.06262831012117409</v>
       </c>
       <c r="L162">
         <v>0.003445019563244073</v>
@@ -12632,13 +12632,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U162">
-        <v>1.000034497628288</v>
+        <v>3.44976282879994E-05</v>
       </c>
       <c r="V162">
-        <v>1.000034483947722</v>
+        <v>3.448394772220809E-05</v>
       </c>
       <c r="W162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12673,7 +12673,7 @@
         <v>1.07021127252624</v>
       </c>
       <c r="K163">
-        <v>51.69575138194863</v>
+        <v>0.01695751381948629</v>
       </c>
       <c r="L163">
         <v>0.003327890951493157</v>
@@ -12703,13 +12703,13 @@
         <v>-0.006250000000022737</v>
       </c>
       <c r="U163">
-        <v>1.000034496438243</v>
+        <v>3.449643824282589E-05</v>
       </c>
       <c r="V163">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W163">
-        <v>0.999482936918304</v>
+        <v>-0.0005170630816959676</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12744,7 +12744,7 @@
         <v>1.247103221350539</v>
       </c>
       <c r="K164">
-        <v>55.49826147287587</v>
+        <v>0.05498261472875876</v>
       </c>
       <c r="L164">
         <v>0.003306652016525153</v>
@@ -12774,13 +12774,13 @@
         <v>-2.842170943040401E-14</v>
       </c>
       <c r="U164">
-        <v>1.000051742872419</v>
+        <v>5.174287241938025E-05</v>
       </c>
       <c r="V164">
-        <v>1.000068965517241</v>
+        <v>6.896551724122624E-05</v>
       </c>
       <c r="W164">
-        <v>1.000517330574237</v>
+        <v>0.0005173305742369738</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12815,7 +12815,7 @@
         <v>1.247103221350539</v>
       </c>
       <c r="K165">
-        <v>55.49826147287589</v>
+        <v>0.05498261472875887</v>
       </c>
       <c r="L165">
         <v>0.003332804677869759</v>
@@ -12845,13 +12845,13 @@
         <v>2.842170943040401E-14</v>
       </c>
       <c r="U165">
-        <v>1.000017246731744</v>
+        <v>1.724673174430258E-05</v>
       </c>
       <c r="V165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12886,7 +12886,7 @@
         <v>1.24710322135054</v>
       </c>
       <c r="K166">
-        <v>55.4982614728759</v>
+        <v>0.05498261472875898</v>
       </c>
       <c r="L166">
         <v>0.003373854682787478</v>
@@ -12916,13 +12916,13 @@
         <v>0.01250000000001705</v>
       </c>
       <c r="U166">
-        <v>1.000034492868599</v>
+        <v>3.449286859935619E-05</v>
       </c>
       <c r="V166">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12957,7 +12957,7 @@
         <v>1.453421283836965</v>
       </c>
       <c r="K167">
-        <v>59.24059163471201</v>
+        <v>0.09240591634712014</v>
       </c>
       <c r="L167">
         <v>0.003597415486367441</v>
@@ -12987,13 +12987,13 @@
         <v>0.03124999999997158</v>
       </c>
       <c r="U167">
-        <v>1.000051737518324</v>
+        <v>5.173751832376894E-05</v>
       </c>
       <c r="V167">
-        <v>1.000034480380663</v>
+        <v>3.448038066333758E-05</v>
       </c>
       <c r="W167">
-        <v>1.000517063081696</v>
+        <v>0.0005170630816959676</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13028,7 +13028,7 @@
         <v>1.453421283836965</v>
       </c>
       <c r="K168">
-        <v>59.24059163471201</v>
+        <v>0.09240591634712014</v>
       </c>
       <c r="L168">
         <v>0.003904169335208313</v>
@@ -13058,13 +13058,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U168">
-        <v>1.000051734841691</v>
+        <v>5.173484169129772E-05</v>
       </c>
       <c r="V168">
-        <v>1.000068958383616</v>
+        <v>6.895838361553608E-05</v>
       </c>
       <c r="W168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13099,7 +13099,7 @@
         <v>1.453421283836965</v>
       </c>
       <c r="K169">
-        <v>59.24059163471201</v>
+        <v>0.09240591634712014</v>
       </c>
       <c r="L169">
         <v>0.004227530413065035</v>
@@ -13129,13 +13129,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U169">
-        <v>1.000051732165336</v>
+        <v>5.173216533593816E-05</v>
       </c>
       <c r="V169">
-        <v>1.000034476814342</v>
+        <v>3.44768143423213E-05</v>
       </c>
       <c r="W169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13170,7 +13170,7 @@
         <v>1.694060516945495</v>
       </c>
       <c r="K170">
-        <v>62.88130894944438</v>
+        <v>0.1288130894944438</v>
       </c>
       <c r="L170">
         <v>0.004713299842940841</v>
@@ -13200,13 +13200,13 @@
         <v>0.06250000000002842</v>
       </c>
       <c r="U170">
-        <v>1.000068972652344</v>
+        <v>6.897265234351302E-05</v>
       </c>
       <c r="V170">
-        <v>1.000103426877198</v>
+        <v>0.0001034268771977764</v>
       </c>
       <c r="W170">
-        <v>1.000516795865633</v>
+        <v>0.0005167958656331351</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13241,7 +13241,7 @@
         <v>1.694060516945495</v>
       </c>
       <c r="K171">
-        <v>62.88130894944438</v>
+        <v>0.1288130894944438</v>
       </c>
       <c r="L171">
         <v>0.005249287132826327</v>
@@ -13271,13 +13271,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U171">
-        <v>1.000086209869306</v>
+        <v>8.620986930574226E-05</v>
       </c>
       <c r="V171">
-        <v>1.000103416181185</v>
+        <v>0.0001034161811850343</v>
       </c>
       <c r="W171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13312,7 +13312,7 @@
         <v>1.694060516945495</v>
       </c>
       <c r="K172">
-        <v>62.88130894944437</v>
+        <v>0.1288130894944437</v>
       </c>
       <c r="L172">
         <v>0.005762374163538726</v>
@@ -13342,13 +13342,13 @@
         <v>0.08749999999997726</v>
       </c>
       <c r="U172">
-        <v>1.000086202437805</v>
+        <v>8.620243780499415E-05</v>
       </c>
       <c r="V172">
-        <v>1.000103405487385</v>
+        <v>0.0001034054873845225</v>
       </c>
       <c r="W172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13383,7 +13383,7 @@
         <v>1.694060516945495</v>
       </c>
       <c r="K173">
-        <v>62.88130894944437</v>
+        <v>0.1288130894944437</v>
       </c>
       <c r="L173">
         <v>0.006207858997145592</v>
@@ -13413,13 +13413,13 @@
         <v>0.09375</v>
       </c>
       <c r="U173">
-        <v>1.000103434009102</v>
+        <v>0.0001034340091021768</v>
       </c>
       <c r="V173">
-        <v>1.000103394795795</v>
+        <v>0.0001033947957953529</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13454,7 +13454,7 @@
         <v>1.98950236666553</v>
       </c>
       <c r="K174">
-        <v>66.54961671378797</v>
+        <v>0.1654961671378797</v>
       </c>
       <c r="L174">
         <v>0.006749684537293845</v>
@@ -13484,13 +13484,13 @@
         <v>0.1062499999999886</v>
       </c>
       <c r="U174">
-        <v>1.000086186093012</v>
+        <v>8.618609301214164E-05</v>
       </c>
       <c r="V174">
-        <v>1.000137845475222</v>
+        <v>0.0001378454752221092</v>
       </c>
       <c r="W174">
-        <v>1.00051652892562</v>
+        <v>0.0005165289256197081</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13525,7 +13525,7 @@
         <v>2.300493787423552</v>
       </c>
       <c r="K175">
-        <v>69.70150333836486</v>
+        <v>0.1970150333836486</v>
       </c>
       <c r="L175">
         <v>0.007479008924590967</v>
@@ -13555,13 +13555,13 @@
         <v>0.1125000000000114</v>
       </c>
       <c r="U175">
-        <v>1.000086178665609</v>
+        <v>8.617866560944876E-05</v>
       </c>
       <c r="V175">
-        <v>1.000172283095583</v>
+        <v>0.0001722830955828147</v>
       </c>
       <c r="W175">
-        <v>1.000516262261229</v>
+        <v>0.0005162622612289169</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13596,7 +13596,7 @@
         <v>2.300493787423552</v>
       </c>
       <c r="K176">
-        <v>69.70150333836486</v>
+        <v>0.1970150333836486</v>
       </c>
       <c r="L176">
         <v>0.008248090899162104</v>
@@ -13626,13 +13626,13 @@
         <v>0.1187500000000057</v>
       </c>
       <c r="U176">
-        <v>1.000103405487385</v>
+        <v>0.0001034054873845225</v>
       </c>
       <c r="V176">
-        <v>1.000137802735384</v>
+        <v>0.0001378027353842182</v>
       </c>
       <c r="W176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13667,7 +13667,7 @@
         <v>3.334260283017787</v>
       </c>
       <c r="K177">
-        <v>76.92801228578418</v>
+        <v>0.2692801228578418</v>
       </c>
       <c r="L177">
         <v>0.009526968419631904</v>
@@ -13697,13 +13697,13 @@
         <v>0.1499999999999773</v>
       </c>
       <c r="U177">
-        <v>1.000137859727727</v>
+        <v>0.0001378597277270632</v>
       </c>
       <c r="V177">
-        <v>1.000241121559712</v>
+        <v>0.0002411215597120098</v>
       </c>
       <c r="W177">
-        <v>1.001547987616099</v>
+        <v>0.001547987616099089</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13738,7 +13738,7 @@
         <v>3.334260283017788</v>
       </c>
       <c r="K178">
-        <v>76.92801228578418</v>
+        <v>0.2692801228578418</v>
       </c>
       <c r="L178">
         <v>0.01099820916411042</v>
@@ -13768,13 +13768,13 @@
         <v>0.1687499999999886</v>
       </c>
       <c r="U178">
-        <v>1.000137840725042</v>
+        <v>0.0001378407250420821</v>
       </c>
       <c r="V178">
-        <v>1.000275501067567</v>
+        <v>0.0002755010675665748</v>
       </c>
       <c r="W178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13809,7 +13809,7 @@
         <v>3.716076163200331</v>
       </c>
       <c r="K179">
-        <v>78.795931927414</v>
+        <v>0.28795931927414</v>
       </c>
       <c r="L179">
         <v>0.012640131816159</v>
@@ -13839,13 +13839,13 @@
         <v>0.1875000000000284</v>
       </c>
       <c r="U179">
-        <v>1.000172277159494</v>
+        <v>0.0001722771594943051</v>
       </c>
       <c r="V179">
-        <v>1.000275425187633</v>
+        <v>0.0002754251876333491</v>
       </c>
       <c r="W179">
-        <v>1.000515198351365</v>
+        <v>0.0005151983513651537</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13880,7 +13880,7 @@
         <v>2.060111417570946</v>
       </c>
       <c r="K180">
-        <v>67.32145129559434</v>
+        <v>0.1732145129559435</v>
       </c>
       <c r="L180">
         <v>0.01385796057353496</v>
@@ -13910,13 +13910,13 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="U180">
-        <v>1.000103348491112</v>
+        <v>0.0001033484911121541</v>
       </c>
       <c r="V180">
-        <v>1.000206512012116</v>
+        <v>0.0002065120121155228</v>
       </c>
       <c r="W180">
-        <v>0.9989701338825954</v>
+        <v>-0.001029866117404632</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13951,7 +13951,7 @@
         <v>1.668730911773265</v>
       </c>
       <c r="K181">
-        <v>62.52900599350648</v>
+        <v>0.1252900599350648</v>
       </c>
       <c r="L181">
         <v>0.01450241562061976</v>
@@ -13981,13 +13981,13 @@
         <v>0.2062499999999829</v>
       </c>
       <c r="U181">
-        <v>1.000086114842754</v>
+        <v>8.611484275422576E-05</v>
       </c>
       <c r="V181">
-        <v>1.000172057811425</v>
+        <v>0.0001720578114248195</v>
       </c>
       <c r="W181">
-        <v>0.9994845360824742</v>
+        <v>-0.0005154639175257714</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14022,7 +14022,7 @@
         <v>1.390633171244536</v>
       </c>
       <c r="K182">
-        <v>58.17007761674236</v>
+        <v>0.08170077616742366</v>
       </c>
       <c r="L182">
         <v>0.01451741935568882</v>
@@ -14052,13 +14052,13 @@
         <v>0.1937499999999943</v>
       </c>
       <c r="U182">
-        <v>1.000068885942101</v>
+        <v>6.888594210141541E-05</v>
       </c>
       <c r="V182">
-        <v>1.000103216927576</v>
+        <v>0.0001032169275760886</v>
       </c>
       <c r="W182">
-        <v>0.9994842702423931</v>
+        <v>-0.000515729757606942</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14093,7 +14093,7 @@
         <v>1.741479987407819</v>
       </c>
       <c r="K183">
-        <v>63.52335218228091</v>
+        <v>0.1352335218228091</v>
       </c>
       <c r="L183">
         <v>0.01447365074610594</v>
@@ -14123,13 +14123,13 @@
         <v>0.1874999999999716</v>
       </c>
       <c r="U183">
-        <v>1.000120542095021</v>
+        <v>0.0001205420950214364</v>
       </c>
       <c r="V183">
-        <v>1.000172010458236</v>
+        <v>0.0001720104582358939</v>
       </c>
       <c r="W183">
-        <v>1.001031991744066</v>
+        <v>0.001031991744065985</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14164,7 +14164,7 @@
         <v>1.470029836021869</v>
       </c>
       <c r="K184">
-        <v>59.5146590775373</v>
+        <v>0.09514659077537302</v>
       </c>
       <c r="L184">
         <v>0.01415614292211425</v>
@@ -14194,13 +14194,13 @@
         <v>0.1750000000000114</v>
       </c>
       <c r="U184">
-        <v>1.00008609111884</v>
+        <v>8.609111884028131E-05</v>
       </c>
       <c r="V184">
-        <v>1.000137584700581</v>
+        <v>0.000137584700581117</v>
       </c>
       <c r="W184">
-        <v>0.9994845360824742</v>
+        <v>-0.0005154639175257714</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14235,7 +14235,7 @@
         <v>1.962261162580286</v>
       </c>
       <c r="K185">
-        <v>66.24200416114064</v>
+        <v>0.1624200416114064</v>
       </c>
       <c r="L185">
         <v>0.01420578129918447</v>
@@ -14265,13 +14265,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U185">
-        <v>1.000154950674035</v>
+        <v>0.0001549506740352591</v>
       </c>
       <c r="V185">
-        <v>1.000206348660453</v>
+        <v>0.000206348660453326</v>
       </c>
       <c r="W185">
-        <v>1.001547189272821</v>
+        <v>0.001547189272820937</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14306,7 +14306,7 @@
         <v>1.673266679333205</v>
       </c>
       <c r="K186">
-        <v>62.59258353343817</v>
+        <v>0.1259258353343816</v>
       </c>
       <c r="L186">
         <v>0.01423463365649605</v>
@@ -14336,13 +14336,13 @@
         <v>0.1124999999999829</v>
       </c>
       <c r="U186">
-        <v>1.000137712593817</v>
+        <v>0.0001377125938166746</v>
       </c>
       <c r="V186">
-        <v>1.000171921741223</v>
+        <v>0.0001719217412232688</v>
       </c>
       <c r="W186">
-        <v>0.9994850669412977</v>
+        <v>-0.000514933058702316</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14377,7 +14377,7 @@
         <v>1.828294320407973</v>
       </c>
       <c r="K187">
-        <v>64.64300080849603</v>
+        <v>0.1464300080849603</v>
       </c>
       <c r="L187">
         <v>0.01438514299779303</v>
@@ -14407,13 +14407,13 @@
         <v>0.07500000000001705</v>
       </c>
       <c r="U187">
-        <v>1.000154905335628</v>
+        <v>0.0001549053356282304</v>
       </c>
       <c r="V187">
-        <v>1.000206270627063</v>
+        <v>0.000206270627062688</v>
       </c>
       <c r="W187">
-        <v>1.000515198351365</v>
+        <v>0.0005151983513651537</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14448,7 +14448,7 @@
         <v>1.828294320407973</v>
       </c>
       <c r="K188">
-        <v>64.64300080849603</v>
+        <v>0.1464300080849603</v>
       </c>
       <c r="L188">
         <v>0.01454719518907007</v>
@@ -14478,13 +14478,13 @@
         <v>0.0625</v>
       </c>
       <c r="U188">
-        <v>1.000154881343682</v>
+        <v>0.0001548813436815788</v>
       </c>
       <c r="V188">
-        <v>1.000206228088266</v>
+        <v>0.0002062280882657586</v>
       </c>
       <c r="W188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14519,7 +14519,7 @@
         <v>2.171845879576483</v>
       </c>
       <c r="K189">
-        <v>68.47261695661192</v>
+        <v>0.1847261695661192</v>
       </c>
       <c r="L189">
         <v>0.0150287589427644</v>
@@ -14549,13 +14549,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U189">
-        <v>1.000189270105647</v>
+        <v>0.0001892701056473989</v>
       </c>
       <c r="V189">
-        <v>1.000240549828179</v>
+        <v>0.0002405498281787821</v>
       </c>
       <c r="W189">
-        <v>1.001029866117405</v>
+        <v>0.001029866117404854</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14590,7 +14590,7 @@
         <v>1.839274499546044</v>
       </c>
       <c r="K190">
-        <v>64.77973509923453</v>
+        <v>0.1477973509923453</v>
       </c>
       <c r="L190">
         <v>0.01543019902772186</v>
@@ -14620,13 +14620,13 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="U190">
-        <v>1.000172031172048</v>
+        <v>0.000172031172048337</v>
       </c>
       <c r="V190">
-        <v>1.000171779984196</v>
+        <v>0.000171779984196041</v>
       </c>
       <c r="W190">
-        <v>0.999485596707819</v>
+        <v>-0.0005144032921809982</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14661,7 +14661,7 @@
         <v>1.839274499546044</v>
       </c>
       <c r="K191">
-        <v>64.77973509923453</v>
+        <v>0.1477973509923453</v>
       </c>
       <c r="L191">
         <v>0.01570115256766924</v>
@@ -14691,13 +14691,13 @@
         <v>0.1062500000000171</v>
       </c>
       <c r="U191">
-        <v>1.000154801424173</v>
+        <v>0.0001548014241730122</v>
       </c>
       <c r="V191">
-        <v>1.000171750480901</v>
+        <v>0.0001717504809013448</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14732,7 +14732,7 @@
         <v>2.008945905580577</v>
       </c>
       <c r="K192">
-        <v>66.76577009425998</v>
+        <v>0.1676577009425998</v>
       </c>
       <c r="L192">
         <v>0.01600637066654145</v>
@@ -14762,13 +14762,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U192">
-        <v>1.000171974960446</v>
+        <v>0.0001719749604458531</v>
       </c>
       <c r="V192">
-        <v>1.000103032592643</v>
+        <v>0.0001030325926434372</v>
       </c>
       <c r="W192">
-        <v>1.000514668039115</v>
+        <v>0.0005146680391148184</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14803,7 +14803,7 @@
         <v>2.008945905580577</v>
       </c>
       <c r="K193">
-        <v>66.76577009425998</v>
+        <v>0.1676577009425998</v>
       </c>
       <c r="L193">
         <v>0.01625439632785216</v>
@@ -14833,13 +14833,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U193">
-        <v>1.000189139929158</v>
+        <v>0.0001891399291582552</v>
       </c>
       <c r="V193">
-        <v>1.000103021978022</v>
+        <v>0.0001030219780220332</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14874,7 +14874,7 @@
         <v>2.008945905580577</v>
       </c>
       <c r="K194">
-        <v>66.76577009425998</v>
+        <v>0.1676577009425998</v>
       </c>
       <c r="L194">
         <v>0.01639260302933626</v>
@@ -14904,13 +14904,13 @@
         <v>0.1562500000000284</v>
       </c>
       <c r="U194">
-        <v>1.000171912874555</v>
+        <v>0.0001719128745552023</v>
       </c>
       <c r="V194">
-        <v>1.000068674243725</v>
+        <v>6.86742437248089E-05</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14945,7 +14945,7 @@
         <v>1.677061509272477</v>
       </c>
       <c r="K195">
-        <v>62.64560987723581</v>
+        <v>0.1264560987723581</v>
       </c>
       <c r="L195">
         <v>0.01620783197048211</v>
@@ -14975,13 +14975,13 @@
         <v>0.1624999999999943</v>
       </c>
       <c r="U195">
-        <v>1.000154694993039</v>
+        <v>0.0001546949930386621</v>
       </c>
       <c r="V195">
-        <v>1.000103004291846</v>
+        <v>0.0001030042918455099</v>
       </c>
       <c r="W195">
-        <v>0.999485596707819</v>
+        <v>-0.0005144032921809982</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15016,7 +15016,7 @@
         <v>1.244298923279154</v>
       </c>
       <c r="K196">
-        <v>55.44265562722384</v>
+        <v>0.05442655627223847</v>
       </c>
       <c r="L196">
         <v>0.0154045938462116</v>
@@ -15046,13 +15046,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U196">
-        <v>1.000120299718155</v>
+        <v>0.0001202997181550813</v>
       </c>
       <c r="V196">
-        <v>1.000068662455369</v>
+        <v>6.866245536940596E-05</v>
       </c>
       <c r="W196">
-        <v>0.9989706639217704</v>
+        <v>-0.001029336078229637</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15087,7 +15087,7 @@
         <v>1.244298923279155</v>
       </c>
       <c r="K197">
-        <v>55.44265562722386</v>
+        <v>0.05442655627223858</v>
       </c>
       <c r="L197">
         <v>0.01422197791543403</v>
@@ -15117,13 +15117,13 @@
         <v>0.09375000000002842</v>
       </c>
       <c r="U197">
-        <v>1.000103101641035</v>
+        <v>0.0001031016410346641</v>
       </c>
       <c r="V197">
-        <v>1.00010298661174</v>
+        <v>0.0001029866117403522</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15158,7 +15158,7 @@
         <v>1.244298923279155</v>
       </c>
       <c r="K198">
-        <v>55.44265562722386</v>
+        <v>0.05442655627223858</v>
       </c>
       <c r="L198">
         <v>0.01283326604703709</v>
@@ -15188,13 +15188,13 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="U198">
-        <v>1.000103091012182</v>
+        <v>0.0001030910121817552</v>
       </c>
       <c r="V198">
-        <v>1.00003432533553</v>
+        <v>3.432533553016093E-05</v>
       </c>
       <c r="W198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15229,7 +15229,7 @@
         <v>1.244298923279155</v>
       </c>
       <c r="K199">
-        <v>55.44265562722386</v>
+        <v>0.05442655627223858</v>
       </c>
       <c r="L199">
         <v>0.01136158051088198</v>
@@ -15259,13 +15259,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U199">
-        <v>1.000103080385521</v>
+        <v>0.0001030803855206486</v>
       </c>
       <c r="V199">
-        <v>1.000068648314684</v>
+        <v>6.864831468433863E-05</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15300,7 +15300,7 @@
         <v>1.074145932446767</v>
       </c>
       <c r="K200">
-        <v>51.78738466003934</v>
+        <v>0.01787384660039337</v>
       </c>
       <c r="L200">
         <v>0.009704443200770692</v>
@@ -15330,13 +15330,13 @@
         <v>-0.03750000000002274</v>
       </c>
       <c r="U200">
-        <v>1.000068713174033</v>
+        <v>6.871317403311927E-05</v>
       </c>
       <c r="V200">
-        <v>0.9999313563975835</v>
+        <v>-6.864360241654044E-05</v>
       </c>
       <c r="W200">
-        <v>0.9994848016486347</v>
+        <v>-0.0005151983513652647</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15371,7 +15371,7 @@
         <v>0.9389853449695089</v>
       </c>
       <c r="K201">
-        <v>48.42663444598003</v>
+        <v>-0.01573365554019973</v>
       </c>
       <c r="L201">
         <v>0.00781767241423198</v>
@@ -15401,13 +15401,13 @@
         <v>-0.08125000000001137</v>
       </c>
       <c r="U201">
-        <v>1.000051531339643</v>
+        <v>5.153133964297396E-05</v>
       </c>
       <c r="V201">
-        <v>0.999931351685316</v>
+        <v>-6.864831468400556E-05</v>
       </c>
       <c r="W201">
-        <v>0.9994845360824742</v>
+        <v>-0.0005154639175257714</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15442,7 +15442,7 @@
         <v>1.071438765226436</v>
       </c>
       <c r="K202">
-        <v>51.72437550232451</v>
+        <v>0.01724375502324504</v>
       </c>
       <c r="L202">
         <v>0.006071304167032084</v>
@@ -15472,13 +15472,13 @@
         <v>-0.125</v>
       </c>
       <c r="U202">
-        <v>1.000068704912401</v>
+        <v>6.870491240107413E-05</v>
       </c>
       <c r="V202">
-        <v>0.9999313469724015</v>
+        <v>-6.865302759850866E-05</v>
       </c>
       <c r="W202">
-        <v>1.000515729757607</v>
+        <v>0.000515729757607053</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15513,7 +15513,7 @@
         <v>1.071438765226436</v>
       </c>
       <c r="K203">
-        <v>51.72437550232451</v>
+        <v>0.01724375502324504</v>
       </c>
       <c r="L203">
         <v>0.004499181547538493</v>
@@ -15543,13 +15543,13 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="U203">
-        <v>1.000068700192361</v>
+        <v>6.870019236071556E-05</v>
       </c>
       <c r="V203">
-        <v>0.9999313422588397</v>
+        <v>-6.865774116027179E-05</v>
       </c>
       <c r="W203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15584,7 +15584,7 @@
         <v>1.218201557754886</v>
       </c>
       <c r="K204">
-        <v>54.91843396719402</v>
+        <v>0.04918433967194025</v>
       </c>
       <c r="L204">
         <v>0.003304036303657853</v>
@@ -15614,13 +15614,13 @@
         <v>-0.1437500000000114</v>
       </c>
       <c r="U204">
-        <v>1.000068695472968</v>
+        <v>6.869547296828316E-05</v>
       </c>
       <c r="V204">
-        <v>0.9998970063169459</v>
+        <v>-0.0001029936830541089</v>
       </c>
       <c r="W204">
-        <v>1.000515463917526</v>
+        <v>0.0005154639175257714</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15655,7 +15655,7 @@
         <v>1.218201557754886</v>
       </c>
       <c r="K205">
-        <v>54.91843396719402</v>
+        <v>0.04918433967194025</v>
       </c>
       <c r="L205">
         <v>0.002401367937477427</v>
@@ -15685,13 +15685,13 @@
         <v>-0.125</v>
       </c>
       <c r="U205">
-        <v>1.000051518065668</v>
+        <v>5.151806566838779E-05</v>
       </c>
       <c r="V205">
-        <v>0.999931330472103</v>
+        <v>-6.866952789696956E-05</v>
       </c>
       <c r="W205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15726,7 +15726,7 @@
         <v>1.38081961041799</v>
       </c>
       <c r="K206">
-        <v>57.99765779716362</v>
+        <v>0.07997657797163615</v>
       </c>
       <c r="L206">
         <v>0.001912259476216536</v>
@@ -15756,13 +15756,13 @@
         <v>-0.1062499999999886</v>
       </c>
       <c r="U206">
-        <v>1.000068687215592</v>
+        <v>6.868721559216695E-05</v>
       </c>
       <c r="V206">
-        <v>0.9999656628781375</v>
+        <v>-3.433712186251547E-05</v>
       </c>
       <c r="W206">
-        <v>1.000515198351365</v>
+        <v>0.0005151983513651537</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15797,7 +15797,7 @@
         <v>1.38081961041799</v>
       </c>
       <c r="K207">
-        <v>57.99765779716362</v>
+        <v>0.07997657797163615</v>
       </c>
       <c r="L207">
         <v>0.001697878021800776</v>
@@ -15827,13 +15827,13 @@
         <v>-0.08750000000000568</v>
       </c>
       <c r="U207">
-        <v>1.000017170624495</v>
+        <v>1.717062449535511E-05</v>
       </c>
       <c r="V207">
-        <v>0.9999313233981183</v>
+        <v>-6.867660188170088E-05</v>
       </c>
       <c r="W207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15868,7 +15868,7 @@
         <v>1.015030585967109</v>
       </c>
       <c r="K208">
-        <v>50.37296173248643</v>
+        <v>0.003729617324864321</v>
       </c>
       <c r="L208">
         <v>0.001282187924466399</v>
@@ -15898,13 +15898,13 @@
         <v>-0.0625</v>
       </c>
       <c r="U208">
-        <v>0.9999828296703298</v>
+        <v>-1.717032967019083E-05</v>
       </c>
       <c r="V208">
-        <v>0.9998626373626375</v>
+        <v>-0.0001373626373625259</v>
       </c>
       <c r="W208">
-        <v>0.9989701338825954</v>
+        <v>-0.001029866117404632</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15939,7 +15939,7 @@
         <v>1.154455415779887</v>
       </c>
       <c r="K209">
-        <v>53.58455818228143</v>
+        <v>0.03584558182281428</v>
       </c>
       <c r="L209">
         <v>0.0009539737378579163</v>
@@ -15969,13 +15969,13 @@
         <v>-0.01875000000001137</v>
       </c>
       <c r="U209">
-        <v>0.9999828293755041</v>
+        <v>-1.717062449591022E-05</v>
       </c>
       <c r="V209">
-        <v>0.9998969638686632</v>
+        <v>-0.0001030361313367756</v>
       </c>
       <c r="W209">
-        <v>1.000515463917526</v>
+        <v>0.0005154639175257714</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16010,7 +16010,7 @@
         <v>1.301218394530179</v>
       </c>
       <c r="K210">
-        <v>56.54475896868702</v>
+        <v>0.06544758968687026</v>
       </c>
       <c r="L210">
         <v>0.0008837955321482491</v>
@@ -16040,13 +16040,13 @@
         <v>0.01874999999998295</v>
       </c>
       <c r="U210">
-        <v>1.000034341838662</v>
+        <v>3.434183866213303E-05</v>
       </c>
       <c r="V210">
-        <v>0.9999656510837082</v>
+        <v>-3.434891629183756E-05</v>
       </c>
       <c r="W210">
-        <v>1.000515198351365</v>
+        <v>0.0005151983513651537</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16081,7 +16081,7 @@
         <v>1.301218394530179</v>
       </c>
       <c r="K211">
-        <v>56.54475896868703</v>
+        <v>0.06544758968687026</v>
       </c>
       <c r="L211">
         <v>0.0009711896531089744</v>
@@ -16111,13 +16111,13 @@
         <v>0.04999999999998295</v>
       </c>
       <c r="U211">
-        <v>1.000051510989011</v>
+        <v>5.151098901112761E-05</v>
       </c>
       <c r="V211">
-        <v>1.00003435009618</v>
+        <v>3.435009618035778E-05</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16152,7 +16152,7 @@
         <v>1.301218394530179</v>
       </c>
       <c r="K212">
-        <v>56.54475896868703</v>
+        <v>0.06544758968687026</v>
       </c>
       <c r="L212">
         <v>0.001144934783675677</v>
@@ -16182,13 +16182,13 @@
         <v>0.05625000000000568</v>
       </c>
       <c r="U212">
-        <v>1.000068677781021</v>
+        <v>6.867778102082056E-05</v>
       </c>
       <c r="V212">
-        <v>1.000034348916292</v>
+        <v>3.434891629172654E-05</v>
       </c>
       <c r="W212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16223,7 +16223,7 @@
         <v>1.643572624010425</v>
       </c>
       <c r="K213">
-        <v>62.1724029475327</v>
+        <v>0.121724029475327</v>
       </c>
       <c r="L213">
         <v>0.001730939723238504</v>
@@ -16253,13 +16253,13 @@
         <v>0.07499999999998863</v>
       </c>
       <c r="U213">
-        <v>1.000068673064707</v>
+        <v>6.86730647070366E-05</v>
       </c>
       <c r="V213">
-        <v>1.000103043209453</v>
+        <v>0.0001030432094526468</v>
       </c>
       <c r="W213">
-        <v>1.001029866117405</v>
+        <v>0.001029866117404854</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16294,7 +16294,7 @@
         <v>1.643572624010426</v>
       </c>
       <c r="K214">
-        <v>62.1724029475327</v>
+        <v>0.121724029475327</v>
       </c>
       <c r="L214">
         <v>0.002523029394120763</v>
@@ -16324,13 +16324,13 @@
         <v>0.08125000000001137</v>
       </c>
       <c r="U214">
-        <v>1.000085835436302</v>
+        <v>8.583543630158452E-05</v>
       </c>
       <c r="V214">
-        <v>1.000103032592643</v>
+        <v>0.0001030325926434372</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16365,7 +16365,7 @@
         <v>1.643572624010425</v>
       </c>
       <c r="K215">
-        <v>62.1724029475327</v>
+        <v>0.121724029475327</v>
       </c>
       <c r="L215">
         <v>0.003380267985377086</v>
@@ -16395,13 +16395,13 @@
         <v>0.08750000000003411</v>
       </c>
       <c r="U215">
-        <v>1.000034331227685</v>
+        <v>3.433122768470298E-05</v>
       </c>
       <c r="V215">
-        <v>1.000137362637362</v>
+        <v>0.0001373626373624148</v>
       </c>
       <c r="W215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16436,7 +16436,7 @@
         <v>1.84322518530519</v>
       </c>
       <c r="K216">
-        <v>64.82867395912362</v>
+        <v>0.1482867395912362</v>
       </c>
       <c r="L216">
         <v>0.004397572277464453</v>
@@ -16466,13 +16466,13 @@
         <v>0.1187500000000341</v>
       </c>
       <c r="U216">
-        <v>1.000068660098184</v>
+        <v>6.866009818384811E-05</v>
       </c>
       <c r="V216">
-        <v>1.00020601565719</v>
+        <v>0.0002060156571901395</v>
       </c>
       <c r="W216">
-        <v>1.000514403292181</v>
+        <v>0.0005144032921811093</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16507,7 +16507,7 @@
         <v>1.84322518530519</v>
       </c>
       <c r="K217">
-        <v>64.82867395912362</v>
+        <v>0.1482867395912362</v>
       </c>
       <c r="L217">
         <v>0.005430925961226778</v>
@@ -16537,13 +16537,13 @@
         <v>0.1312499999999943</v>
       </c>
       <c r="U217">
-        <v>1.000051491538224</v>
+        <v>5.149153822392449E-05</v>
       </c>
       <c r="V217">
-        <v>1.000171644352901</v>
+        <v>0.000171644352900735</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16578,7 +16578,7 @@
         <v>1.84322518530519</v>
       </c>
       <c r="K218">
-        <v>64.82867395912362</v>
+        <v>0.1482867395912362</v>
       </c>
       <c r="L218">
         <v>0.006388287482030602</v>
@@ -16608,13 +16608,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U218">
-        <v>1.000051488886982</v>
+        <v>5.148888698180976E-05</v>
       </c>
       <c r="V218">
-        <v>1.000171614896173</v>
+        <v>0.0001716148961732333</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16649,7 +16649,7 @@
         <v>1.84322518530519</v>
       </c>
       <c r="K219">
-        <v>64.82867395912362</v>
+        <v>0.1482867395912362</v>
       </c>
       <c r="L219">
         <v>0.007215253649179009</v>
@@ -16679,13 +16679,13 @@
         <v>0.1437500000000114</v>
       </c>
       <c r="U219">
-        <v>1.000017162078671</v>
+        <v>1.716207867086261E-05</v>
       </c>
       <c r="V219">
-        <v>1.000137268359643</v>
+        <v>0.0001372683596430058</v>
       </c>
       <c r="W219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16720,7 +16720,7 @@
         <v>1.480358319494133</v>
       </c>
       <c r="K220">
-        <v>59.68324446751914</v>
+        <v>0.09683244467519136</v>
       </c>
       <c r="L220">
         <v>0.007696633896877258</v>
@@ -16750,13 +16750,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U220">
-        <v>1.000017161784139</v>
+        <v>1.716178413913028E-05</v>
       </c>
       <c r="V220">
-        <v>1.00010293713972</v>
+        <v>0.000102937139720094</v>
       </c>
       <c r="W220">
-        <v>0.9994858611825194</v>
+        <v>-0.0005141388174806361</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16791,7 +16791,7 @@
         <v>1.687584829283349</v>
       </c>
       <c r="K221">
-        <v>62.79187212607341</v>
+        <v>0.1279187212607341</v>
       </c>
       <c r="L221">
         <v>0.008097454268393839</v>
@@ -16821,13 +16821,13 @@
         <v>0.1374999999999886</v>
       </c>
       <c r="U221">
-        <v>1.000034322979235</v>
+        <v>3.432297923477989E-05</v>
       </c>
       <c r="V221">
-        <v>1.000102926544756</v>
+        <v>0.0001029265447558547</v>
       </c>
       <c r="W221">
-        <v>1.000514403292181</v>
+        <v>0.0005144032921811093</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16862,7 +16862,7 @@
         <v>1.905717997482524</v>
       </c>
       <c r="K222">
-        <v>65.58509804232941</v>
+        <v>0.155850980423294</v>
       </c>
       <c r="L222">
         <v>0.008581891210355394</v>
@@ -16892,13 +16892,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U222">
-        <v>1.000034321801208</v>
+        <v>3.432180120777062E-05</v>
       </c>
       <c r="V222">
-        <v>1.000137221269297</v>
+        <v>0.0001372212692967167</v>
       </c>
       <c r="W222">
-        <v>1.000514138817481</v>
+        <v>0.0005141388174807471</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16933,7 +16933,7 @@
         <v>2.135331858744813</v>
       </c>
       <c r="K223">
-        <v>68.10544959663899</v>
+        <v>0.1810544959663899</v>
       </c>
       <c r="L223">
         <v>0.009242252711432501</v>
@@ -16963,13 +16963,13 @@
         <v>0.1437499999999829</v>
       </c>
       <c r="U223">
-        <v>1.000051480934894</v>
+        <v>5.148093489393268E-05</v>
       </c>
       <c r="V223">
-        <v>1.000240104273856</v>
+        <v>0.0002401042738562342</v>
       </c>
       <c r="W223">
-        <v>1.000513874614594</v>
+        <v>0.0005138746145940676</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17004,7 +17004,7 @@
         <v>2.135331858744813</v>
       </c>
       <c r="K224">
-        <v>68.10544959663899</v>
+        <v>0.1810544959663899</v>
       </c>
       <c r="L224">
         <v>0.009933305036613799</v>
@@ -17034,13 +17034,13 @@
         <v>0.125</v>
       </c>
       <c r="U224">
-        <v>1.000051478284744</v>
+        <v>5.147828474361127E-05</v>
       </c>
       <c r="V224">
-        <v>1.000205754260828</v>
+        <v>0.0002057542608278062</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17075,7 +17075,7 @@
         <v>2.389751649617228</v>
       </c>
       <c r="K225">
-        <v>70.49931371482863</v>
+        <v>0.2049931371482863</v>
       </c>
       <c r="L225">
         <v>0.01075005898388097</v>
@@ -17105,13 +17105,13 @@
         <v>0.1187499999999773</v>
       </c>
       <c r="U225">
-        <v>1.000085792724777</v>
+        <v>8.579272477682309E-05</v>
       </c>
       <c r="V225">
-        <v>1.000205711934721</v>
+        <v>0.0002057119347207426</v>
       </c>
       <c r="W225">
-        <v>1.000513610683102</v>
+        <v>0.0005136106831022946</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17146,7 +17146,7 @@
         <v>2.657561955798642</v>
       </c>
       <c r="K226">
-        <v>72.65938316056095</v>
+        <v>0.2265938316056095</v>
       </c>
       <c r="L226">
         <v>0.01173901529665882</v>
@@ -17176,13 +17176,13 @@
         <v>0.1249999999999716</v>
       </c>
       <c r="U226">
-        <v>1.000137256584027</v>
+        <v>0.0001372565840267459</v>
       </c>
       <c r="V226">
-        <v>1.000239947897028</v>
+        <v>0.0002399478970280811</v>
       </c>
       <c r="W226">
-        <v>1.000513347022587</v>
+        <v>0.0005133470225873182</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17217,7 +17217,7 @@
         <v>2.657561955798642</v>
       </c>
       <c r="K227">
-        <v>72.65938316056095</v>
+        <v>0.2265938316056095</v>
       </c>
       <c r="L227">
         <v>0.01272627468408986</v>
@@ -17247,13 +17247,13 @@
         <v>0.1312500000000227</v>
       </c>
       <c r="U227">
-        <v>1.000137237747242</v>
+        <v>0.0001372377472421693</v>
       </c>
       <c r="V227">
-        <v>1.000239890335846</v>
+        <v>0.0002398903358464821</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17288,7 +17288,7 @@
         <v>1.667766698070966</v>
       </c>
       <c r="K228">
-        <v>62.51546281303048</v>
+        <v>0.1251546281303049</v>
       </c>
       <c r="L228">
         <v>0.01322823798055359</v>
@@ -17318,13 +17318,13 @@
         <v>0.1375000000000171</v>
       </c>
       <c r="U228">
-        <v>1.000102914186721</v>
+        <v>0.0001029141867205929</v>
       </c>
       <c r="V228">
-        <v>1.000102785486689</v>
+        <v>0.0001027854866892941</v>
       </c>
       <c r="W228">
-        <v>0.9989738327347357</v>
+        <v>-0.001026167265264277</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17359,7 +17359,7 @@
         <v>1.863790302093312</v>
       </c>
       <c r="K229">
-        <v>65.08124218211643</v>
+        <v>0.1508124218211643</v>
       </c>
       <c r="L229">
         <v>0.01354337834663454</v>
@@ -17389,13 +17389,13 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="U229">
-        <v>1.000120054195894</v>
+        <v>0.0001200541958941148</v>
       </c>
       <c r="V229">
-        <v>1.000137033230558</v>
+        <v>0.0001370332305583588</v>
       </c>
       <c r="W229">
-        <v>1.000513610683102</v>
+        <v>0.0005136106831022946</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17430,7 +17430,7 @@
         <v>2.070130937906249</v>
       </c>
       <c r="K230">
-        <v>67.42809931481378</v>
+        <v>0.1742809931481378</v>
       </c>
       <c r="L230">
         <v>0.01386318398507388</v>
@@ -17460,13 +17460,13 @@
         <v>0.15625</v>
       </c>
       <c r="U230">
-        <v>1.000154336865933</v>
+        <v>0.0001543368659326916</v>
       </c>
       <c r="V230">
-        <v>1.000171268068781</v>
+        <v>0.0001712680687813162</v>
       </c>
       <c r="W230">
-        <v>1.000513347022587</v>
+        <v>0.0005133470225873182</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17501,7 +17501,7 @@
         <v>1.443202039949068</v>
       </c>
       <c r="K231">
-        <v>59.07010621107509</v>
+        <v>0.09070106211075091</v>
       </c>
       <c r="L231">
         <v>0.01374016604364872</v>
@@ -17531,13 +17531,13 @@
         <v>0.1374999999999602</v>
       </c>
       <c r="U231">
-        <v>1.000137167155325</v>
+        <v>0.0001371671553247467</v>
       </c>
       <c r="V231">
-        <v>1.000068495496421</v>
+        <v>6.849549642118369E-05</v>
       </c>
       <c r="W231">
-        <v>0.9989738327347357</v>
+        <v>-0.001026167265264277</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17572,7 +17572,7 @@
         <v>1.443202039949068</v>
       </c>
       <c r="K232">
-        <v>59.07010621107509</v>
+        <v>0.09070106211075091</v>
       </c>
       <c r="L232">
         <v>0.01330673153797992</v>
@@ -17602,13 +17602,13 @@
         <v>0.125</v>
       </c>
       <c r="U232">
-        <v>1.000120004800192</v>
+        <v>0.0001200048001921417</v>
       </c>
       <c r="V232">
-        <v>1.000068490805109</v>
+        <v>6.84908051094002E-05</v>
       </c>
       <c r="W232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Gjensidige Forsikr 14.01.2021.xlsx
+++ b/data_clean/Gjensidige Forsikr 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1133,13 +1136,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W232"/>
+  <dimension ref="A1:X232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,10 +1212,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>192.2</v>
@@ -1269,7 +1275,7 @@
         <v>192.2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>192.2</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1280,10 +1286,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>192.5</v>
@@ -1340,7 +1349,7 @@
         <v>192.35</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>192.35</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1351,10 +1360,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>192.4</v>
@@ -1411,21 +1423,24 @@
         <v>192.3666666666667</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>192.3666666666667</v>
       </c>
       <c r="U4">
-        <v>8.664760419385686E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>8.664760419385686E-05</v>
       </c>
       <c r="W4">
+        <v>8.664760419385686E-05</v>
+      </c>
+      <c r="X4">
         <v>-0.0005194805194804752</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>192.7</v>
@@ -1482,21 +1497,24 @@
         <v>192.45</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>192.5333333333333</v>
       </c>
       <c r="U5">
-        <v>0.0004332004851843596</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0.0004332004851843596</v>
       </c>
       <c r="W5">
+        <v>0.0004332004851843596</v>
+      </c>
+      <c r="X5">
         <v>0.001559251559251518</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>193.3</v>
@@ -1553,21 +1571,24 @@
         <v>192.62</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>192.8</v>
       </c>
       <c r="U6">
-        <v>0.0008833463237205574</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.0008833463237205574</v>
       </c>
       <c r="W6">
+        <v>0.0008833463237205574</v>
+      </c>
+      <c r="X6">
         <v>0.003113648157758275</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>193.7</v>
@@ -1624,21 +1645,24 @@
         <v>192.8</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>193.2333333333333</v>
       </c>
       <c r="U7">
-        <v>0.0009344824005812491</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.0009344824005812491</v>
       </c>
       <c r="W7">
+        <v>0.0009344824005812491</v>
+      </c>
+      <c r="X7">
         <v>0.002069322296947673</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>193.2</v>
@@ -1695,21 +1719,24 @@
         <v>192.8571428571429</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>193.4</v>
       </c>
       <c r="U8">
-        <v>0.0002963841138114987</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.0002963841138114987</v>
       </c>
       <c r="W8">
+        <v>0.0002963841138114987</v>
+      </c>
+      <c r="X8">
         <v>-0.002581311306143474</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>193.2</v>
@@ -1766,21 +1793,24 @@
         <v>192.9</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>193.3666666666667</v>
       </c>
       <c r="U9">
-        <v>0.0002222222222221237</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0.0002222222222221237</v>
       </c>
       <c r="W9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>0.0002222222222221237</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>193.3</v>
@@ -1837,21 +1867,24 @@
         <v>192.9444444444445</v>
       </c>
       <c r="T10">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U10">
         <v>0.09305555555553724</v>
-      </c>
-      <c r="U10">
-        <v>0.0002304014745695415</v>
       </c>
       <c r="V10">
         <v>0.0002304014745695415</v>
       </c>
       <c r="W10">
+        <v>0.0002304014745695415</v>
+      </c>
+      <c r="X10">
         <v>0.0005175983436853659</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>193.1</v>
@@ -1908,21 +1941,24 @@
         <v>192.96</v>
       </c>
       <c r="T11">
+        <v>193.2</v>
+      </c>
+      <c r="U11">
         <v>0.1525000000000034</v>
-      </c>
-      <c r="U11">
-        <v>8.062194068503281E-05</v>
       </c>
       <c r="V11">
         <v>8.062194068503281E-05</v>
       </c>
       <c r="W11">
+        <v>8.062194068503281E-05</v>
+      </c>
+      <c r="X11">
         <v>-0.001034661148473948</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>193</v>
@@ -1979,21 +2015,24 @@
         <v>192.9636363636364</v>
       </c>
       <c r="T12">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U12">
         <v>0.2238636363636317</v>
-      </c>
-      <c r="U12">
-        <v>1.884516809913528E-05</v>
       </c>
       <c r="V12">
         <v>1.884516809913528E-05</v>
       </c>
       <c r="W12">
+        <v>1.884516809913528E-05</v>
+      </c>
+      <c r="X12">
         <v>-0.0005178663904712444</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>193</v>
@@ -2050,21 +2089,24 @@
         <v>192.9666666666667</v>
       </c>
       <c r="T13">
+        <v>193.0333333333333</v>
+      </c>
+      <c r="U13">
         <v>0.2583333333333258</v>
-      </c>
-      <c r="U13">
-        <v>1.570401080441819E-05</v>
       </c>
       <c r="V13">
         <v>1.570401080441819E-05</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>1.570401080441819E-05</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>193.3</v>
@@ -2121,21 +2163,24 @@
         <v>192.9923076923077</v>
       </c>
       <c r="T14">
+        <v>193.1</v>
+      </c>
+      <c r="U14">
         <v>0.2326923076923322</v>
-      </c>
-      <c r="U14">
-        <v>0.0001328780047038514</v>
       </c>
       <c r="V14">
         <v>0.0001328780047038514</v>
       </c>
       <c r="W14">
+        <v>0.0001328780047038514</v>
+      </c>
+      <c r="X14">
         <v>0.001554404145077681</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>193.3</v>
@@ -2192,21 +2237,24 @@
         <v>193.0142857142857</v>
       </c>
       <c r="T15">
+        <v>193.2</v>
+      </c>
+      <c r="U15">
         <v>0.160714285714306</v>
-      </c>
-      <c r="U15">
-        <v>0.0001138803004161471</v>
       </c>
       <c r="V15">
         <v>0.0001138803004161471</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>0.0001138803004161471</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>193.4</v>
@@ -2263,21 +2311,24 @@
         <v>193.04</v>
       </c>
       <c r="T16">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U16">
         <v>0.1599999999999966</v>
-      </c>
-      <c r="U16">
-        <v>0.000133224779809149</v>
       </c>
       <c r="V16">
         <v>0.000133224779809149</v>
       </c>
       <c r="W16">
+        <v>0.000133224779809149</v>
+      </c>
+      <c r="X16">
         <v>0.0005173305742369738</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>193.8</v>
@@ -2334,21 +2385,24 @@
         <v>193.1466666666667</v>
       </c>
       <c r="T17">
+        <v>193.5</v>
+      </c>
+      <c r="U17">
         <v>0.1875</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0002460629921261503</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0005525625086337804</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.00206825232678387</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>193.6</v>
@@ -2405,21 +2459,24 @@
         <v>193.22</v>
       </c>
       <c r="T18">
+        <v>193.6</v>
+      </c>
+      <c r="U18">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.0001561315922757878</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0003796769294490687</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-0.001031991744066096</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>193.5</v>
@@ -2476,21 +2533,24 @@
         <v>193.2933333333334</v>
       </c>
       <c r="T19">
+        <v>193.6333333333334</v>
+      </c>
+      <c r="U19">
         <v>0.125</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.0001099942464548587</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0003795328295899125</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-0.0005165289256198191</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>193.5</v>
@@ -2547,21 +2607,24 @@
         <v>193.3466666666667</v>
       </c>
       <c r="T20">
+        <v>193.5333333333333</v>
+      </c>
+      <c r="U20">
         <v>0.1187500000000057</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>9.840508073000187E-05</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0002759191556873652</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>193.5</v>
@@ -2618,21 +2681,24 @@
         <v>193.36</v>
       </c>
       <c r="T21">
+        <v>193.5</v>
+      </c>
+      <c r="U21">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>8.855585831057944E-05</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>6.896076132689721E-05</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>193.9</v>
@@ -2689,21 +2755,24 @@
         <v>193.3733333333333</v>
       </c>
       <c r="T22">
+        <v>193.6333333333333</v>
+      </c>
+      <c r="U22">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0001787177922805139</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>6.895600606804386E-05</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.002067183462532318</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>194.1</v>
@@ -2760,21 +2829,24 @@
         <v>193.4333333333333</v>
       </c>
       <c r="T23">
+        <v>193.8333333333333</v>
+      </c>
+      <c r="U23">
         <v>0.2437500000000057</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0002094937644796513</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0003102806315935513</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.001031459515213884</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>194</v>
@@ -2831,21 +2903,24 @@
         <v>193.4866666666667</v>
       </c>
       <c r="T24">
+        <v>194</v>
+      </c>
+      <c r="U24">
         <v>0.2687500000000114</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0001687383992350355</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0002757194554541265</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-0.0005151983513652647</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>194.2</v>
@@ -2902,21 +2977,24 @@
         <v>193.5466666666667</v>
       </c>
       <c r="T25">
+        <v>194.1</v>
+      </c>
+      <c r="U25">
         <v>0.2562499999999943</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001977655306864001</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0003100988870894383</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.001030927835051543</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>194.7</v>
@@ -2973,21 +3051,24 @@
         <v>193.6533333333333</v>
       </c>
       <c r="T26">
+        <v>194.3</v>
+      </c>
+      <c r="U26">
         <v>0.3062500000000057</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0002853632777981563</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0005511160099200829</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.002574665293511913</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>194.4</v>
@@ -3044,21 +3125,24 @@
         <v>193.7466666666667</v>
       </c>
       <c r="T27">
+        <v>194.4333333333333</v>
+      </c>
+      <c r="U27">
         <v>0.3374999999999773</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0002036685803028515</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.0004819608923163354</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-0.001540832049306551</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>194.4</v>
@@ -3115,21 +3199,24 @@
         <v>193.84</v>
       </c>
       <c r="T28">
+        <v>194.5</v>
+      </c>
+      <c r="U28">
         <v>0.3625000000000114</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001885436183877154</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.000481728717913299</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>194.3</v>
@@ -3186,21 +3273,24 @@
         <v>193.9066666666667</v>
       </c>
       <c r="T29">
+        <v>194.3666666666667</v>
+      </c>
+      <c r="U29">
         <v>0.3812499999999943</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.0001565816248387808</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0003439262622093597</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.0005144032921809982</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>194.2</v>
@@ -3257,21 +3347,24 @@
         <v>193.9666666666667</v>
       </c>
       <c r="T30">
+        <v>194.3</v>
+      </c>
+      <c r="U30">
         <v>0.3625000000000114</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.0001279378769314388</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.0003094272158425948</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.0005146680391149294</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>194.1</v>
@@ -3328,21 +3421,24 @@
         <v>194.0133333333333</v>
       </c>
       <c r="T31">
+        <v>194.2</v>
+      </c>
+      <c r="U31">
         <v>0.3124999999999716</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.0001021674952925711</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.0002405911668672545</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.000514933058702316</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>194.5</v>
@@ -3399,21 +3495,24 @@
         <v>194.06</v>
       </c>
       <c r="T32">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="U32">
         <v>0.3062499999999773</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0003961555685694229</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>0.0002405332966806117</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.002060793405461059</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>194.5</v>
@@ -3470,21 +3569,24 @@
         <v>194.12</v>
       </c>
       <c r="T33">
+        <v>194.3666666666667</v>
+      </c>
+      <c r="U33">
         <v>0.2999999999999829</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0003443466882457891</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.0003091827269916525</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>194.4</v>
@@ -3541,21 +3643,24 @@
         <v>194.18</v>
       </c>
       <c r="T34">
+        <v>194.4666666666667</v>
+      </c>
+      <c r="U34">
         <v>0.2125000000000341</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0003442281544205894</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.0003090871625797131</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0005141388174806361</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>194.1</v>
@@ -3612,21 +3717,24 @@
         <v>194.22</v>
       </c>
       <c r="T35">
+        <v>194.3333333333333</v>
+      </c>
+      <c r="U35">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0002408767915211829</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.000205994438150281</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>-0.001543209876543217</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>194.1</v>
@@ -3683,21 +3791,24 @@
         <v>194.26</v>
       </c>
       <c r="T36">
+        <v>194.2</v>
+      </c>
+      <c r="U36">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0001376107336370502</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>0.0002059520131809656</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>194.1</v>
@@ -3754,21 +3865,24 @@
         <v>194.2733333333333</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>194.1</v>
       </c>
       <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
         <v>6.879589976449552E-05</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>6.863653522759527E-05</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>193.8</v>
@@ -3825,21 +3939,24 @@
         <v>194.2533333333334</v>
       </c>
       <c r="T38">
+        <v>194</v>
+      </c>
+      <c r="U38">
         <v>-0.04375000000001705</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.0001031867508212159</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0001029477368654774</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>-0.001545595054095794</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>194</v>
@@ -3896,21 +4013,24 @@
         <v>194.2533333333334</v>
       </c>
       <c r="T39">
+        <v>193.9666666666667</v>
+      </c>
+      <c r="U39">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>0.0001375681392190575</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
       <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>0.001031991744065985</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>193.9</v>
@@ -3967,21 +4087,24 @@
         <v>194.2333333333333</v>
       </c>
       <c r="T40">
+        <v>193.9</v>
+      </c>
+      <c r="U40">
         <v>-0.1187499999999773</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.0001031619126217187</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0001029583361934483</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>-0.0005154639175257714</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>193.8</v>
@@ -4038,21 +4161,24 @@
         <v>194.1733333333333</v>
       </c>
       <c r="T41">
+        <v>193.9</v>
+      </c>
+      <c r="U41">
         <v>-0.1812500000000057</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>0.0001203431498959517</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0003089068131113537</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.000515729757606942</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>194</v>
@@ -4109,21 +4235,24 @@
         <v>194.1466666666666</v>
       </c>
       <c r="T42">
+        <v>193.9</v>
+      </c>
+      <c r="U42">
         <v>-0.1875</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>0.0001718980988070218</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0001373343404518224</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.001031991744065985</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>194</v>
@@ -4180,21 +4309,24 @@
         <v>194.12</v>
       </c>
       <c r="T43">
+        <v>193.9333333333333</v>
+      </c>
+      <c r="U43">
         <v>-0.1749999999999829</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.0001718685549292331</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-0.0001373532037634018</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>193.8</v>
@@ -4251,21 +4383,24 @@
         <v>194.0866666666667</v>
       </c>
       <c r="T44">
+        <v>193.9333333333333</v>
+      </c>
+      <c r="U44">
         <v>-0.1750000000000398</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>8.591951060266112E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>-0.0001717150903220999</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>-0.001030927835051543</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>193.6</v>
@@ -4322,21 +4457,24 @@
         <v>194.0466666666667</v>
       </c>
       <c r="T45">
+        <v>193.8</v>
+      </c>
+      <c r="U45">
         <v>-0.1937499999999943</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>5.154727744449694E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>-0.0002060934977501372</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>-0.001031991744066096</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>193.5</v>
@@ -4393,21 +4531,24 @@
         <v>194.0066666666667</v>
       </c>
       <c r="T46">
+        <v>193.6333333333333</v>
+      </c>
+      <c r="U46">
         <v>-0.1875</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>1.718154015306617E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>-0.0002061359810355823</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0005165289256198191</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>193.6</v>
@@ -4464,21 +4605,24 @@
         <v>193.9466666666667</v>
       </c>
       <c r="T47">
+        <v>193.5666666666667</v>
+      </c>
+      <c r="U47">
         <v>-0.2062499999999829</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>-3.436248990573709E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-0.0003092677227586327</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.0005167958656331351</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>193.5</v>
@@ -4535,21 +4679,24 @@
         <v>193.88</v>
       </c>
       <c r="T48">
+        <v>193.5333333333333</v>
+      </c>
+      <c r="U48">
         <v>-0.1937499999999943</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-1.71818353638109E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>-0.0003437371098583553</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0005165289256198191</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>193.5</v>
@@ -4606,21 +4753,24 @@
         <v>193.82</v>
       </c>
       <c r="T49">
+        <v>193.5333333333333</v>
+      </c>
+      <c r="U49">
         <v>-0.1687499999999886</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
       <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
         <v>-0.0003094697751184761</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>193.4</v>
@@ -4677,21 +4827,24 @@
         <v>193.7733333333333</v>
       </c>
       <c r="T50">
+        <v>193.4666666666667</v>
+      </c>
+      <c r="U50">
         <v>-0.1812500000000057</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-1.718213058432561E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>-0.0002407732260173434</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>-0.000516795865633024</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>193.5</v>
@@ -4748,21 +4901,24 @@
         <v>193.7333333333333</v>
       </c>
       <c r="T51">
+        <v>193.4666666666667</v>
+      </c>
+      <c r="U51">
         <v>-0.2062499999999829</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
       <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
         <v>-0.0002064267529072739</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.0005170630816959676</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>193.3</v>
@@ -4819,21 +4975,24 @@
         <v>193.68</v>
       </c>
       <c r="T52">
+        <v>193.4</v>
+      </c>
+      <c r="U52">
         <v>-0.2187499999999716</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0001030945548892159</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-0.0002752924982795113</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>-0.001033591731266048</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>193.3</v>
@@ -4890,21 +5049,24 @@
         <v>193.6466666666666</v>
       </c>
       <c r="T53">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U53">
         <v>-0.2062500000000114</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0001374735792964987</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-0.0001721051906925508</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>193.1</v>
@@ -4961,21 +5123,24 @@
         <v>193.5866666666666</v>
       </c>
       <c r="T54">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U54">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-0.000154679040989758</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>-0.0003098426687782041</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>-0.001034661148473948</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>193.2</v>
@@ -5032,21 +5197,24 @@
         <v>193.54</v>
       </c>
       <c r="T55">
+        <v>193.2</v>
+      </c>
+      <c r="U55">
         <v>-0.2125000000000057</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-0.0001718921892188696</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>-0.0002410634341205586</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.0005178663904712444</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>193.3</v>
@@ -5103,21 +5271,24 @@
         <v>193.5066666666667</v>
       </c>
       <c r="T56">
+        <v>193.2</v>
+      </c>
+      <c r="U56">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-0.0002406904377126873</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>-0.0001722296855087846</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.0005175983436853659</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>193.2</v>
@@ -5174,21 +5345,24 @@
         <v>193.4533333333333</v>
       </c>
       <c r="T57">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U57">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0002063557573257491</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0002756149658925677</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0005173305742370848</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>192.8</v>
@@ -5245,21 +5419,24 @@
         <v>193.3733333333333</v>
       </c>
       <c r="T58">
+        <v>193.1</v>
+      </c>
+      <c r="U58">
         <v>-0.2000000000000171</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-0.0002751977984175591</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0004135364256668828</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.002070393374741131</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>192.7</v>
@@ -5316,21 +5493,24 @@
         <v>193.3</v>
       </c>
       <c r="T59">
+        <v>192.9</v>
+      </c>
+      <c r="U59">
         <v>-0.2187500000000284</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.0002752735530935357</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-0.0003792318830586616</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>-0.0005186721991702337</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>192.5</v>
@@ -5387,21 +5567,24 @@
         <v>193.2266666666667</v>
       </c>
       <c r="T60">
+        <v>192.6666666666667</v>
+      </c>
+      <c r="U60">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-0.0002925586838299354</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0003793757544404697</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>-0.001037882719252647</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>192.7</v>
@@ -5458,21 +5641,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T61">
+        <v>192.6333333333333</v>
+      </c>
+      <c r="U61">
         <v>-0.2562499999999943</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-0.0002410011877916896</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0002760143527463788</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.00103896103896095</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>192.9</v>
@@ -5529,21 +5715,24 @@
         <v>193.1266666666667</v>
       </c>
       <c r="T62">
+        <v>192.7</v>
+      </c>
+      <c r="U62">
         <v>-0.2437499999999773</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0002754963238459363</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.0002415792379899528</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.001037882719252758</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>192.9</v>
@@ -5600,21 +5789,24 @@
         <v>193.0866666666667</v>
       </c>
       <c r="T63">
+        <v>192.8333333333333</v>
+      </c>
+      <c r="U63">
         <v>-0.2375000000000114</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-0.0002755722429859109</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0002071179536745626</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>193</v>
@@ -5671,21 +5863,24 @@
         <v>193.0533333333333</v>
       </c>
       <c r="T64">
+        <v>192.9333333333333</v>
+      </c>
+      <c r="U64">
         <v>-0.2437500000000341</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-0.0002411921784821747</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0001726340503400703</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.0005184033177811909</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>193.2</v>
@@ -5742,21 +5937,24 @@
         <v>193.04</v>
       </c>
       <c r="T65">
+        <v>193.0333333333333</v>
+      </c>
+      <c r="U65">
         <v>-0.2249999999999943</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-0.0001550895211179792</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-6.906554320063041E-05</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.001036269430051862</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>193.3</v>
@@ -5813,21 +6011,24 @@
         <v>193.0266666666667</v>
       </c>
       <c r="T66">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U66">
         <v>-0.15625</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-0.0001378787356518529</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-6.907031357916704E-05</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.0005175983436853659</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>193.4</v>
@@ -5884,21 +6085,24 @@
         <v>193.0333333333333</v>
       </c>
       <c r="T67">
+        <v>193.3</v>
+      </c>
+      <c r="U67">
         <v>-0.06249999999997158</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-0.0001206605302169761</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>3.453754230853257E-05</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.0005173305742369738</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>193.3</v>
@@ -5955,21 +6159,24 @@
         <v>193.0333333333333</v>
       </c>
       <c r="T68">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U68">
         <v>0.03749999999999432</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-8.619649352659131E-05</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
       <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
         <v>-0.0005170630816959676</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>193.3</v>
@@ -6026,21 +6233,24 @@
         <v>193.0466666666667</v>
       </c>
       <c r="T69">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U69">
         <v>0.1124999999999829</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-0.0001206854936036672</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>6.907269901579305E-05</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>193.5</v>
@@ -6097,21 +6307,24 @@
         <v>193.0666666666667</v>
       </c>
       <c r="T70">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U70">
         <v>0.1624999999999659</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-6.897146305706592E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>0.0001036018924611692</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.001034661148473726</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>193.5</v>
@@ -6168,21 +6381,24 @@
         <v>193.08</v>
       </c>
       <c r="T71">
+        <v>193.4333333333333</v>
+      </c>
+      <c r="U71">
         <v>0.21875</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>-5.173216533593816E-05</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>6.906077348078909E-05</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>193.5</v>
@@ -6239,21 +6455,24 @@
         <v>193.1</v>
       </c>
       <c r="T72">
+        <v>193.5</v>
+      </c>
+      <c r="U72">
         <v>0.2687499999999829</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-8.622473615238491E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>0.0001035840066292426</v>
       </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>193.5</v>
@@ -6310,21 +6529,24 @@
         <v>193.1466666666667</v>
       </c>
       <c r="T73">
+        <v>193.5</v>
+      </c>
+      <c r="U73">
         <v>0.2874999999999943</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-8.623217149850149E-05</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>0.0002416709822199437</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>193.4</v>
@@ -6381,21 +6603,24 @@
         <v>193.1933333333333</v>
       </c>
       <c r="T74">
+        <v>193.4666666666667</v>
+      </c>
+      <c r="U74">
         <v>0.2624999999999886</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-6.899168650198462E-05</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>0.0002416125914674883</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>-0.000516795865633024</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>193.3</v>
@@ -6452,21 +6677,24 @@
         <v>193.2466666666666</v>
       </c>
       <c r="T75">
+        <v>193.4</v>
+      </c>
+      <c r="U75">
         <v>0.2125000000000057</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-5.174733501200901E-05</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>0.0002760619759136773</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>-0.0005170630816959676</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>193.3</v>
@@ -6523,21 +6751,24 @@
         <v>193.2866666666667</v>
       </c>
       <c r="T76">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U76">
         <v>0.1625000000000227</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-3.450000862492697E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0002069893400491463</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>193.2</v>
@@ -6594,21 +6825,24 @@
         <v>193.3066666666667</v>
       </c>
       <c r="T77">
+        <v>193.2666666666667</v>
+      </c>
+      <c r="U77">
         <v>0.1187500000000057</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-6.900239783336204E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>0.00010347325216431</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.0005173305742370848</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>193.3</v>
@@ -6665,21 +6899,24 @@
         <v>193.3333333333333</v>
       </c>
       <c r="T78">
+        <v>193.2666666666667</v>
+      </c>
+      <c r="U78">
         <v>0.06874999999999432</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-3.450357974632556E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>0.0001379500620775076</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.0005175983436853659</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>193.2</v>
@@ -6736,21 +6973,24 @@
         <v>193.3466666666667</v>
       </c>
       <c r="T79">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U79">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-5.175715542682369E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>6.896551724122624E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0005173305742370848</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>193.1</v>
@@ -6807,21 +7047,24 @@
         <v>193.34</v>
       </c>
       <c r="T80">
+        <v>193.2</v>
+      </c>
+      <c r="U80">
         <v>-0.04374999999996021</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-5.175983436833675E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>-3.448038066333758E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>-0.0005175983436852549</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>193.2</v>
@@ -6878,21 +7121,24 @@
         <v>193.3333333333333</v>
       </c>
       <c r="T81">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U81">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-5.176251358773865E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-3.448156960106363E-05</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.0005178663904712444</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>193.2</v>
@@ -6949,21 +7195,24 @@
         <v>193.32</v>
       </c>
       <c r="T82">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U82">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-1.725506436134339E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-6.896551724133726E-05</v>
       </c>
-      <c r="W82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>193.2</v>
@@ -7020,21 +7269,24 @@
         <v>193.3133333333333</v>
       </c>
       <c r="T83">
+        <v>193.2</v>
+      </c>
+      <c r="U83">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-1.725536210395173E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-3.448513690607058E-05</v>
       </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>193.1</v>
@@ -7091,21 +7343,24 @@
         <v>193.3</v>
       </c>
       <c r="T84">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U84">
         <v>-0.1125000000000114</v>
       </c>
-      <c r="U84">
-        <v>0</v>
-      </c>
       <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
         <v>-6.897265234329097E-05</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>-0.0005175983436852549</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>193.1</v>
@@ -7162,21 +7417,24 @@
         <v>193.2733333333333</v>
       </c>
       <c r="T85">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U85">
         <v>-0.1124999999999829</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-1.725565985644106E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>-0.0001379548197965041</v>
       </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>193.2</v>
@@ -7233,21 +7491,24 @@
         <v>193.2533333333333</v>
       </c>
       <c r="T86">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U86">
         <v>-0.1062500000000171</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>-1.725595761936649E-05</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>-0.0001034803904662596</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0005178663904712444</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>193.1</v>
@@ -7304,21 +7565,24 @@
         <v>193.2266666666666</v>
       </c>
       <c r="T87">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U87">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>-1.725625539261699E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>-0.0001379881330205723</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>-0.0005175983436852549</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>193.1</v>
@@ -7375,21 +7639,24 @@
         <v>193.2</v>
       </c>
       <c r="T88">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U88">
         <v>-0.06875000000002274</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>5.176965952813362E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>-0.0001380071763730228</v>
       </c>
-      <c r="W88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>193.2</v>
@@ -7446,21 +7713,24 @@
         <v>193.1866666666667</v>
       </c>
       <c r="T89">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U89">
         <v>-0.04999999999998295</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>8.627829928231634E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>-6.901311249130071E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.0005178663904712444</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>193.2</v>
@@ -7517,21 +7787,24 @@
         <v>193.18</v>
       </c>
       <c r="T90">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U90">
         <v>-0.03749999999999432</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>0.0001207791983710571</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>-3.450893781498099E-05</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>193.2</v>
@@ -7588,21 +7861,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T91">
+        <v>193.2</v>
+      </c>
+      <c r="U91">
         <v>-0.03125000000002842</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>8.626043751291945E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>-3.451012872279779E-05</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>193.1</v>
@@ -7659,21 +7935,24 @@
         <v>193.1666666666667</v>
       </c>
       <c r="T92">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U92">
         <v>-0.01874999999998295</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>3.450119891668102E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>-3.451131971288213E-05</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>-0.0005175983436852549</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>193.1</v>
@@ -7730,21 +8009,24 @@
         <v>193.1533333333333</v>
       </c>
       <c r="T93">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U93">
         <v>-0.01250000000001705</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>3.450000862503799E-05</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>-6.902502157035695E-05</v>
       </c>
-      <c r="W93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>192.9</v>
@@ -7801,21 +8083,24 @@
         <v>193.1333333333333</v>
       </c>
       <c r="T94">
+        <v>193.0333333333333</v>
+      </c>
+      <c r="U94">
         <v>-0.02499999999997726</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>-1.724940920788676E-05</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>-0.0001035446795291106</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.001035732780942489</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>193</v>
@@ -7872,21 +8157,24 @@
         <v>193.1266666666667</v>
       </c>
       <c r="T95">
+        <v>193</v>
+      </c>
+      <c r="U95">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>-3.449941350996966E-05</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>-3.451846738000697E-05</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0005184033177811909</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>193</v>
@@ -7943,21 +8231,24 @@
         <v>193.1133333333333</v>
       </c>
       <c r="T96">
+        <v>192.9666666666667</v>
+      </c>
+      <c r="U96">
         <v>-0.03125</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>-5.175090564080165E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>-6.90393178915949E-05</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>193</v>
@@ -8014,21 +8305,24 @@
         <v>193.1</v>
       </c>
       <c r="T97">
+        <v>193</v>
+      </c>
+      <c r="U97">
         <v>-0.04374999999998863</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>-6.900477858085008E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>-6.904408464802891E-05</v>
       </c>
-      <c r="W97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>193</v>
@@ -8085,21 +8379,24 @@
         <v>193.0866666666667</v>
       </c>
       <c r="T98">
+        <v>193</v>
+      </c>
+      <c r="U98">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>-5.175715542682369E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>-6.904885206282518E-05</v>
       </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>192.9</v>
@@ -8156,21 +8453,24 @@
         <v>193.0733333333333</v>
       </c>
       <c r="T99">
+        <v>192.9666666666667</v>
+      </c>
+      <c r="U99">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>-6.901311249141173E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>-6.905362013609473E-05</v>
       </c>
-      <c r="W99">
+      <c r="X99">
         <v>-0.0005181347150259308</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>192.7</v>
@@ -8227,21 +8527,24 @@
         <v>193.0466666666667</v>
       </c>
       <c r="T100">
+        <v>192.8666666666667</v>
+      </c>
+      <c r="U100">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>-0.0001380357512594799</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>-0.0001381167777355641</v>
       </c>
-      <c r="W100">
+      <c r="X100">
         <v>-0.001036806635562604</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>192.8</v>
@@ -8298,21 +8601,24 @@
         <v>193.02</v>
       </c>
       <c r="T101">
+        <v>192.8</v>
+      </c>
+      <c r="U101">
         <v>-0.1187500000000057</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>-0.0001207979567888762</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>-0.0001381358566148183</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>0.0005189413596264902</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>192.8</v>
@@ -8369,21 +8675,24 @@
         <v>193</v>
       </c>
       <c r="T102">
+        <v>192.7666666666667</v>
+      </c>
+      <c r="U102">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>-0.0001208125506981794</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>-0.0001036162055746415</v>
       </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>193</v>
@@ -8440,21 +8749,24 @@
         <v>192.9933333333333</v>
       </c>
       <c r="T103">
+        <v>192.8666666666667</v>
+      </c>
+      <c r="U103">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>-8.630510580998063E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>-3.454231433519528E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.001037344398340245</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>192.9</v>
@@ -8511,21 +8823,24 @@
         <v>192.9733333333333</v>
       </c>
       <c r="T104">
+        <v>192.9</v>
+      </c>
+      <c r="U104">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>-8.631255502422608E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>-0.0001036305226431722</v>
       </c>
-      <c r="W104">
+      <c r="X104">
         <v>-0.0005181347150259308</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>193</v>
@@ -8582,21 +8897,24 @@
         <v>192.96</v>
       </c>
       <c r="T105">
+        <v>192.9666666666667</v>
+      </c>
+      <c r="U105">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>-5.17920033146213E-05</v>
       </c>
-      <c r="V105">
+      <c r="W105">
         <v>-6.909417536093976E-05</v>
       </c>
-      <c r="W105">
+      <c r="X105">
         <v>0.0005184033177811909</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>193</v>
@@ -8653,21 +8971,24 @@
         <v>192.9466666666667</v>
       </c>
       <c r="T106">
+        <v>192.9666666666667</v>
+      </c>
+      <c r="U106">
         <v>-0.07500000000001705</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>-5.17946858653584E-05</v>
       </c>
-      <c r="V106">
+      <c r="W106">
         <v>-6.909894969608921E-05</v>
       </c>
-      <c r="W106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>192.9</v>
@@ -8724,21 +9045,24 @@
         <v>192.9333333333333</v>
       </c>
       <c r="T107">
+        <v>192.9666666666667</v>
+      </c>
+      <c r="U107">
         <v>-0.05624999999997726</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>-5.179736869365126E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>-6.910372469071113E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>-0.0005181347150259308</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>193.1</v>
@@ -8795,21 +9119,24 @@
         <v>192.9333333333333</v>
       </c>
       <c r="T108">
+        <v>193</v>
+      </c>
+      <c r="U108">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>-3.453336786662931E-05</v>
       </c>
-      <c r="V108">
-        <v>0</v>
-      </c>
       <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
         <v>0.001036806635562382</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>193</v>
@@ -8866,21 +9193,24 @@
         <v>192.94</v>
       </c>
       <c r="T109">
+        <v>193</v>
+      </c>
+      <c r="U109">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>-3.453456046131897E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>3.455425017273583E-05</v>
       </c>
-      <c r="W109">
+      <c r="X109">
         <v>-0.0005178663904712444</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>193.3</v>
@@ -8937,21 +9267,24 @@
         <v>192.96</v>
       </c>
       <c r="T110">
+        <v>193.1333333333334</v>
+      </c>
+      <c r="U110">
         <v>0.06249999999997158</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>3.453575313816515E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>0.0001036591686536248</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>0.001554404145077681</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>193.4</v>
@@ -9008,21 +9341,24 @@
         <v>192.9866666666667</v>
       </c>
       <c r="T111">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U111">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>3.453456046154102E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>0.0001381978993919564</v>
       </c>
-      <c r="W111">
+      <c r="X111">
         <v>0.0005173305742369738</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>193.4</v>
@@ -9079,21 +9415,24 @@
         <v>193.0133333333333</v>
       </c>
       <c r="T112">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U112">
         <v>0.1250000000000284</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>3.453336786662931E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>0.0001381788033714137</v>
       </c>
-      <c r="W112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>193.4</v>
@@ -9150,21 +9489,24 @@
         <v>193.04</v>
       </c>
       <c r="T113">
+        <v>193.4</v>
+      </c>
+      <c r="U113">
         <v>0.1500000000000057</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>3.453217535454023E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>0.0001381597126277612</v>
       </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>193.3</v>
@@ -9221,21 +9563,24 @@
         <v>193.0666666666667</v>
       </c>
       <c r="T114">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U114">
         <v>0.1687500000000171</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>3.453098292416357E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>0.0001381406271585561</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0005170630816959676</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>193.3</v>
@@ -9292,21 +9637,24 @@
         <v>193.1066666666667</v>
       </c>
       <c r="T115">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U115">
         <v>0.1937500000000227</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>3.452979057683159E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>0.0002071823204419232</v>
       </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>193.3</v>
@@ -9363,21 +9711,24 @@
         <v>193.14</v>
       </c>
       <c r="T116">
+        <v>193.3</v>
+      </c>
+      <c r="U116">
         <v>0.1812500000000057</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>1.726429915560601E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>0.00017261617068276</v>
       </c>
-      <c r="W116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>193.3</v>
@@ -9434,21 +9785,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T117">
+        <v>193.3</v>
+      </c>
+      <c r="U117">
         <v>0.1875</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>3.452800220982155E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>0.0001725863794830307</v>
       </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>193</v>
@@ -9505,21 +9859,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T118">
+        <v>193.2</v>
+      </c>
+      <c r="U118">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-1.726340503394042E-05</v>
       </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
       <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
         <v>-0.001551991722710921</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>193.3</v>
@@ -9576,21 +9933,24 @@
         <v>193.2</v>
       </c>
       <c r="T119">
+        <v>193.2</v>
+      </c>
+      <c r="U119">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>1.726370306420755E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>0.0001380452788513065</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>0.001554404145077681</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>193.1</v>
@@ -9647,21 +10007,24 @@
         <v>193.2066666666667</v>
       </c>
       <c r="T120">
+        <v>193.1333333333334</v>
+      </c>
+      <c r="U120">
         <v>0.05624999999997726</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-1.726340503394042E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>3.450655624570587E-05</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.001034661148473948</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>193</v>
@@ -9718,21 +10081,24 @@
         <v>193.2066666666667</v>
       </c>
       <c r="T121">
+        <v>193.1333333333334</v>
+      </c>
+      <c r="U121">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-3.452740612863714E-05</v>
       </c>
-      <c r="V121">
-        <v>0</v>
-      </c>
       <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
         <v>-0.0005178663904712444</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>193</v>
@@ -9789,21 +10155,24 @@
         <v>193.2133333333333</v>
       </c>
       <c r="T122">
+        <v>193.0333333333333</v>
+      </c>
+      <c r="U122">
         <v>-0.03125000000002842</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-1.726429915593908E-05</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>3.450536558413653E-05</v>
       </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>193</v>
@@ -9860,21 +10229,24 @@
         <v>193.2066666666667</v>
       </c>
       <c r="T123">
+        <v>193</v>
+      </c>
+      <c r="U123">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-1.726459721695939E-05</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-3.450417500494574E-05</v>
       </c>
-      <c r="W123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>193.1</v>
@@ -9931,21 +10303,24 @@
         <v>193.2133333333333</v>
       </c>
       <c r="T124">
+        <v>193.0333333333333</v>
+      </c>
+      <c r="U124">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>3.452979057683159E-05</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>3.450536558435857E-05</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.0005181347150258198</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>193.2</v>
@@ -10002,21 +10377,24 @@
         <v>193.2066666666666</v>
       </c>
       <c r="T125">
+        <v>193.1</v>
+      </c>
+      <c r="U125">
         <v>-0.125</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>3.452859831143407E-05</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-3.45041750052788E-05</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0005178663904712444</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>193.2</v>
@@ -10073,21 +10451,24 @@
         <v>193.1933333333333</v>
       </c>
       <c r="T126">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U126">
         <v>-0.09374999999997158</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>3.452740612863714E-05</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-6.901073116882817E-05</v>
       </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>193.2</v>
@@ -10144,21 +10525,24 @@
         <v>193.18</v>
       </c>
       <c r="T127">
+        <v>193.2</v>
+      </c>
+      <c r="U127">
         <v>-0.09375</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>3.452621402799672E-05</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-6.901549397819728E-05</v>
       </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>193.3</v>
@@ -10215,21 +10599,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T128">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U128">
         <v>-0.0625</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>5.178753301460226E-05</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-3.451012872290882E-05</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0005175983436853659</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>193.1</v>
@@ -10286,21 +10673,24 @@
         <v>193.16</v>
       </c>
       <c r="T129">
+        <v>193.2</v>
+      </c>
+      <c r="U129">
         <v>-0.03125000000002842</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>3.452323413677405E-05</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-6.902263942565323E-05</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.001034661148473948</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>193.1</v>
@@ -10357,21 +10747,24 @@
         <v>193.1466666666667</v>
       </c>
       <c r="T130">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U130">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>6.904408464780687E-05</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-6.902740387926265E-05</v>
       </c>
-      <c r="W130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>193.2</v>
@@ -10428,21 +10821,24 @@
         <v>193.14</v>
       </c>
       <c r="T131">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U131">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>6.903931789170592E-05</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-3.451608449545063E-05</v>
       </c>
-      <c r="W131">
+      <c r="X131">
         <v>0.0005178663904712444</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>193.2</v>
@@ -10499,21 +10895,24 @@
         <v>193.1333333333333</v>
       </c>
       <c r="T132">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U132">
         <v>0.04374999999998863</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>6.903455179307905E-05</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-3.451727589653952E-05</v>
       </c>
-      <c r="W132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>193.1</v>
@@ -10570,21 +10969,24 @@
         <v>193.14</v>
       </c>
       <c r="T133">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U133">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>1.725744658820361E-05</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>3.451846738000697E-05</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0005175983436852549</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>193.1</v>
@@ -10641,21 +11043,24 @@
         <v>193.1266666666667</v>
       </c>
       <c r="T134">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U134">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>3.451429754774971E-05</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-6.903455179307905E-05</v>
       </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>193.3</v>
@@ -10712,21 +11117,24 @@
         <v>193.14</v>
       </c>
       <c r="T135">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U135">
         <v>0.03749999999996589</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>5.176965952813362E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>6.903931789170592E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>0.001035732780942711</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>193.2</v>
@@ -10783,21 +11191,24 @@
         <v>193.1533333333333</v>
       </c>
       <c r="T136">
+        <v>193.2</v>
+      </c>
+      <c r="U136">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>3.451131971288213E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>6.903455179307905E-05</v>
       </c>
-      <c r="W136">
+      <c r="X136">
         <v>-0.0005173305742370848</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>193.2</v>
@@ -10854,21 +11265,24 @@
         <v>193.1666666666667</v>
       </c>
       <c r="T137">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U137">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>5.17651930842522E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>6.902978635281443E-05</v>
       </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>193.2</v>
@@ -10925,21 +11339,24 @@
         <v>193.18</v>
       </c>
       <c r="T138">
+        <v>193.2</v>
+      </c>
+      <c r="U138">
         <v>0.01874999999995453</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>1.725417119580186E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>6.902502157046797E-05</v>
       </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>193.2</v>
@@ -10996,21 +11413,24 @@
         <v>193.1866666666666</v>
       </c>
       <c r="T139">
+        <v>193.2</v>
+      </c>
+      <c r="U139">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>3.450774698920966E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>3.451012872268677E-05</v>
       </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>193.2</v>
@@ -11067,21 +11487,24 @@
         <v>193.1866666666666</v>
       </c>
       <c r="T140">
+        <v>193.2</v>
+      </c>
+      <c r="U140">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-1.725327812263089E-05</v>
       </c>
-      <c r="V140">
-        <v>0</v>
-      </c>
       <c r="W140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>193.1</v>
@@ -11138,21 +11561,24 @@
         <v>193.18</v>
       </c>
       <c r="T141">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U141">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-5.176072741097659E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>-3.450893781475894E-05</v>
       </c>
-      <c r="W141">
+      <c r="X141">
         <v>-0.0005175983436852549</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>193.1</v>
@@ -11209,21 +11635,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T142">
+        <v>193.1333333333333</v>
+      </c>
+      <c r="U142">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-5.176340672219393E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>-3.451012872290882E-05</v>
       </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>193</v>
@@ -11280,21 +11709,24 @@
         <v>193.1533333333333</v>
       </c>
       <c r="T143">
+        <v>193.0666666666666</v>
+      </c>
+      <c r="U143">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-6.90214484151408E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>-0.0001035339591385354</v>
       </c>
-      <c r="W143">
+      <c r="X143">
         <v>-0.0005178663904712444</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>193.2</v>
@@ -11351,21 +11783,24 @@
         <v>193.16</v>
       </c>
       <c r="T144">
+        <v>193.1</v>
+      </c>
+      <c r="U144">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-1.725655317608155E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>3.451489317618517E-05</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>0.001036269430051862</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>193.3</v>
@@ -11422,21 +11857,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T145">
+        <v>193.1666666666667</v>
+      </c>
+      <c r="U145">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U145">
-        <v>0</v>
-      </c>
       <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
         <v>6.902740387948469E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>0.0005175983436853659</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>193.2</v>
@@ -11493,21 +11931,24 @@
         <v>193.1733333333333</v>
       </c>
       <c r="T146">
+        <v>193.2333333333333</v>
+      </c>
+      <c r="U146">
         <v>-0.01249999999998863</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-1.725685096987117E-05</v>
       </c>
-      <c r="V146">
-        <v>0</v>
-      </c>
       <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
         <v>-0.0005173305742370848</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>193.3</v>
@@ -11564,21 +12005,24 @@
         <v>193.18</v>
       </c>
       <c r="T147">
+        <v>193.2666666666667</v>
+      </c>
+      <c r="U147">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U147">
-        <v>0</v>
-      </c>
       <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
         <v>3.451131971288213E-05</v>
       </c>
-      <c r="W147">
+      <c r="X147">
         <v>0.0005175983436853659</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>193.3</v>
@@ -11635,21 +12079,24 @@
         <v>193.1933333333333</v>
       </c>
       <c r="T148">
+        <v>193.2666666666667</v>
+      </c>
+      <c r="U148">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>5.177144632151354E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>6.902025744559559E-05</v>
       </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>193.2</v>
@@ -11706,21 +12153,24 @@
         <v>193.2</v>
       </c>
       <c r="T149">
+        <v>193.2666666666667</v>
+      </c>
+      <c r="U149">
         <v>0.006250000000022737</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>-1.725625539261699E-05</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>3.450774698920966E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>-0.0005173305742370848</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>193.4</v>
@@ -11777,21 +12227,24 @@
         <v>193.2066666666666</v>
       </c>
       <c r="T150">
+        <v>193.3</v>
+      </c>
+      <c r="U150">
         <v>0.02499999999997726</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>5.176965952813362E-05</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>3.450655624570587E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>0.001035196687370732</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>193.4</v>
@@ -11848,21 +12301,24 @@
         <v>193.22</v>
       </c>
       <c r="T151">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U151">
         <v>0.06875000000002274</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>6.902263942576425E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>6.901073116871714E-05</v>
       </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>193.4</v>
@@ -11919,21 +12375,24 @@
         <v>193.2333333333333</v>
       </c>
       <c r="T152">
+        <v>193.4</v>
+      </c>
+      <c r="U152">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>6.901787562973993E-05</v>
       </c>
-      <c r="V152">
+      <c r="W152">
         <v>6.900596901648903E-05</v>
       </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>193.3</v>
@@ -11990,21 +12449,24 @@
         <v>193.24</v>
       </c>
       <c r="T153">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U153">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>5.17598343685588E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>3.450060376053443E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>-0.0005170630816959676</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>193.4</v>
@@ -12061,21 +12523,24 @@
         <v>193.2533333333334</v>
       </c>
       <c r="T154">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U154">
         <v>0.08750000000000568</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>5.175715542660164E-05</v>
       </c>
-      <c r="V154">
+      <c r="W154">
         <v>6.899882702016136E-05</v>
       </c>
-      <c r="W154">
+      <c r="X154">
         <v>0.0005173305742369738</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>193.3</v>
@@ -12132,21 +12597,24 @@
         <v>193.26</v>
       </c>
       <c r="T155">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U155">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>1.725149225428879E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>3.449703325508757E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>-0.0005170630816959676</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>193.3</v>
@@ -12203,21 +12671,24 @@
         <v>193.2733333333333</v>
       </c>
       <c r="T156">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U156">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>1.725119464524028E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>6.899168650176257E-05</v>
       </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>193.3</v>
@@ -12274,21 +12745,24 @@
         <v>193.2866666666667</v>
       </c>
       <c r="T157">
+        <v>193.3</v>
+      </c>
+      <c r="U157">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U157">
+      <c r="V157">
         <v>1.72508970468499E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>6.898692697743236E-05</v>
       </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>193.3</v>
@@ -12345,21 +12819,24 @@
         <v>193.3066666666667</v>
       </c>
       <c r="T158">
+        <v>193.3</v>
+      </c>
+      <c r="U158">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U158">
-        <v>0</v>
-      </c>
       <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
         <v>0.00010347325216431</v>
       </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>193.3</v>
@@ -12416,21 +12893,24 @@
         <v>193.3133333333334</v>
       </c>
       <c r="T159">
+        <v>193.3</v>
+      </c>
+      <c r="U159">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>3.450119891645897E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>3.448751551959894E-05</v>
       </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>193.3</v>
@@ -12487,21 +12967,24 @@
         <v>193.3133333333333</v>
       </c>
       <c r="T160">
+        <v>193.3</v>
+      </c>
+      <c r="U160">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>3.450000862503799E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>-1.110223024625157E-16</v>
       </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>193.4</v>
@@ -12558,21 +13041,24 @@
         <v>193.3266666666667</v>
       </c>
       <c r="T161">
+        <v>193.3333333333333</v>
+      </c>
+      <c r="U161">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>3.449881841532942E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>6.897265234351302E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>0.0005173305742369738</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>193.4</v>
@@ -12629,21 +13115,24 @@
         <v>193.3333333333333</v>
       </c>
       <c r="T162">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U162">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>3.44976282879994E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>3.448394772220809E-05</v>
       </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>193.3</v>
@@ -12700,21 +13189,24 @@
         <v>193.3333333333334</v>
       </c>
       <c r="T163">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U163">
         <v>-0.006250000000022737</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>3.449643824282589E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0005170630816959676</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>193.4</v>
@@ -12771,21 +13263,24 @@
         <v>193.3466666666667</v>
       </c>
       <c r="T164">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U164">
         <v>-2.842170943040401E-14</v>
       </c>
-      <c r="U164">
+      <c r="V164">
         <v>5.174287241938025E-05</v>
       </c>
-      <c r="V164">
+      <c r="W164">
         <v>6.896551724122624E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>0.0005173305742369738</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>193.4</v>
@@ -12842,21 +13337,24 @@
         <v>193.3466666666667</v>
       </c>
       <c r="T165">
+        <v>193.3666666666667</v>
+      </c>
+      <c r="U165">
         <v>2.842170943040401E-14</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>1.724673174430258E-05</v>
       </c>
-      <c r="V165">
-        <v>0</v>
-      </c>
       <c r="W165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="X165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>193.4</v>
@@ -12913,21 +13411,24 @@
         <v>193.3466666666667</v>
       </c>
       <c r="T166">
+        <v>193.4</v>
+      </c>
+      <c r="U166">
         <v>0.01250000000001705</v>
       </c>
-      <c r="U166">
+      <c r="V166">
         <v>3.449286859935619E-05</v>
       </c>
-      <c r="V166">
+      <c r="W166">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>193.5</v>
@@ -12984,21 +13485,24 @@
         <v>193.3533333333334</v>
       </c>
       <c r="T167">
+        <v>193.4333333333333</v>
+      </c>
+      <c r="U167">
         <v>0.03124999999997158</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>5.173751832376894E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>3.448038066333758E-05</v>
       </c>
-      <c r="W167">
+      <c r="X167">
         <v>0.0005170630816959676</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>193.5</v>
@@ -13055,21 +13559,24 @@
         <v>193.3666666666667</v>
       </c>
       <c r="T168">
+        <v>193.4666666666667</v>
+      </c>
+      <c r="U168">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>5.173484169129772E-05</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>6.895838361553608E-05</v>
       </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>193.5</v>
@@ -13126,21 +13633,24 @@
         <v>193.3733333333333</v>
       </c>
       <c r="T169">
+        <v>193.5</v>
+      </c>
+      <c r="U169">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>5.173216533593816E-05</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>3.44768143423213E-05</v>
       </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>193.6</v>
@@ -13197,21 +13707,24 @@
         <v>193.3933333333333</v>
       </c>
       <c r="T170">
+        <v>193.5333333333333</v>
+      </c>
+      <c r="U170">
         <v>0.06250000000002842</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>6.897265234351302E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>0.0001034268771977764</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>0.0005167958656331351</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>193.6</v>
@@ -13268,21 +13781,24 @@
         <v>193.4133333333333</v>
       </c>
       <c r="T171">
+        <v>193.5666666666667</v>
+      </c>
+      <c r="U171">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>8.620986930574226E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>0.0001034161811850343</v>
       </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>193.6</v>
@@ -13339,21 +13855,24 @@
         <v>193.4333333333333</v>
       </c>
       <c r="T172">
+        <v>193.6</v>
+      </c>
+      <c r="U172">
         <v>0.08749999999997726</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>8.620243780499415E-05</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>0.0001034054873845225</v>
       </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>193.6</v>
@@ -13410,21 +13929,24 @@
         <v>193.4533333333333</v>
       </c>
       <c r="T173">
+        <v>193.6</v>
+      </c>
+      <c r="U173">
         <v>0.09375</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>0.0001034340091021768</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>0.0001033947957953529</v>
       </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>193.7</v>
@@ -13481,21 +14003,24 @@
         <v>193.48</v>
       </c>
       <c r="T174">
+        <v>193.6333333333333</v>
+      </c>
+      <c r="U174">
         <v>0.1062499999999886</v>
       </c>
-      <c r="U174">
+      <c r="V174">
         <v>8.618609301214164E-05</v>
       </c>
-      <c r="V174">
+      <c r="W174">
         <v>0.0001378454752221092</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0005165289256197081</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>193.8</v>
@@ -13552,21 +14077,24 @@
         <v>193.5133333333333</v>
       </c>
       <c r="T175">
+        <v>193.7</v>
+      </c>
+      <c r="U175">
         <v>0.1125000000000114</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>8.617866560944876E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>0.0001722830955828147</v>
       </c>
-      <c r="W175">
+      <c r="X175">
         <v>0.0005162622612289169</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>193.8</v>
@@ -13623,21 +14151,24 @@
         <v>193.54</v>
       </c>
       <c r="T176">
+        <v>193.7666666666667</v>
+      </c>
+      <c r="U176">
         <v>0.1187500000000057</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>0.0001034054873845225</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>0.0001378027353842182</v>
       </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>194.1</v>
@@ -13694,21 +14225,24 @@
         <v>193.5866666666667</v>
       </c>
       <c r="T177">
+        <v>193.9</v>
+      </c>
+      <c r="U177">
         <v>0.1499999999999773</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>0.0001378597277270632</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>0.0002411215597120098</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0.001547987616099089</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>194.1</v>
@@ -13765,21 +14299,24 @@
         <v>193.64</v>
       </c>
       <c r="T178">
+        <v>194</v>
+      </c>
+      <c r="U178">
         <v>0.1687499999999886</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>0.0001378407250420821</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>0.0002755010675665748</v>
       </c>
-      <c r="W178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>194.2</v>
@@ -13836,21 +14373,24 @@
         <v>193.6933333333333</v>
       </c>
       <c r="T179">
+        <v>194.1333333333333</v>
+      </c>
+      <c r="U179">
         <v>0.1875000000000284</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>0.0001722771594943051</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>0.0002754251876333491</v>
       </c>
-      <c r="W179">
+      <c r="X179">
         <v>0.0005151983513651537</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>194</v>
@@ -13907,21 +14447,24 @@
         <v>193.7333333333333</v>
       </c>
       <c r="T180">
+        <v>194.1</v>
+      </c>
+      <c r="U180">
         <v>0.2000000000000455</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>0.0001033484911121541</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>0.0002065120121155228</v>
       </c>
-      <c r="W180">
+      <c r="X180">
         <v>-0.001029866117404632</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>193.9</v>
@@ -13978,21 +14521,24 @@
         <v>193.7666666666667</v>
       </c>
       <c r="T181">
+        <v>194.0333333333333</v>
+      </c>
+      <c r="U181">
         <v>0.2062499999999829</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>8.611484275422576E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>0.0001720578114248195</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.0005154639175257714</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>193.8</v>
@@ -14049,21 +14595,24 @@
         <v>193.7866666666667</v>
       </c>
       <c r="T182">
+        <v>193.9</v>
+      </c>
+      <c r="U182">
         <v>0.1937499999999943</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>6.888594210141541E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>0.0001032169275760886</v>
       </c>
-      <c r="W182">
+      <c r="X182">
         <v>-0.000515729757606942</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>194</v>
@@ -14120,21 +14669,24 @@
         <v>193.82</v>
       </c>
       <c r="T183">
+        <v>193.9</v>
+      </c>
+      <c r="U183">
         <v>0.1874999999999716</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>0.0001205420950214364</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>0.0001720104582358939</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.001031991744065985</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>193.9</v>
@@ -14191,21 +14743,24 @@
         <v>193.8466666666667</v>
       </c>
       <c r="T184">
+        <v>193.9</v>
+      </c>
+      <c r="U184">
         <v>0.1750000000000114</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>8.609111884028131E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>0.000137584700581117</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0005154639175257714</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>194.2</v>
@@ -14262,21 +14817,24 @@
         <v>193.8866666666667</v>
       </c>
       <c r="T185">
+        <v>194.0333333333333</v>
+      </c>
+      <c r="U185">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>0.0001549506740352591</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>0.000206348660453326</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>0.001547189272820937</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>194.1</v>
@@ -14333,21 +14891,24 @@
         <v>193.92</v>
       </c>
       <c r="T186">
+        <v>194.0666666666666</v>
+      </c>
+      <c r="U186">
         <v>0.1124999999999829</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>0.0001377125938166746</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>0.0001719217412232688</v>
       </c>
-      <c r="W186">
+      <c r="X186">
         <v>-0.000514933058702316</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>194.2</v>
@@ -14404,21 +14965,24 @@
         <v>193.96</v>
       </c>
       <c r="T187">
+        <v>194.1666666666667</v>
+      </c>
+      <c r="U187">
         <v>0.07500000000001705</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>0.0001549053356282304</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>0.000206270627062688</v>
       </c>
-      <c r="W187">
+      <c r="X187">
         <v>0.0005151983513651537</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>194.2</v>
@@ -14475,21 +15039,24 @@
         <v>194</v>
       </c>
       <c r="T188">
+        <v>194.1666666666667</v>
+      </c>
+      <c r="U188">
         <v>0.0625</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>0.0001548813436815788</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>0.0002062280882657586</v>
       </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="X188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>194.4</v>
@@ -14546,21 +15113,24 @@
         <v>194.0466666666667</v>
       </c>
       <c r="T189">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="U189">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>0.0001892701056473989</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>0.0002405498281787821</v>
       </c>
-      <c r="W189">
+      <c r="X189">
         <v>0.001029866117404854</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>194.3</v>
@@ -14617,21 +15187,24 @@
         <v>194.08</v>
       </c>
       <c r="T190">
+        <v>194.3</v>
+      </c>
+      <c r="U190">
         <v>0.1000000000000227</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>0.000172031172048337</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>0.000171779984196041</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>-0.0005144032921809982</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>194.3</v>
@@ -14688,21 +15261,24 @@
         <v>194.1133333333333</v>
       </c>
       <c r="T191">
+        <v>194.3333333333333</v>
+      </c>
+      <c r="U191">
         <v>0.1062500000000171</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>0.0001548014241730122</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>0.0001717504809013448</v>
       </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="X191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>194.4</v>
@@ -14759,21 +15335,24 @@
         <v>194.1333333333333</v>
       </c>
       <c r="T192">
+        <v>194.3333333333333</v>
+      </c>
+      <c r="U192">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>0.0001719749604458531</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>0.0001030325926434372</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0.0005146680391148184</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>194.4</v>
@@ -14830,21 +15409,24 @@
         <v>194.1533333333333</v>
       </c>
       <c r="T193">
+        <v>194.3666666666667</v>
+      </c>
+      <c r="U193">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>0.0001891399291582552</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>0.0001030219780220332</v>
       </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="X193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>194.4</v>
@@ -14901,21 +15483,24 @@
         <v>194.1666666666667</v>
       </c>
       <c r="T194">
+        <v>194.4</v>
+      </c>
+      <c r="U194">
         <v>0.1562500000000284</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>0.0001719128745552023</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>6.86742437248089E-05</v>
       </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>194.3</v>
@@ -14972,21 +15557,24 @@
         <v>194.1866666666667</v>
       </c>
       <c r="T195">
+        <v>194.3666666666667</v>
+      </c>
+      <c r="U195">
         <v>0.1624999999999943</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>0.0001546949930386621</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>0.0001030042918455099</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>-0.0005144032921809982</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>194.1</v>
@@ -15043,21 +15631,24 @@
         <v>194.2</v>
       </c>
       <c r="T196">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="U196">
         <v>0.1437499999999829</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>0.0001202997181550813</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>6.866245536940596E-05</v>
       </c>
-      <c r="W196">
+      <c r="X196">
         <v>-0.001029336078229637</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>194.1</v>
@@ -15114,21 +15705,24 @@
         <v>194.22</v>
       </c>
       <c r="T197">
+        <v>194.1666666666667</v>
+      </c>
+      <c r="U197">
         <v>0.09375000000002842</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>0.0001031016410346641</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>0.0001029866117403522</v>
       </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="X197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>194.1</v>
@@ -15185,21 +15779,24 @@
         <v>194.2266666666666</v>
       </c>
       <c r="T198">
+        <v>194.1</v>
+      </c>
+      <c r="U198">
         <v>0.05000000000001137</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>0.0001030910121817552</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>3.432533553016093E-05</v>
       </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>194.1</v>
@@ -15256,21 +15853,24 @@
         <v>194.24</v>
       </c>
       <c r="T199">
+        <v>194.1</v>
+      </c>
+      <c r="U199">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>0.0001030803855206486</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>6.864831468433863E-05</v>
       </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="X199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>194</v>
@@ -15327,21 +15927,24 @@
         <v>194.2266666666667</v>
       </c>
       <c r="T200">
+        <v>194.0666666666666</v>
+      </c>
+      <c r="U200">
         <v>-0.03750000000002274</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>6.871317403311927E-05</v>
       </c>
-      <c r="V200">
+      <c r="W200">
         <v>-6.864360241654044E-05</v>
       </c>
-      <c r="W200">
+      <c r="X200">
         <v>-0.0005151983513652647</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>193.9</v>
@@ -15398,21 +16001,24 @@
         <v>194.2133333333333</v>
       </c>
       <c r="T201">
+        <v>194</v>
+      </c>
+      <c r="U201">
         <v>-0.08125000000001137</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>5.153133964297396E-05</v>
       </c>
-      <c r="V201">
+      <c r="W201">
         <v>-6.864831468400556E-05</v>
       </c>
-      <c r="W201">
+      <c r="X201">
         <v>-0.0005154639175257714</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>194</v>
@@ -15469,21 +16075,24 @@
         <v>194.2</v>
       </c>
       <c r="T202">
+        <v>193.9666666666667</v>
+      </c>
+      <c r="U202">
         <v>-0.125</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>6.870491240107413E-05</v>
       </c>
-      <c r="V202">
+      <c r="W202">
         <v>-6.865302759850866E-05</v>
       </c>
-      <c r="W202">
+      <c r="X202">
         <v>0.000515729757607053</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>194</v>
@@ -15540,21 +16149,24 @@
         <v>194.1866666666667</v>
       </c>
       <c r="T203">
+        <v>193.9666666666667</v>
+      </c>
+      <c r="U203">
         <v>-0.1500000000000057</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>6.870019236071556E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>-6.865774116027179E-05</v>
       </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="X203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>194.1</v>
@@ -15611,21 +16223,24 @@
         <v>194.1666666666667</v>
       </c>
       <c r="T204">
+        <v>194.0333333333333</v>
+      </c>
+      <c r="U204">
         <v>-0.1437500000000114</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>6.869547296828316E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>-0.0001029936830541089</v>
       </c>
-      <c r="W204">
+      <c r="X204">
         <v>0.0005154639175257714</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>194.1</v>
@@ -15682,21 +16297,24 @@
         <v>194.1533333333333</v>
       </c>
       <c r="T205">
+        <v>194.0666666666667</v>
+      </c>
+      <c r="U205">
         <v>-0.125</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>5.151806566838779E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>-6.866952789696956E-05</v>
       </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>194.2</v>
@@ -15753,21 +16371,24 @@
         <v>194.1466666666666</v>
       </c>
       <c r="T206">
+        <v>194.1333333333333</v>
+      </c>
+      <c r="U206">
         <v>-0.1062499999999886</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>6.868721559216695E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>-3.433712186251547E-05</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0.0005151983513651537</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>194.2</v>
@@ -15824,21 +16445,24 @@
         <v>194.1333333333333</v>
       </c>
       <c r="T207">
+        <v>194.1666666666667</v>
+      </c>
+      <c r="U207">
         <v>-0.08750000000000568</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>1.717062449535511E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>-6.867660188170088E-05</v>
       </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="X207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>194</v>
@@ -15895,21 +16519,24 @@
         <v>194.1066666666667</v>
       </c>
       <c r="T208">
+        <v>194.1333333333333</v>
+      </c>
+      <c r="U208">
         <v>-0.0625</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>-1.717032967019083E-05</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>-0.0001373626373625259</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.001029866117404632</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>194.1</v>
@@ -15966,21 +16593,24 @@
         <v>194.0866666666667</v>
       </c>
       <c r="T209">
+        <v>194.1</v>
+      </c>
+      <c r="U209">
         <v>-0.01875000000001137</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>-1.717062449591022E-05</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>-0.0001030361313367756</v>
       </c>
-      <c r="W209">
+      <c r="X209">
         <v>0.0005154639175257714</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>194.2</v>
@@ -16037,21 +16667,24 @@
         <v>194.08</v>
       </c>
       <c r="T210">
+        <v>194.1</v>
+      </c>
+      <c r="U210">
         <v>0.01874999999998295</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>3.434183866213303E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>-3.434891629183756E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.0005151983513651537</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>194.2</v>
@@ -16108,21 +16741,24 @@
         <v>194.0866666666667</v>
       </c>
       <c r="T211">
+        <v>194.1666666666667</v>
+      </c>
+      <c r="U211">
         <v>0.04999999999998295</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>5.151098901112761E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>3.435009618035778E-05</v>
       </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>194.2</v>
@@ -16179,21 +16815,24 @@
         <v>194.0933333333333</v>
       </c>
       <c r="T212">
+        <v>194.2</v>
+      </c>
+      <c r="U212">
         <v>0.05625000000000568</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>6.867778102082056E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>3.434891629172654E-05</v>
       </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="X212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>194.4</v>
@@ -16250,21 +16889,24 @@
         <v>194.1133333333333</v>
       </c>
       <c r="T213">
+        <v>194.2666666666667</v>
+      </c>
+      <c r="U213">
         <v>0.07499999999998863</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>6.86730647070366E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>0.0001030432094526468</v>
       </c>
-      <c r="W213">
+      <c r="X213">
         <v>0.001029866117404854</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>194.4</v>
@@ -16321,21 +16963,24 @@
         <v>194.1333333333333</v>
       </c>
       <c r="T214">
+        <v>194.3333333333333</v>
+      </c>
+      <c r="U214">
         <v>0.08125000000001137</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>8.583543630158452E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>0.0001030325926434372</v>
       </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="X214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>194.4</v>
@@ -16392,21 +17037,24 @@
         <v>194.16</v>
       </c>
       <c r="T215">
+        <v>194.4</v>
+      </c>
+      <c r="U215">
         <v>0.08750000000003411</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>3.433122768470298E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0.0001373626373624148</v>
       </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23">
+      <c r="X215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>194.5</v>
@@ -16463,21 +17111,24 @@
         <v>194.2</v>
       </c>
       <c r="T216">
+        <v>194.4333333333333</v>
+      </c>
+      <c r="U216">
         <v>0.1187500000000341</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>6.866009818384811E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.0002060156571901395</v>
       </c>
-      <c r="W216">
+      <c r="X216">
         <v>0.0005144032921811093</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>194.5</v>
@@ -16534,21 +17185,24 @@
         <v>194.2333333333333</v>
       </c>
       <c r="T217">
+        <v>194.4666666666667</v>
+      </c>
+      <c r="U217">
         <v>0.1312499999999943</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>5.149153822392449E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>0.000171644352900735</v>
       </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="X217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>194.5</v>
@@ -16605,21 +17259,24 @@
         <v>194.2666666666667</v>
       </c>
       <c r="T218">
+        <v>194.5</v>
+      </c>
+      <c r="U218">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>5.148888698180976E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>0.0001716148961732333</v>
       </c>
-      <c r="W218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="X218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>194.5</v>
@@ -16676,21 +17333,24 @@
         <v>194.2933333333333</v>
       </c>
       <c r="T219">
+        <v>194.5</v>
+      </c>
+      <c r="U219">
         <v>0.1437500000000114</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>1.716207867086261E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>0.0001372683596430058</v>
       </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:23">
+      <c r="X219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>194.4</v>
@@ -16747,21 +17407,24 @@
         <v>194.3133333333333</v>
       </c>
       <c r="T220">
+        <v>194.4666666666667</v>
+      </c>
+      <c r="U220">
         <v>0.1500000000000057</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>1.716178413913028E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>0.000102937139720094</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0005141388174806361</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>194.5</v>
@@ -16818,21 +17481,24 @@
         <v>194.3333333333333</v>
       </c>
       <c r="T221">
+        <v>194.4666666666667</v>
+      </c>
+      <c r="U221">
         <v>0.1374999999999886</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>3.432297923477989E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>0.0001029265447558547</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0.0005144032921811093</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>194.6</v>
@@ -16889,21 +17555,24 @@
         <v>194.36</v>
       </c>
       <c r="T222">
+        <v>194.5</v>
+      </c>
+      <c r="U222">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>3.432180120777062E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>0.0001372212692967167</v>
       </c>
-      <c r="W222">
+      <c r="X222">
         <v>0.0005141388174807471</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>194.7</v>
@@ -16960,21 +17629,24 @@
         <v>194.4066666666667</v>
       </c>
       <c r="T223">
+        <v>194.6</v>
+      </c>
+      <c r="U223">
         <v>0.1437499999999829</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>5.148093489393268E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>0.0002401042738562342</v>
       </c>
-      <c r="W223">
+      <c r="X223">
         <v>0.0005138746145940676</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>194.7</v>
@@ -17031,21 +17703,24 @@
         <v>194.4466666666667</v>
       </c>
       <c r="T224">
+        <v>194.6666666666667</v>
+      </c>
+      <c r="U224">
         <v>0.125</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>5.147828474361127E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>0.0002057542608278062</v>
       </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="X224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>194.8</v>
@@ -17102,21 +17777,24 @@
         <v>194.4866666666667</v>
       </c>
       <c r="T225">
+        <v>194.7333333333333</v>
+      </c>
+      <c r="U225">
         <v>0.1187499999999773</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>8.579272477682309E-05</v>
       </c>
-      <c r="V225">
+      <c r="W225">
         <v>0.0002057119347207426</v>
       </c>
-      <c r="W225">
+      <c r="X225">
         <v>0.0005136106831022946</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>194.9</v>
@@ -17173,21 +17851,24 @@
         <v>194.5333333333333</v>
       </c>
       <c r="T226">
+        <v>194.8</v>
+      </c>
+      <c r="U226">
         <v>0.1249999999999716</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>0.0001372565840267459</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>0.0002399478970280811</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>0.0005133470225873182</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>194.9</v>
@@ -17244,21 +17925,24 @@
         <v>194.58</v>
       </c>
       <c r="T227">
+        <v>194.8666666666667</v>
+      </c>
+      <c r="U227">
         <v>0.1312500000000227</v>
       </c>
-      <c r="U227">
+      <c r="V227">
         <v>0.0001372377472421693</v>
       </c>
-      <c r="V227">
+      <c r="W227">
         <v>0.0002398903358464821</v>
       </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="X227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>194.7</v>
@@ -17315,21 +17999,24 @@
         <v>194.6</v>
       </c>
       <c r="T228">
+        <v>194.8333333333333</v>
+      </c>
+      <c r="U228">
         <v>0.1375000000000171</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>0.0001029141867205929</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>0.0001027854866892941</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>-0.001026167265264277</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>194.8</v>
@@ -17386,21 +18073,24 @@
         <v>194.6266666666666</v>
       </c>
       <c r="T229">
+        <v>194.8</v>
+      </c>
+      <c r="U229">
         <v>0.1500000000000341</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>0.0001200541958941148</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>0.0001370332305583588</v>
       </c>
-      <c r="W229">
+      <c r="X229">
         <v>0.0005136106831022946</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>194.9</v>
@@ -17457,21 +18147,24 @@
         <v>194.66</v>
       </c>
       <c r="T230">
+        <v>194.8</v>
+      </c>
+      <c r="U230">
         <v>0.15625</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>0.0001543368659326916</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>0.0001712680687813162</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>0.0005133470225873182</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>194.7</v>
@@ -17528,21 +18221,24 @@
         <v>194.6733333333333</v>
       </c>
       <c r="T231">
+        <v>194.8</v>
+      </c>
+      <c r="U231">
         <v>0.1374999999999602</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>0.0001371671553247467</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>6.849549642118369E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>-0.001026167265264277</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>194.7</v>
@@ -17599,15 +18295,18 @@
         <v>194.6866666666667</v>
       </c>
       <c r="T232">
+        <v>194.7666666666667</v>
+      </c>
+      <c r="U232">
         <v>0.125</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>0.0001200048001921417</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>6.84908051094002E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>0</v>
       </c>
     </row>
